--- a/QuoVadisQuax/TestValues.xlsx
+++ b/QuoVadisQuax/TestValues.xlsx
@@ -8,12 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Jonas\Documents\GitHub\Quo-vadis-Quax\QuoVadisQuax\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E9CE6C29-4744-4194-A5E6-493890F15007}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D013510-A123-4AC6-8652-205D34CF64D8}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11115" xr2:uid="{8F5AB63A-ACA6-4B4B-9BF8-58FEC92E4E85}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11115" activeTab="2" xr2:uid="{8F5AB63A-ACA6-4B4B-9BF8-58FEC92E4E85}"/>
   </bookViews>
   <sheets>
-    <sheet name="Test Values" sheetId="1" r:id="rId1"/>
+    <sheet name="Values" sheetId="1" r:id="rId1"/>
+    <sheet name="Overview" sheetId="4" r:id="rId2"/>
+    <sheet name="Diagrams" sheetId="5" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -31,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="19">
   <si>
     <t>Project Status</t>
   </si>
@@ -87,7 +89,7 @@
     <t>Exec. time in ms</t>
   </si>
   <si>
-    <t>GitHub link</t>
+    <t>e9ba12190a5b89a7a3ae86d7504de13096338dd3</t>
   </si>
 </sst>
 </file>
@@ -96,9 +98,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
-    <numFmt numFmtId="167" formatCode="0&quot; ms&quot;"/>
+    <numFmt numFmtId="165" formatCode="0&quot; ms&quot;"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -117,6 +119,21 @@
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -151,22 +168,25 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="49" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Link" xfId="1" builtinId="8"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -180,6 +200,2597 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="de-DE"/>
+              <a:t>Map 0</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Overview!$B$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>n flights</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="de-DE"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Overview!$A$3:$A$10</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Overview!$A$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>e9ba12190a5b89a7a3ae86d7504de13096338dd3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Overview!$B$3:$B$32</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Overview!$B$3</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-CF5A-4CA4-A742-3CC05ED41378}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Overview!$C$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Alg. time in ms</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="de-DE"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Overview!$A$3:$A$10</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Overview!$A$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>e9ba12190a5b89a7a3ae86d7504de13096338dd3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Overview!$C$3:$C$31</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Overview!$C$3</c:f>
+              <c:numCache>
+                <c:formatCode>0" ms"</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-CF5A-4CA4-A742-3CC05ED41378}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Overview!$D$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Exec. time in ms</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="de-DE"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Overview!$A$3:$A$10</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Overview!$A$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>e9ba12190a5b89a7a3ae86d7504de13096338dd3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Overview!$D$3:$D$32</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Overview!$D$3</c:f>
+              <c:numCache>
+                <c:formatCode>0" ms"</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>85</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-CF5A-4CA4-A742-3CC05ED41378}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="t"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="767735536"/>
+        <c:axId val="766388112"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="767735536"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="766388112"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="766388112"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:numFmt formatCode="0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="767735536"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="de-DE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="de-DE"/>
+              <a:t>Map 1</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Overview!$E$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>n flights</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="de-DE"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Overview!$A$3:$A$10</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Overview!$A$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>e9ba12190a5b89a7a3ae86d7504de13096338dd3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Overview!$E$3:$E$32</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Overview!$E$3</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-03F6-43FA-93C1-442CF1A69B7B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Overview!$F$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Alg. time in ms</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="de-DE"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Overview!$A$3:$A$10</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Overview!$A$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>e9ba12190a5b89a7a3ae86d7504de13096338dd3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Overview!$F$3:$F$31</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Overview!$F$3</c:f>
+              <c:numCache>
+                <c:formatCode>0" ms"</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-03F6-43FA-93C1-442CF1A69B7B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Overview!$G$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Exec. time in ms</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="de-DE"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Overview!$A$3:$A$10</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Overview!$A$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>e9ba12190a5b89a7a3ae86d7504de13096338dd3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Overview!$G$3:$G$32</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Overview!$G$3</c:f>
+              <c:numCache>
+                <c:formatCode>0" ms"</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>227</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-03F6-43FA-93C1-442CF1A69B7B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="t"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="767735536"/>
+        <c:axId val="766388112"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="767735536"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="766388112"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="766388112"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:numFmt formatCode="0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="767735536"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="de-DE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Diagramm 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6A5AA28C-5ECC-4FFE-A290-13356F6C92E0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Diagramm 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C9BD1B7D-B376-4DA9-987B-F996E128F052}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -481,8 +3092,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17EE636D-E62A-409B-8683-80E992881F33}">
   <dimension ref="A1:AQ38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView topLeftCell="AB1" workbookViewId="0">
+      <selection activeCell="AF24" sqref="AF24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -510,6 +3121,7 @@
     <col min="31" max="31" width="17.140625" customWidth="1"/>
     <col min="33" max="33" width="14.28515625" customWidth="1"/>
     <col min="34" max="34" width="17.140625" customWidth="1"/>
+    <col min="35" max="35" width="11.42578125" customWidth="1"/>
     <col min="36" max="36" width="14.28515625" customWidth="1"/>
     <col min="37" max="37" width="17.140625" customWidth="1"/>
     <col min="39" max="39" width="14.28515625" customWidth="1"/>
@@ -594,825 +3206,639 @@
       <c r="AQ1" s="2"/>
     </row>
     <row r="2" spans="1:43" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="7"/>
-      <c r="B2" s="4" t="s">
+      <c r="A2" s="6"/>
+      <c r="B2" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G2" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="H2" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="I2" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="J2" s="4" t="s">
+      <c r="J2" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="K2" s="4" t="s">
+      <c r="K2" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="L2" s="4" t="s">
+      <c r="L2" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="M2" s="4" t="s">
+      <c r="M2" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="N2" s="4" t="s">
+      <c r="N2" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="O2" s="4" t="s">
+      <c r="O2" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="P2" s="4" t="s">
+      <c r="P2" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="Q2" s="4" t="s">
+      <c r="Q2" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="R2" s="4" t="s">
+      <c r="R2" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="S2" s="4" t="s">
+      <c r="S2" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="T2" s="4" t="s">
+      <c r="T2" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="U2" s="4" t="s">
+      <c r="U2" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="V2" s="4" t="s">
+      <c r="V2" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="W2" s="4" t="s">
+      <c r="W2" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="X2" s="4" t="s">
+      <c r="X2" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="Y2" s="4" t="s">
+      <c r="Y2" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="Z2" s="4" t="s">
+      <c r="Z2" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="AA2" s="4" t="s">
+      <c r="AA2" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="AB2" s="4" t="s">
+      <c r="AB2" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="AC2" s="4" t="s">
+      <c r="AC2" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="AD2" s="4" t="s">
+      <c r="AD2" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="AE2" s="4" t="s">
+      <c r="AE2" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="AF2" s="4" t="s">
+      <c r="AF2" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="AG2" s="4" t="s">
+      <c r="AG2" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="AH2" s="4" t="s">
+      <c r="AH2" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="AI2" s="4" t="s">
+      <c r="AI2" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="AJ2" s="4" t="s">
+      <c r="AJ2" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="AK2" s="4" t="s">
+      <c r="AK2" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="AL2" s="4" t="s">
+      <c r="AL2" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="AM2" s="4" t="s">
+      <c r="AM2" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="AN2" s="4" t="s">
+      <c r="AN2" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="AO2" s="4" t="s">
+      <c r="AO2" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="AP2" s="4" t="s">
+      <c r="AP2" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="AQ2" s="4" t="s">
+      <c r="AQ2" s="3" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:43" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="9">
-        <f>MEDIAN(B4:B7)</f>
+      <c r="B3" s="8">
+        <v>6</v>
+      </c>
+      <c r="C3" s="7">
+        <v>15</v>
+      </c>
+      <c r="D3" s="7">
+        <v>141</v>
+      </c>
+      <c r="E3" s="8">
+        <v>1</v>
+      </c>
+      <c r="F3" s="7">
         <v>0</v>
       </c>
-      <c r="C3" s="8">
-        <f t="shared" ref="C3:E3" si="0">MEDIAN(C4:C7)</f>
+      <c r="G3" s="7">
+        <v>236</v>
+      </c>
+      <c r="H3" s="8">
+        <v>11</v>
+      </c>
+      <c r="I3" s="7">
         <v>0</v>
       </c>
-      <c r="D3" s="8">
-        <f t="shared" si="0"/>
+      <c r="J3" s="7">
+        <v>536</v>
+      </c>
+      <c r="K3" s="8">
+        <v>15</v>
+      </c>
+      <c r="L3" s="7">
+        <v>2</v>
+      </c>
+      <c r="M3" s="7">
+        <v>1236</v>
+      </c>
+      <c r="N3" s="8">
+        <v>13</v>
+      </c>
+      <c r="O3" s="7">
+        <v>1</v>
+      </c>
+      <c r="P3" s="7">
+        <v>386</v>
+      </c>
+      <c r="Q3" s="8">
+        <v>107</v>
+      </c>
+      <c r="R3" s="7">
+        <v>24</v>
+      </c>
+      <c r="S3" s="7">
+        <v>5541</v>
+      </c>
+      <c r="T3" s="8">
+        <v>23</v>
+      </c>
+      <c r="U3" s="7">
+        <v>1</v>
+      </c>
+      <c r="V3" s="7">
+        <v>1203</v>
+      </c>
+      <c r="W3" s="8">
+        <v>55</v>
+      </c>
+      <c r="X3" s="7">
+        <v>1</v>
+      </c>
+      <c r="Y3" s="7">
+        <v>2386</v>
+      </c>
+      <c r="Z3" s="8">
+        <v>568</v>
+      </c>
+      <c r="AA3" s="7">
+        <v>1478</v>
+      </c>
+      <c r="AB3" s="7">
+        <v>31893</v>
+      </c>
+      <c r="AC3" s="8">
+        <v>261</v>
+      </c>
+      <c r="AD3" s="7">
+        <v>10</v>
+      </c>
+      <c r="AE3" s="7">
+        <v>10143</v>
+      </c>
+      <c r="AF3" s="8">
+        <v>58</v>
+      </c>
+      <c r="AG3" s="7">
         <v>0</v>
       </c>
-      <c r="E3" s="9">
-        <f t="shared" si="0"/>
+      <c r="AH3" s="7">
+        <v>1736</v>
+      </c>
+      <c r="AI3" s="8">
+        <v>999999999999</v>
+      </c>
+      <c r="AJ3" s="7">
+        <v>999999999999</v>
+      </c>
+      <c r="AK3" s="7">
+        <v>999999999999</v>
+      </c>
+      <c r="AL3" s="8">
+        <v>554</v>
+      </c>
+      <c r="AM3" s="7">
+        <v>54316</v>
+      </c>
+      <c r="AN3" s="7">
+        <v>120943</v>
+      </c>
+      <c r="AO3" s="8">
+        <v>1</v>
+      </c>
+      <c r="AP3" s="7">
+        <v>1331901</v>
+      </c>
+      <c r="AQ3" s="7">
+        <v>1454536</v>
+      </c>
+    </row>
+    <row r="4" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A4" s="4"/>
+      <c r="B4" s="8">
+        <v>6</v>
+      </c>
+      <c r="C4" s="7">
         <v>0</v>
       </c>
-      <c r="F3" s="8">
-        <f t="shared" ref="F3" si="1">MEDIAN(F4:F7)</f>
+      <c r="D4" s="7">
+        <v>85</v>
+      </c>
+      <c r="E4" s="8">
+        <v>1</v>
+      </c>
+      <c r="F4" s="7">
         <v>0</v>
       </c>
-      <c r="G3" s="8">
-        <f t="shared" ref="G3:H3" si="2">MEDIAN(G4:G7)</f>
+      <c r="G4" s="7">
+        <v>216</v>
+      </c>
+      <c r="H4" s="8">
+        <v>11</v>
+      </c>
+      <c r="I4" s="7">
         <v>0</v>
       </c>
-      <c r="H3" s="9">
-        <f t="shared" si="2"/>
+      <c r="J4" s="7">
+        <v>536</v>
+      </c>
+      <c r="K4" s="8">
+        <v>15</v>
+      </c>
+      <c r="L4" s="7">
+        <v>2</v>
+      </c>
+      <c r="M4" s="7">
+        <v>1253</v>
+      </c>
+      <c r="N4" s="8">
+        <v>13</v>
+      </c>
+      <c r="O4" s="7">
         <v>0</v>
       </c>
-      <c r="I3" s="8">
-        <f t="shared" ref="I3" si="3">MEDIAN(I4:I7)</f>
+      <c r="P4" s="7">
+        <v>383</v>
+      </c>
+      <c r="Q4" s="8">
+        <v>107</v>
+      </c>
+      <c r="R4" s="7">
+        <v>25</v>
+      </c>
+      <c r="S4" s="7">
+        <v>5541</v>
+      </c>
+      <c r="T4" s="8">
+        <v>23</v>
+      </c>
+      <c r="U4" s="7">
         <v>0</v>
       </c>
-      <c r="J3" s="8">
-        <f t="shared" ref="J3:K3" si="4">MEDIAN(J4:J7)</f>
+      <c r="V4" s="7">
+        <v>1221</v>
+      </c>
+      <c r="W4" s="8">
+        <v>55</v>
+      </c>
+      <c r="X4" s="7">
         <v>0</v>
       </c>
-      <c r="K3" s="9">
-        <f t="shared" si="4"/>
+      <c r="Y4" s="7">
+        <v>2403</v>
+      </c>
+      <c r="Z4" s="8">
+        <v>568</v>
+      </c>
+      <c r="AA4" s="7">
+        <v>1308</v>
+      </c>
+      <c r="AB4" s="7">
+        <v>32010</v>
+      </c>
+      <c r="AC4" s="8">
+        <v>261</v>
+      </c>
+      <c r="AD4" s="7">
+        <v>6</v>
+      </c>
+      <c r="AE4" s="7">
+        <v>10142</v>
+      </c>
+      <c r="AF4" s="8">
+        <v>58</v>
+      </c>
+      <c r="AG4" s="7">
         <v>0</v>
       </c>
-      <c r="L3" s="8">
-        <f t="shared" ref="L3" si="5">MEDIAN(L4:L7)</f>
+      <c r="AH4" s="7">
+        <v>1752</v>
+      </c>
+      <c r="AI4" s="8">
+        <v>999999999999</v>
+      </c>
+      <c r="AJ4" s="7">
+        <v>999999999999</v>
+      </c>
+      <c r="AK4" s="7">
+        <v>999999999999</v>
+      </c>
+      <c r="AL4" s="8">
+        <v>554</v>
+      </c>
+      <c r="AM4" s="7">
+        <v>55467</v>
+      </c>
+      <c r="AN4" s="7">
+        <v>146962</v>
+      </c>
+      <c r="AO4" s="8"/>
+      <c r="AP4" s="7"/>
+      <c r="AQ4" s="7"/>
+    </row>
+    <row r="5" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A5" s="4"/>
+      <c r="B5" s="8">
+        <v>6</v>
+      </c>
+      <c r="C5" s="7">
         <v>0</v>
       </c>
-      <c r="M3" s="8">
-        <f t="shared" ref="M3:N3" si="6">MEDIAN(M4:M7)</f>
+      <c r="D5" s="7">
+        <v>85</v>
+      </c>
+      <c r="E5" s="8">
+        <v>1</v>
+      </c>
+      <c r="F5" s="7">
         <v>0</v>
       </c>
-      <c r="N3" s="9">
-        <f t="shared" si="6"/>
+      <c r="G5" s="7">
+        <v>235</v>
+      </c>
+      <c r="H5" s="8">
+        <v>11</v>
+      </c>
+      <c r="I5" s="7">
         <v>0</v>
       </c>
-      <c r="O3" s="8">
-        <f t="shared" ref="O3" si="7">MEDIAN(O4:O7)</f>
+      <c r="J5" s="7">
+        <v>536</v>
+      </c>
+      <c r="K5" s="8">
+        <v>15</v>
+      </c>
+      <c r="L5" s="7">
+        <v>2</v>
+      </c>
+      <c r="M5" s="7">
+        <v>1253</v>
+      </c>
+      <c r="N5" s="8">
+        <v>13</v>
+      </c>
+      <c r="O5" s="7">
         <v>0</v>
       </c>
-      <c r="P3" s="8">
-        <f t="shared" ref="P3:Q3" si="8">MEDIAN(P4:P7)</f>
+      <c r="P5" s="7">
+        <v>402</v>
+      </c>
+      <c r="Q5" s="8">
+        <v>107</v>
+      </c>
+      <c r="R5" s="7">
+        <v>24</v>
+      </c>
+      <c r="S5" s="7">
+        <v>5537</v>
+      </c>
+      <c r="T5" s="8">
+        <v>23</v>
+      </c>
+      <c r="U5" s="7">
         <v>0</v>
       </c>
-      <c r="Q3" s="9">
-        <f t="shared" si="8"/>
+      <c r="V5" s="7">
+        <v>1237</v>
+      </c>
+      <c r="W5" s="8">
+        <v>55</v>
+      </c>
+      <c r="X5" s="7">
         <v>0</v>
       </c>
-      <c r="R3" s="8">
-        <f t="shared" ref="R3" si="9">MEDIAN(R4:R7)</f>
+      <c r="Y5" s="7">
+        <v>2402</v>
+      </c>
+      <c r="Z5" s="8">
+        <v>568</v>
+      </c>
+      <c r="AA5" s="7">
+        <v>1408</v>
+      </c>
+      <c r="AB5" s="7">
+        <v>31908</v>
+      </c>
+      <c r="AC5" s="8">
+        <v>261</v>
+      </c>
+      <c r="AD5" s="7">
+        <v>7</v>
+      </c>
+      <c r="AE5" s="7">
+        <v>10142</v>
+      </c>
+      <c r="AF5" s="8">
+        <v>58</v>
+      </c>
+      <c r="AG5" s="7">
         <v>0</v>
       </c>
-      <c r="S3" s="8">
-        <f t="shared" ref="S3:T3" si="10">MEDIAN(S4:S7)</f>
+      <c r="AH5" s="7">
+        <v>1736</v>
+      </c>
+      <c r="AI5" s="8">
+        <v>999999999999</v>
+      </c>
+      <c r="AJ5" s="7">
+        <v>999999999999</v>
+      </c>
+      <c r="AK5" s="7">
+        <v>999999999999</v>
+      </c>
+      <c r="AL5" s="8">
+        <v>554</v>
+      </c>
+      <c r="AM5" s="7">
+        <v>52316</v>
+      </c>
+      <c r="AN5" s="7">
+        <v>134319</v>
+      </c>
+      <c r="AO5" s="8"/>
+      <c r="AP5" s="7"/>
+      <c r="AQ5" s="7"/>
+    </row>
+    <row r="6" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A6" s="4"/>
+      <c r="B6" s="8">
+        <v>6</v>
+      </c>
+      <c r="C6" s="7">
         <v>0</v>
       </c>
-      <c r="T3" s="9">
-        <f t="shared" si="10"/>
+      <c r="D6" s="7">
+        <v>84</v>
+      </c>
+      <c r="E6" s="8">
+        <v>1</v>
+      </c>
+      <c r="F6" s="7">
         <v>0</v>
       </c>
-      <c r="U3" s="8">
-        <f t="shared" ref="U3" si="11">MEDIAN(U4:U7)</f>
+      <c r="G6" s="7">
+        <v>219</v>
+      </c>
+      <c r="H6" s="8">
+        <v>11</v>
+      </c>
+      <c r="I6" s="7">
         <v>0</v>
       </c>
-      <c r="V3" s="8">
-        <f t="shared" ref="V3:W3" si="12">MEDIAN(V4:V7)</f>
+      <c r="J6" s="7">
+        <v>552</v>
+      </c>
+      <c r="K6" s="8">
+        <v>15</v>
+      </c>
+      <c r="L6" s="7">
+        <v>2</v>
+      </c>
+      <c r="M6" s="7">
+        <v>1236</v>
+      </c>
+      <c r="N6" s="8">
+        <v>13</v>
+      </c>
+      <c r="O6" s="7">
         <v>0</v>
       </c>
-      <c r="W3" s="9">
-        <f t="shared" si="12"/>
+      <c r="P6" s="7">
+        <v>385</v>
+      </c>
+      <c r="Q6" s="8">
+        <v>107</v>
+      </c>
+      <c r="R6" s="7">
+        <v>24</v>
+      </c>
+      <c r="S6" s="7">
+        <v>5541</v>
+      </c>
+      <c r="T6" s="8">
+        <v>23</v>
+      </c>
+      <c r="U6" s="7">
         <v>0</v>
       </c>
-      <c r="X3" s="8">
-        <f t="shared" ref="X3" si="13">MEDIAN(X4:X7)</f>
+      <c r="V6" s="7">
+        <v>1218</v>
+      </c>
+      <c r="W6" s="8">
+        <v>55</v>
+      </c>
+      <c r="X6" s="7">
+        <v>2</v>
+      </c>
+      <c r="Y6" s="7">
+        <v>2386</v>
+      </c>
+      <c r="Z6" s="8">
+        <v>568</v>
+      </c>
+      <c r="AA6" s="7">
+        <v>1380</v>
+      </c>
+      <c r="AB6" s="7">
+        <v>21893</v>
+      </c>
+      <c r="AC6" s="8">
+        <v>261</v>
+      </c>
+      <c r="AD6" s="7">
+        <v>5</v>
+      </c>
+      <c r="AE6" s="7">
+        <v>10156</v>
+      </c>
+      <c r="AF6" s="8">
+        <v>58</v>
+      </c>
+      <c r="AG6" s="7">
         <v>0</v>
       </c>
-      <c r="Y3" s="8">
-        <f t="shared" ref="Y3:Z3" si="14">MEDIAN(Y4:Y7)</f>
-        <v>0</v>
-      </c>
-      <c r="Z3" s="9">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="AA3" s="8">
-        <f t="shared" ref="AA3" si="15">MEDIAN(AA4:AA7)</f>
-        <v>0</v>
-      </c>
-      <c r="AB3" s="8">
-        <f t="shared" ref="AB3:AC3" si="16">MEDIAN(AB4:AB7)</f>
-        <v>0</v>
-      </c>
-      <c r="AC3" s="9">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="AD3" s="8">
-        <f t="shared" ref="AD3" si="17">MEDIAN(AD4:AD7)</f>
-        <v>0</v>
-      </c>
-      <c r="AE3" s="8">
-        <f t="shared" ref="AE3:AF3" si="18">MEDIAN(AE4:AE7)</f>
-        <v>0</v>
-      </c>
-      <c r="AF3" s="9">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="AG3" s="8">
-        <f t="shared" ref="AG3" si="19">MEDIAN(AG4:AG7)</f>
-        <v>0</v>
-      </c>
-      <c r="AH3" s="8">
-        <f t="shared" ref="AH3:AI3" si="20">MEDIAN(AH4:AH7)</f>
-        <v>0</v>
-      </c>
-      <c r="AI3" s="9">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="AJ3" s="8">
-        <f t="shared" ref="AJ3" si="21">MEDIAN(AJ4:AJ7)</f>
-        <v>0</v>
-      </c>
-      <c r="AK3" s="8">
-        <f t="shared" ref="AK3:AL3" si="22">MEDIAN(AK4:AK7)</f>
-        <v>0</v>
-      </c>
-      <c r="AL3" s="9">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="AM3" s="8">
-        <f t="shared" ref="AM3" si="23">MEDIAN(AM4:AM7)</f>
-        <v>0</v>
-      </c>
-      <c r="AN3" s="8">
-        <f t="shared" ref="AN3:AO3" si="24">MEDIAN(AN4:AN7)</f>
-        <v>0</v>
-      </c>
-      <c r="AO3" s="9">
-        <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="AP3" s="8">
-        <f t="shared" ref="AP3" si="25">MEDIAN(AP4:AP7)</f>
-        <v>0</v>
-      </c>
-      <c r="AQ3" s="8">
-        <f t="shared" ref="AQ3" si="26">MEDIAN(AQ4:AQ7)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A4" s="5"/>
-      <c r="B4" s="9">
-        <v>0</v>
-      </c>
-      <c r="C4" s="8">
-        <v>0</v>
-      </c>
-      <c r="D4" s="8">
-        <v>0</v>
-      </c>
-      <c r="E4" s="9">
-        <v>0</v>
-      </c>
-      <c r="F4" s="8">
-        <v>0</v>
-      </c>
-      <c r="G4" s="8">
-        <v>0</v>
-      </c>
-      <c r="H4" s="9">
-        <v>0</v>
-      </c>
-      <c r="I4" s="8">
-        <v>0</v>
-      </c>
-      <c r="J4" s="8">
-        <v>0</v>
-      </c>
-      <c r="K4" s="9">
-        <v>0</v>
-      </c>
-      <c r="L4" s="8">
-        <v>0</v>
-      </c>
-      <c r="M4" s="8">
-        <v>0</v>
-      </c>
-      <c r="N4" s="9">
-        <v>0</v>
-      </c>
-      <c r="O4" s="8">
-        <v>0</v>
-      </c>
-      <c r="P4" s="8">
-        <v>0</v>
-      </c>
-      <c r="Q4" s="9">
-        <v>0</v>
-      </c>
-      <c r="R4" s="8">
-        <v>0</v>
-      </c>
-      <c r="S4" s="8">
-        <v>0</v>
-      </c>
-      <c r="T4" s="9">
-        <v>0</v>
-      </c>
-      <c r="U4" s="8">
-        <v>0</v>
-      </c>
-      <c r="V4" s="8">
-        <v>0</v>
-      </c>
-      <c r="W4" s="9">
-        <v>0</v>
-      </c>
-      <c r="X4" s="8">
-        <v>0</v>
-      </c>
-      <c r="Y4" s="8">
-        <v>0</v>
-      </c>
-      <c r="Z4" s="9">
-        <v>0</v>
-      </c>
-      <c r="AA4" s="8">
-        <v>0</v>
-      </c>
-      <c r="AB4" s="8">
-        <v>0</v>
-      </c>
-      <c r="AC4" s="9">
-        <v>0</v>
-      </c>
-      <c r="AD4" s="8">
-        <v>0</v>
-      </c>
-      <c r="AE4" s="8">
-        <v>0</v>
-      </c>
-      <c r="AF4" s="9">
-        <v>0</v>
-      </c>
-      <c r="AG4" s="8">
-        <v>0</v>
-      </c>
-      <c r="AH4" s="8">
-        <v>0</v>
-      </c>
-      <c r="AI4" s="9">
-        <v>0</v>
-      </c>
-      <c r="AJ4" s="8">
-        <v>0</v>
-      </c>
-      <c r="AK4" s="8">
-        <v>0</v>
-      </c>
-      <c r="AL4" s="9">
-        <v>0</v>
-      </c>
-      <c r="AM4" s="8">
-        <v>0</v>
-      </c>
-      <c r="AN4" s="8">
-        <v>0</v>
-      </c>
-      <c r="AO4" s="9">
-        <v>0</v>
-      </c>
-      <c r="AP4" s="8">
-        <v>0</v>
-      </c>
-      <c r="AQ4" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A5" s="5"/>
-      <c r="B5" s="9">
-        <v>0</v>
-      </c>
-      <c r="C5" s="8">
-        <v>0</v>
-      </c>
-      <c r="D5" s="8">
-        <v>0</v>
-      </c>
-      <c r="E5" s="9">
-        <v>0</v>
-      </c>
-      <c r="F5" s="8">
-        <v>0</v>
-      </c>
-      <c r="G5" s="8">
-        <v>0</v>
-      </c>
-      <c r="H5" s="9">
-        <v>0</v>
-      </c>
-      <c r="I5" s="8">
-        <v>0</v>
-      </c>
-      <c r="J5" s="8">
-        <v>0</v>
-      </c>
-      <c r="K5" s="9">
-        <v>0</v>
-      </c>
-      <c r="L5" s="8">
-        <v>0</v>
-      </c>
-      <c r="M5" s="8">
-        <v>0</v>
-      </c>
-      <c r="N5" s="9">
-        <v>0</v>
-      </c>
-      <c r="O5" s="8">
-        <v>0</v>
-      </c>
-      <c r="P5" s="8">
-        <v>0</v>
-      </c>
-      <c r="Q5" s="9">
-        <v>0</v>
-      </c>
-      <c r="R5" s="8">
-        <v>0</v>
-      </c>
-      <c r="S5" s="8">
-        <v>0</v>
-      </c>
-      <c r="T5" s="9">
-        <v>0</v>
-      </c>
-      <c r="U5" s="8">
-        <v>0</v>
-      </c>
-      <c r="V5" s="8">
-        <v>0</v>
-      </c>
-      <c r="W5" s="9">
-        <v>0</v>
-      </c>
-      <c r="X5" s="8">
-        <v>0</v>
-      </c>
-      <c r="Y5" s="8">
-        <v>0</v>
-      </c>
-      <c r="Z5" s="9">
-        <v>0</v>
-      </c>
-      <c r="AA5" s="8">
-        <v>0</v>
-      </c>
-      <c r="AB5" s="8">
-        <v>0</v>
-      </c>
-      <c r="AC5" s="9">
-        <v>0</v>
-      </c>
-      <c r="AD5" s="8">
-        <v>0</v>
-      </c>
-      <c r="AE5" s="8">
-        <v>0</v>
-      </c>
-      <c r="AF5" s="9">
-        <v>0</v>
-      </c>
-      <c r="AG5" s="8">
-        <v>0</v>
-      </c>
-      <c r="AH5" s="8">
-        <v>0</v>
-      </c>
-      <c r="AI5" s="9">
-        <v>0</v>
-      </c>
-      <c r="AJ5" s="8">
-        <v>0</v>
-      </c>
-      <c r="AK5" s="8">
-        <v>0</v>
-      </c>
-      <c r="AL5" s="9">
-        <v>0</v>
-      </c>
-      <c r="AM5" s="8">
-        <v>0</v>
-      </c>
-      <c r="AN5" s="8">
-        <v>0</v>
-      </c>
-      <c r="AO5" s="9">
-        <v>0</v>
-      </c>
-      <c r="AP5" s="8">
-        <v>0</v>
-      </c>
-      <c r="AQ5" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A6" s="5"/>
-      <c r="B6" s="9">
-        <v>0</v>
-      </c>
-      <c r="C6" s="8">
-        <v>0</v>
-      </c>
-      <c r="D6" s="8">
-        <v>0</v>
-      </c>
-      <c r="E6" s="9">
-        <v>0</v>
-      </c>
-      <c r="F6" s="8">
-        <v>0</v>
-      </c>
-      <c r="G6" s="8">
-        <v>0</v>
-      </c>
-      <c r="H6" s="9">
-        <v>0</v>
-      </c>
-      <c r="I6" s="8">
-        <v>0</v>
-      </c>
-      <c r="J6" s="8">
-        <v>0</v>
-      </c>
-      <c r="K6" s="9">
-        <v>0</v>
-      </c>
-      <c r="L6" s="8">
-        <v>0</v>
-      </c>
-      <c r="M6" s="8">
-        <v>0</v>
-      </c>
-      <c r="N6" s="9">
-        <v>0</v>
-      </c>
-      <c r="O6" s="8">
-        <v>0</v>
-      </c>
-      <c r="P6" s="8">
-        <v>0</v>
-      </c>
-      <c r="Q6" s="9">
-        <v>0</v>
-      </c>
-      <c r="R6" s="8">
-        <v>0</v>
-      </c>
-      <c r="S6" s="8">
-        <v>0</v>
-      </c>
-      <c r="T6" s="9">
-        <v>0</v>
-      </c>
-      <c r="U6" s="8">
-        <v>0</v>
-      </c>
-      <c r="V6" s="8">
-        <v>0</v>
-      </c>
-      <c r="W6" s="9">
-        <v>0</v>
-      </c>
-      <c r="X6" s="8">
-        <v>0</v>
-      </c>
-      <c r="Y6" s="8">
-        <v>0</v>
-      </c>
-      <c r="Z6" s="9">
-        <v>0</v>
-      </c>
-      <c r="AA6" s="8">
-        <v>0</v>
-      </c>
-      <c r="AB6" s="8">
-        <v>0</v>
-      </c>
-      <c r="AC6" s="9">
-        <v>0</v>
-      </c>
-      <c r="AD6" s="8">
-        <v>0</v>
-      </c>
-      <c r="AE6" s="8">
-        <v>0</v>
-      </c>
-      <c r="AF6" s="9">
-        <v>0</v>
-      </c>
-      <c r="AG6" s="8">
-        <v>0</v>
-      </c>
-      <c r="AH6" s="8">
-        <v>0</v>
-      </c>
-      <c r="AI6" s="9">
-        <v>0</v>
-      </c>
-      <c r="AJ6" s="8">
-        <v>0</v>
-      </c>
-      <c r="AK6" s="8">
-        <v>0</v>
-      </c>
-      <c r="AL6" s="9">
-        <v>0</v>
-      </c>
-      <c r="AM6" s="8">
-        <v>0</v>
-      </c>
-      <c r="AN6" s="8">
-        <v>0</v>
-      </c>
-      <c r="AO6" s="9">
-        <v>0</v>
-      </c>
-      <c r="AP6" s="8">
-        <v>0</v>
-      </c>
-      <c r="AQ6" s="8">
-        <v>0</v>
-      </c>
+      <c r="AH6" s="7">
+        <v>1751</v>
+      </c>
+      <c r="AI6" s="8">
+        <v>999999999999</v>
+      </c>
+      <c r="AJ6" s="7">
+        <v>999999999999</v>
+      </c>
+      <c r="AK6" s="7">
+        <v>999999999999</v>
+      </c>
+      <c r="AL6" s="8">
+        <v>554</v>
+      </c>
+      <c r="AM6" s="7">
+        <v>51814</v>
+      </c>
+      <c r="AN6" s="7">
+        <v>133551</v>
+      </c>
+      <c r="AO6" s="8"/>
+      <c r="AP6" s="7"/>
+      <c r="AQ6" s="7"/>
     </row>
     <row r="7" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A7" s="5"/>
-      <c r="B7" s="9">
-        <v>0</v>
-      </c>
-      <c r="C7" s="8">
-        <v>0</v>
-      </c>
-      <c r="D7" s="8">
-        <v>0</v>
-      </c>
-      <c r="E7" s="9">
-        <v>0</v>
-      </c>
-      <c r="F7" s="8">
-        <v>0</v>
-      </c>
-      <c r="G7" s="8">
-        <v>0</v>
-      </c>
-      <c r="H7" s="9">
-        <v>0</v>
-      </c>
-      <c r="I7" s="8">
-        <v>0</v>
-      </c>
-      <c r="J7" s="8">
-        <v>0</v>
-      </c>
-      <c r="K7" s="9">
-        <v>0</v>
-      </c>
-      <c r="L7" s="8">
-        <v>0</v>
-      </c>
-      <c r="M7" s="8">
-        <v>0</v>
-      </c>
-      <c r="N7" s="9">
-        <v>0</v>
-      </c>
-      <c r="O7" s="8">
-        <v>0</v>
-      </c>
-      <c r="P7" s="8">
-        <v>0</v>
-      </c>
-      <c r="Q7" s="9">
-        <v>0</v>
-      </c>
-      <c r="R7" s="8">
-        <v>0</v>
-      </c>
-      <c r="S7" s="8">
-        <v>0</v>
-      </c>
-      <c r="T7" s="9">
-        <v>0</v>
-      </c>
-      <c r="U7" s="8">
-        <v>0</v>
-      </c>
-      <c r="V7" s="8">
-        <v>0</v>
-      </c>
-      <c r="W7" s="9">
-        <v>0</v>
-      </c>
-      <c r="X7" s="8">
-        <v>0</v>
-      </c>
-      <c r="Y7" s="8">
-        <v>0</v>
-      </c>
-      <c r="Z7" s="9">
-        <v>0</v>
-      </c>
-      <c r="AA7" s="8">
-        <v>0</v>
-      </c>
-      <c r="AB7" s="8">
-        <v>0</v>
-      </c>
-      <c r="AC7" s="9">
-        <v>0</v>
-      </c>
-      <c r="AD7" s="8">
-        <v>0</v>
-      </c>
-      <c r="AE7" s="8">
-        <v>0</v>
-      </c>
-      <c r="AF7" s="9">
-        <v>0</v>
-      </c>
-      <c r="AG7" s="8">
-        <v>0</v>
-      </c>
-      <c r="AH7" s="8">
-        <v>0</v>
-      </c>
-      <c r="AI7" s="9">
-        <v>0</v>
-      </c>
-      <c r="AJ7" s="8">
-        <v>0</v>
-      </c>
-      <c r="AK7" s="8">
-        <v>0</v>
-      </c>
-      <c r="AL7" s="9">
-        <v>0</v>
-      </c>
-      <c r="AM7" s="8">
-        <v>0</v>
-      </c>
-      <c r="AN7" s="8">
-        <v>0</v>
-      </c>
-      <c r="AO7" s="9">
-        <v>0</v>
-      </c>
-      <c r="AP7" s="8">
-        <v>0</v>
-      </c>
-      <c r="AQ7" s="8">
-        <v>0</v>
-      </c>
+      <c r="A7" s="4"/>
     </row>
     <row r="8" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A8" s="5"/>
+      <c r="A8" s="4"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
@@ -1429,7 +3855,7 @@
       <c r="O8" s="1"/>
     </row>
     <row r="9" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A9" s="5"/>
+      <c r="A9" s="4"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -1446,7 +3872,7 @@
       <c r="O9" s="1"/>
     </row>
     <row r="10" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A10" s="5"/>
+      <c r="A10" s="4"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
@@ -1463,7 +3889,7 @@
       <c r="O10" s="1"/>
     </row>
     <row r="11" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A11" s="5"/>
+      <c r="A11" s="4"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
@@ -1480,7 +3906,7 @@
       <c r="O11" s="1"/>
     </row>
     <row r="12" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A12" s="5"/>
+      <c r="A12" s="4"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
@@ -1497,7 +3923,7 @@
       <c r="O12" s="1"/>
     </row>
     <row r="13" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A13" s="5"/>
+      <c r="A13" s="4"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
@@ -1514,7 +3940,7 @@
       <c r="O13" s="1"/>
     </row>
     <row r="14" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A14" s="5"/>
+      <c r="A14" s="4"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
@@ -1531,7 +3957,7 @@
       <c r="O14" s="1"/>
     </row>
     <row r="15" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A15" s="5"/>
+      <c r="A15" s="4"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
@@ -1548,7 +3974,7 @@
       <c r="O15" s="1"/>
     </row>
     <row r="16" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A16" s="5"/>
+      <c r="A16" s="4"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
@@ -1565,7 +3991,7 @@
       <c r="O16" s="1"/>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A17" s="5"/>
+      <c r="A17" s="4"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
@@ -1582,7 +4008,7 @@
       <c r="O17" s="1"/>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A18" s="5"/>
+      <c r="A18" s="4"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
@@ -1599,7 +4025,7 @@
       <c r="O18" s="1"/>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A19" s="5"/>
+      <c r="A19" s="4"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
@@ -1616,7 +4042,7 @@
       <c r="O19" s="1"/>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A20" s="5"/>
+      <c r="A20" s="4"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
@@ -1633,7 +4059,7 @@
       <c r="O20" s="1"/>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A21" s="5"/>
+      <c r="A21" s="4"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
@@ -1650,7 +4076,7 @@
       <c r="O21" s="1"/>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A22" s="5"/>
+      <c r="A22" s="4"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
@@ -1667,7 +4093,7 @@
       <c r="O22" s="1"/>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A23" s="5"/>
+      <c r="A23" s="4"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
@@ -1684,7 +4110,7 @@
       <c r="O23" s="1"/>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A24" s="5"/>
+      <c r="A24" s="4"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
@@ -1701,7 +4127,7 @@
       <c r="O24" s="1"/>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A25" s="5"/>
+      <c r="A25" s="4"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
@@ -1718,7 +4144,7 @@
       <c r="O25" s="1"/>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A26" s="5"/>
+      <c r="A26" s="4"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
@@ -1735,7 +4161,7 @@
       <c r="O26" s="1"/>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A27" s="5"/>
+      <c r="A27" s="4"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
@@ -1752,7 +4178,7 @@
       <c r="O27" s="1"/>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A28" s="5"/>
+      <c r="A28" s="4"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
@@ -1769,7 +4195,7 @@
       <c r="O28" s="1"/>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A29" s="5"/>
+      <c r="A29" s="4"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
@@ -1786,7 +4212,7 @@
       <c r="O29" s="1"/>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A30" s="5"/>
+      <c r="A30" s="4"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
@@ -1803,7 +4229,7 @@
       <c r="O30" s="1"/>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A31" s="6"/>
+      <c r="A31" s="5"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
@@ -1820,28 +4246,1042 @@
       <c r="O31" s="1"/>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A32" s="6"/>
+      <c r="A32" s="5"/>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A33" s="6"/>
+      <c r="A33" s="5"/>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A34" s="6"/>
+      <c r="A34" s="5"/>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A35" s="6"/>
+      <c r="A35" s="5"/>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A36" s="6"/>
+      <c r="A36" s="5"/>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A37" s="6"/>
+      <c r="A37" s="5"/>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A38" s="6"/>
+      <c r="A38" s="5"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A3" r:id="rId1" display="https://github.com/atalantus/Quo-vadis-Quax/tree/e9ba12190a5b89a7a3ae86d7504de13096338dd3" xr:uid="{68B6145C-EE0B-4FA3-882B-FCE731737487}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{358AC821-81AF-4436-97C1-FE0668787897}">
+  <dimension ref="A1:AQ38"/>
+  <sheetViews>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="AP3" sqref="AP3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="28.5703125" customWidth="1"/>
+    <col min="3" max="3" width="14.28515625" customWidth="1"/>
+    <col min="4" max="4" width="17.140625" customWidth="1"/>
+    <col min="6" max="6" width="14.28515625" customWidth="1"/>
+    <col min="7" max="7" width="17.140625" customWidth="1"/>
+    <col min="9" max="9" width="14.28515625" customWidth="1"/>
+    <col min="10" max="10" width="17.140625" customWidth="1"/>
+    <col min="12" max="12" width="14.28515625" customWidth="1"/>
+    <col min="13" max="13" width="17.140625" customWidth="1"/>
+    <col min="15" max="15" width="14.28515625" customWidth="1"/>
+    <col min="16" max="16" width="17.140625" customWidth="1"/>
+    <col min="18" max="18" width="14.28515625" customWidth="1"/>
+    <col min="19" max="19" width="17.140625" customWidth="1"/>
+    <col min="21" max="21" width="14.28515625" customWidth="1"/>
+    <col min="22" max="22" width="17.140625" customWidth="1"/>
+    <col min="24" max="24" width="14.28515625" customWidth="1"/>
+    <col min="25" max="25" width="17.140625" customWidth="1"/>
+    <col min="27" max="27" width="14.28515625" customWidth="1"/>
+    <col min="28" max="28" width="17.140625" customWidth="1"/>
+    <col min="30" max="30" width="14.28515625" customWidth="1"/>
+    <col min="31" max="31" width="17.140625" customWidth="1"/>
+    <col min="33" max="33" width="14.28515625" customWidth="1"/>
+    <col min="34" max="34" width="17.140625" customWidth="1"/>
+    <col min="35" max="35" width="11.42578125" customWidth="1"/>
+    <col min="36" max="36" width="14.28515625" customWidth="1"/>
+    <col min="37" max="37" width="17.140625" customWidth="1"/>
+    <col min="39" max="39" width="14.28515625" customWidth="1"/>
+    <col min="40" max="40" width="17.140625" customWidth="1"/>
+    <col min="42" max="42" width="14.28515625" customWidth="1"/>
+    <col min="43" max="43" width="15.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:43" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="O1" s="2"/>
+      <c r="P1" s="2"/>
+      <c r="Q1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="R1" s="2"/>
+      <c r="S1" s="2"/>
+      <c r="T1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="U1" s="2"/>
+      <c r="V1" s="2"/>
+      <c r="W1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="X1" s="2"/>
+      <c r="Y1" s="2"/>
+      <c r="Z1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="AA1" s="2"/>
+      <c r="AB1" s="2"/>
+      <c r="AC1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="AD1" s="2"/>
+      <c r="AE1" s="2"/>
+      <c r="AF1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="AG1" s="2"/>
+      <c r="AH1" s="2"/>
+      <c r="AI1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="AJ1" s="2"/>
+      <c r="AK1" s="2"/>
+      <c r="AL1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="AM1" s="2"/>
+      <c r="AN1" s="2"/>
+      <c r="AO1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="AP1" s="2"/>
+      <c r="AQ1" s="2"/>
+    </row>
+    <row r="2" spans="1:43" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="6"/>
+      <c r="B2" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="O2" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="P2" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q2" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="R2" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="S2" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="T2" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="U2" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="V2" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="W2" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="X2" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="Y2" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="Z2" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="AA2" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="AB2" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="AC2" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="AD2" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="AE2" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="AF2" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="AG2" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="AH2" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="AI2" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="AJ2" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="AK2" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="AL2" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="AM2" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="AN2" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="AO2" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="AP2" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="AQ2" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:43" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="10" t="str">
+        <f>Values!A3</f>
+        <v>e9ba12190a5b89a7a3ae86d7504de13096338dd3</v>
+      </c>
+      <c r="B3" s="8">
+        <f>MEDIAN(Values!B3:B6)</f>
+        <v>6</v>
+      </c>
+      <c r="C3" s="7">
+        <f>MEDIAN(Values!C3:C6)</f>
+        <v>0</v>
+      </c>
+      <c r="D3" s="7">
+        <f>MEDIAN(Values!D3:D6)</f>
+        <v>85</v>
+      </c>
+      <c r="E3" s="8">
+        <f>MEDIAN(Values!E3:E6)</f>
+        <v>1</v>
+      </c>
+      <c r="F3" s="7">
+        <f>MEDIAN(Values!F3:F6)</f>
+        <v>0</v>
+      </c>
+      <c r="G3" s="7">
+        <f>MEDIAN(Values!G3:G6)</f>
+        <v>227</v>
+      </c>
+      <c r="H3" s="8">
+        <f>MEDIAN(Values!H3:H6)</f>
+        <v>11</v>
+      </c>
+      <c r="I3" s="7">
+        <f>MEDIAN(Values!I3:I6)</f>
+        <v>0</v>
+      </c>
+      <c r="J3" s="7">
+        <f>MEDIAN(Values!J3:J6)</f>
+        <v>536</v>
+      </c>
+      <c r="K3" s="8">
+        <f>MEDIAN(Values!K3:K6)</f>
+        <v>15</v>
+      </c>
+      <c r="L3" s="7">
+        <f>MEDIAN(Values!L3:L6)</f>
+        <v>2</v>
+      </c>
+      <c r="M3" s="7">
+        <f>MEDIAN(Values!M3:M6)</f>
+        <v>1244.5</v>
+      </c>
+      <c r="N3" s="8">
+        <f>MEDIAN(Values!N3:N6)</f>
+        <v>13</v>
+      </c>
+      <c r="O3" s="7">
+        <f>MEDIAN(Values!O3:O6)</f>
+        <v>0</v>
+      </c>
+      <c r="P3" s="7">
+        <f>MEDIAN(Values!P3:P6)</f>
+        <v>385.5</v>
+      </c>
+      <c r="Q3" s="8">
+        <f>MEDIAN(Values!Q3:Q6)</f>
+        <v>107</v>
+      </c>
+      <c r="R3" s="7">
+        <f>MEDIAN(Values!R3:R6)</f>
+        <v>24</v>
+      </c>
+      <c r="S3" s="7">
+        <f>MEDIAN(Values!S3:S6)</f>
+        <v>5541</v>
+      </c>
+      <c r="T3" s="8">
+        <f>MEDIAN(Values!T3:T6)</f>
+        <v>23</v>
+      </c>
+      <c r="U3" s="7">
+        <f>MEDIAN(Values!U3:U6)</f>
+        <v>0</v>
+      </c>
+      <c r="V3" s="7">
+        <f>MEDIAN(Values!V3:V6)</f>
+        <v>1219.5</v>
+      </c>
+      <c r="W3" s="8">
+        <f>MEDIAN(Values!W3:W6)</f>
+        <v>55</v>
+      </c>
+      <c r="X3" s="7">
+        <f>MEDIAN(Values!X3:X6)</f>
+        <v>0.5</v>
+      </c>
+      <c r="Y3" s="7">
+        <f>MEDIAN(Values!Y3:Y6)</f>
+        <v>2394</v>
+      </c>
+      <c r="Z3" s="8">
+        <f>MEDIAN(Values!Z3:Z6)</f>
+        <v>568</v>
+      </c>
+      <c r="AA3" s="7">
+        <f>MEDIAN(Values!AA3:AA6)</f>
+        <v>1394</v>
+      </c>
+      <c r="AB3" s="7">
+        <f>MEDIAN(Values!AB3:AB6)</f>
+        <v>31900.5</v>
+      </c>
+      <c r="AC3" s="8">
+        <f>MEDIAN(Values!AC3:AC6)</f>
+        <v>261</v>
+      </c>
+      <c r="AD3" s="7">
+        <f>MEDIAN(Values!AD3:AD6)</f>
+        <v>6.5</v>
+      </c>
+      <c r="AE3" s="7">
+        <f>MEDIAN(Values!AE3:AE6)</f>
+        <v>10142.5</v>
+      </c>
+      <c r="AF3" s="8">
+        <f>MEDIAN(Values!AF3:AF6)</f>
+        <v>58</v>
+      </c>
+      <c r="AG3" s="7">
+        <f>MEDIAN(Values!AG3:AG6)</f>
+        <v>0</v>
+      </c>
+      <c r="AH3" s="7">
+        <f>MEDIAN(Values!AH3:AH6)</f>
+        <v>1743.5</v>
+      </c>
+      <c r="AI3" s="8">
+        <f>MEDIAN(Values!AI3:AI6)</f>
+        <v>999999999999</v>
+      </c>
+      <c r="AJ3" s="7">
+        <f>MEDIAN(Values!AJ3:AJ6)</f>
+        <v>999999999999</v>
+      </c>
+      <c r="AK3" s="7">
+        <f>MEDIAN(Values!AK3:AK6)</f>
+        <v>999999999999</v>
+      </c>
+      <c r="AL3" s="8">
+        <f>MEDIAN(Values!AL3:AL6)</f>
+        <v>554</v>
+      </c>
+      <c r="AM3" s="7">
+        <f>MEDIAN(Values!AM3:AM6)</f>
+        <v>53316</v>
+      </c>
+      <c r="AN3" s="7">
+        <f>MEDIAN(Values!AN3:AN6)</f>
+        <v>133935</v>
+      </c>
+      <c r="AO3" s="8">
+        <f>MEDIAN(Values!AO3:AO6)</f>
+        <v>1</v>
+      </c>
+      <c r="AP3" s="7">
+        <f>MEDIAN(Values!AP3:AP6)</f>
+        <v>1331901</v>
+      </c>
+      <c r="AQ3" s="7">
+        <f>MEDIAN(Values!AQ3:AQ6)</f>
+        <v>1454536</v>
+      </c>
+    </row>
+    <row r="4" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A4" s="4"/>
+      <c r="B4" s="8"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="8"/>
+      <c r="I4" s="7"/>
+      <c r="J4" s="7"/>
+      <c r="K4" s="8"/>
+      <c r="L4" s="7"/>
+      <c r="M4" s="7"/>
+      <c r="N4" s="8"/>
+      <c r="O4" s="7"/>
+      <c r="P4" s="7"/>
+      <c r="Q4" s="8"/>
+      <c r="R4" s="7"/>
+      <c r="S4" s="7"/>
+      <c r="T4" s="8"/>
+      <c r="U4" s="7"/>
+      <c r="V4" s="7"/>
+      <c r="W4" s="8"/>
+      <c r="X4" s="7"/>
+      <c r="Y4" s="7"/>
+      <c r="Z4" s="8"/>
+      <c r="AA4" s="7"/>
+      <c r="AB4" s="7"/>
+      <c r="AC4" s="8"/>
+      <c r="AD4" s="7"/>
+      <c r="AE4" s="7"/>
+      <c r="AF4" s="8"/>
+      <c r="AG4" s="7"/>
+      <c r="AH4" s="7"/>
+      <c r="AI4" s="8"/>
+      <c r="AJ4" s="7"/>
+      <c r="AK4" s="7"/>
+      <c r="AL4" s="8"/>
+      <c r="AM4" s="7"/>
+      <c r="AN4" s="7"/>
+      <c r="AO4" s="8"/>
+      <c r="AP4" s="7"/>
+      <c r="AQ4" s="7"/>
+    </row>
+    <row r="5" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A5" s="4"/>
+      <c r="B5" s="8"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="7"/>
+      <c r="K5" s="8"/>
+      <c r="L5" s="7"/>
+      <c r="M5" s="7"/>
+      <c r="N5" s="8"/>
+      <c r="O5" s="7"/>
+      <c r="P5" s="7"/>
+      <c r="Q5" s="8"/>
+      <c r="R5" s="7"/>
+      <c r="S5" s="7"/>
+      <c r="T5" s="8"/>
+      <c r="U5" s="7"/>
+      <c r="V5" s="7"/>
+      <c r="W5" s="8"/>
+      <c r="X5" s="7"/>
+      <c r="Y5" s="7"/>
+      <c r="Z5" s="8"/>
+      <c r="AA5" s="7"/>
+      <c r="AB5" s="7"/>
+      <c r="AC5" s="8"/>
+      <c r="AD5" s="7"/>
+      <c r="AE5" s="7"/>
+      <c r="AF5" s="8"/>
+      <c r="AG5" s="7"/>
+      <c r="AH5" s="7"/>
+      <c r="AI5" s="8"/>
+      <c r="AJ5" s="7"/>
+      <c r="AK5" s="7"/>
+      <c r="AL5" s="8"/>
+      <c r="AM5" s="7"/>
+      <c r="AN5" s="7"/>
+      <c r="AO5" s="8"/>
+      <c r="AP5" s="7"/>
+      <c r="AQ5" s="7"/>
+    </row>
+    <row r="6" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A6" s="4"/>
+      <c r="B6" s="8"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="7"/>
+      <c r="K6" s="8"/>
+      <c r="L6" s="7"/>
+      <c r="M6" s="7"/>
+      <c r="N6" s="8"/>
+      <c r="O6" s="7"/>
+      <c r="P6" s="7"/>
+      <c r="Q6" s="8"/>
+      <c r="R6" s="7"/>
+      <c r="S6" s="7"/>
+      <c r="T6" s="8"/>
+      <c r="U6" s="7"/>
+      <c r="V6" s="7"/>
+      <c r="W6" s="8"/>
+      <c r="X6" s="7"/>
+      <c r="Y6" s="7"/>
+      <c r="Z6" s="8"/>
+      <c r="AA6" s="7"/>
+      <c r="AB6" s="7"/>
+      <c r="AC6" s="8"/>
+      <c r="AD6" s="7"/>
+      <c r="AE6" s="7"/>
+      <c r="AF6" s="8"/>
+      <c r="AG6" s="7"/>
+      <c r="AH6" s="7"/>
+      <c r="AI6" s="8"/>
+      <c r="AJ6" s="7"/>
+      <c r="AK6" s="7"/>
+      <c r="AL6" s="8"/>
+      <c r="AM6" s="7"/>
+      <c r="AN6" s="7"/>
+      <c r="AO6" s="8"/>
+      <c r="AP6" s="7"/>
+      <c r="AQ6" s="7"/>
+    </row>
+    <row r="7" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A7" s="4"/>
+      <c r="B7" s="8"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+    </row>
+    <row r="8" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A8" s="4"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
+      <c r="L8" s="1"/>
+      <c r="M8" s="1"/>
+      <c r="N8" s="1"/>
+      <c r="O8" s="1"/>
+    </row>
+    <row r="9" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A9" s="4"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+      <c r="M9" s="1"/>
+      <c r="N9" s="1"/>
+      <c r="O9" s="1"/>
+    </row>
+    <row r="10" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A10" s="4"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
+      <c r="L10" s="1"/>
+      <c r="M10" s="1"/>
+      <c r="N10" s="1"/>
+      <c r="O10" s="1"/>
+    </row>
+    <row r="11" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A11" s="4"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1"/>
+      <c r="L11" s="1"/>
+      <c r="M11" s="1"/>
+      <c r="N11" s="1"/>
+      <c r="O11" s="1"/>
+    </row>
+    <row r="12" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A12" s="4"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
+      <c r="L12" s="1"/>
+      <c r="M12" s="1"/>
+      <c r="N12" s="1"/>
+      <c r="O12" s="1"/>
+    </row>
+    <row r="13" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A13" s="4"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
+      <c r="L13" s="1"/>
+      <c r="M13" s="1"/>
+      <c r="N13" s="1"/>
+      <c r="O13" s="1"/>
+    </row>
+    <row r="14" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A14" s="4"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
+      <c r="L14" s="1"/>
+      <c r="M14" s="1"/>
+      <c r="N14" s="1"/>
+      <c r="O14" s="1"/>
+    </row>
+    <row r="15" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A15" s="4"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1"/>
+      <c r="L15" s="1"/>
+      <c r="M15" s="1"/>
+      <c r="N15" s="1"/>
+      <c r="O15" s="1"/>
+    </row>
+    <row r="16" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A16" s="4"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
+      <c r="K16" s="1"/>
+      <c r="L16" s="1"/>
+      <c r="M16" s="1"/>
+      <c r="N16" s="1"/>
+      <c r="O16" s="1"/>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A17" s="4"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
+      <c r="K17" s="1"/>
+      <c r="L17" s="1"/>
+      <c r="M17" s="1"/>
+      <c r="N17" s="1"/>
+      <c r="O17" s="1"/>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A18" s="4"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+      <c r="J18" s="1"/>
+      <c r="K18" s="1"/>
+      <c r="L18" s="1"/>
+      <c r="M18" s="1"/>
+      <c r="N18" s="1"/>
+      <c r="O18" s="1"/>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A19" s="4"/>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
+      <c r="J19" s="1"/>
+      <c r="K19" s="1"/>
+      <c r="L19" s="1"/>
+      <c r="M19" s="1"/>
+      <c r="N19" s="1"/>
+      <c r="O19" s="1"/>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A20" s="4"/>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1"/>
+      <c r="J20" s="1"/>
+      <c r="K20" s="1"/>
+      <c r="L20" s="1"/>
+      <c r="M20" s="1"/>
+      <c r="N20" s="1"/>
+      <c r="O20" s="1"/>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A21" s="4"/>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="1"/>
+      <c r="J21" s="1"/>
+      <c r="K21" s="1"/>
+      <c r="L21" s="1"/>
+      <c r="M21" s="1"/>
+      <c r="N21" s="1"/>
+      <c r="O21" s="1"/>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A22" s="4"/>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
+      <c r="I22" s="1"/>
+      <c r="J22" s="1"/>
+      <c r="K22" s="1"/>
+      <c r="L22" s="1"/>
+      <c r="M22" s="1"/>
+      <c r="N22" s="1"/>
+      <c r="O22" s="1"/>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A23" s="4"/>
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
+      <c r="H23" s="1"/>
+      <c r="I23" s="1"/>
+      <c r="J23" s="1"/>
+      <c r="K23" s="1"/>
+      <c r="L23" s="1"/>
+      <c r="M23" s="1"/>
+      <c r="N23" s="1"/>
+      <c r="O23" s="1"/>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A24" s="4"/>
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1"/>
+      <c r="I24" s="1"/>
+      <c r="J24" s="1"/>
+      <c r="K24" s="1"/>
+      <c r="L24" s="1"/>
+      <c r="M24" s="1"/>
+      <c r="N24" s="1"/>
+      <c r="O24" s="1"/>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A25" s="4"/>
+      <c r="B25" s="1"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
+      <c r="G25" s="1"/>
+      <c r="H25" s="1"/>
+      <c r="I25" s="1"/>
+      <c r="J25" s="1"/>
+      <c r="K25" s="1"/>
+      <c r="L25" s="1"/>
+      <c r="M25" s="1"/>
+      <c r="N25" s="1"/>
+      <c r="O25" s="1"/>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A26" s="4"/>
+      <c r="B26" s="1"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
+      <c r="G26" s="1"/>
+      <c r="H26" s="1"/>
+      <c r="I26" s="1"/>
+      <c r="J26" s="1"/>
+      <c r="K26" s="1"/>
+      <c r="L26" s="1"/>
+      <c r="M26" s="1"/>
+      <c r="N26" s="1"/>
+      <c r="O26" s="1"/>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A27" s="4"/>
+      <c r="B27" s="1"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
+      <c r="G27" s="1"/>
+      <c r="H27" s="1"/>
+      <c r="I27" s="1"/>
+      <c r="J27" s="1"/>
+      <c r="K27" s="1"/>
+      <c r="L27" s="1"/>
+      <c r="M27" s="1"/>
+      <c r="N27" s="1"/>
+      <c r="O27" s="1"/>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A28" s="4"/>
+      <c r="B28" s="1"/>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1"/>
+      <c r="F28" s="1"/>
+      <c r="G28" s="1"/>
+      <c r="H28" s="1"/>
+      <c r="I28" s="1"/>
+      <c r="J28" s="1"/>
+      <c r="K28" s="1"/>
+      <c r="L28" s="1"/>
+      <c r="M28" s="1"/>
+      <c r="N28" s="1"/>
+      <c r="O28" s="1"/>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A29" s="4"/>
+      <c r="B29" s="1"/>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
+      <c r="E29" s="1"/>
+      <c r="F29" s="1"/>
+      <c r="G29" s="1"/>
+      <c r="H29" s="1"/>
+      <c r="I29" s="1"/>
+      <c r="J29" s="1"/>
+      <c r="K29" s="1"/>
+      <c r="L29" s="1"/>
+      <c r="M29" s="1"/>
+      <c r="N29" s="1"/>
+      <c r="O29" s="1"/>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A30" s="4"/>
+      <c r="B30" s="1"/>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1"/>
+      <c r="F30" s="1"/>
+      <c r="G30" s="1"/>
+      <c r="H30" s="1"/>
+      <c r="I30" s="1"/>
+      <c r="J30" s="1"/>
+      <c r="K30" s="1"/>
+      <c r="L30" s="1"/>
+      <c r="M30" s="1"/>
+      <c r="N30" s="1"/>
+      <c r="O30" s="1"/>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A31" s="5"/>
+      <c r="B31" s="1"/>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1"/>
+      <c r="E31" s="1"/>
+      <c r="F31" s="1"/>
+      <c r="G31" s="1"/>
+      <c r="H31" s="1"/>
+      <c r="I31" s="1"/>
+      <c r="J31" s="1"/>
+      <c r="K31" s="1"/>
+      <c r="L31" s="1"/>
+      <c r="M31" s="1"/>
+      <c r="N31" s="1"/>
+      <c r="O31" s="1"/>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A32" s="5"/>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" s="5"/>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" s="5"/>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" s="5"/>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36" s="5"/>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37" s="5"/>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2DC48825-0951-4935-BECC-69A257928C38}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q20" sqref="Q20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/QuoVadisQuax/TestValues.xlsx
+++ b/QuoVadisQuax/TestValues.xlsx
@@ -8,14 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Jonas\Documents\GitHub\Quo-vadis-Quax\QuoVadisQuax\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D013510-A123-4AC6-8652-205D34CF64D8}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EB5CE84-5B64-429C-BA4E-7403AD73DF71}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11115" activeTab="2" xr2:uid="{8F5AB63A-ACA6-4B4B-9BF8-58FEC92E4E85}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11115" activeTab="1" xr2:uid="{8F5AB63A-ACA6-4B4B-9BF8-58FEC92E4E85}"/>
   </bookViews>
   <sheets>
     <sheet name="Values" sheetId="1" r:id="rId1"/>
     <sheet name="Overview" sheetId="4" r:id="rId2"/>
-    <sheet name="Diagrams" sheetId="5" r:id="rId3"/>
+    <sheet name="Diagrams 0-2" sheetId="5" r:id="rId3"/>
+    <sheet name="Diagrams 3-5" sheetId="6" r:id="rId4"/>
+    <sheet name="Diagrams 6-8" sheetId="7" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -89,7 +91,7 @@
     <t>Exec. time in ms</t>
   </si>
   <si>
-    <t>e9ba12190a5b89a7a3ae86d7504de13096338dd3</t>
+    <t>2152f803a27a62702af5bb825ad53e80ca00f50f</t>
   </si>
 </sst>
 </file>
@@ -100,7 +102,7 @@
     <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
     <numFmt numFmtId="165" formatCode="0&quot; ms&quot;"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -124,16 +126,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color theme="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="10"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -168,11 +163,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
@@ -182,11 +176,9 @@
     <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Link" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -386,7 +378,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>e9ba12190a5b89a7a3ae86d7504de13096338dd3</c:v>
+                  <c:v>2152f803a27a62702af5bb825ad53e80ca00f50f</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -526,7 +518,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>e9ba12190a5b89a7a3ae86d7504de13096338dd3</c:v>
+                  <c:v>2152f803a27a62702af5bb825ad53e80ca00f50f</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -666,7 +658,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>e9ba12190a5b89a7a3ae86d7504de13096338dd3</c:v>
+                  <c:v>2152f803a27a62702af5bb825ad53e80ca00f50f</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1099,7 +1091,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>e9ba12190a5b89a7a3ae86d7504de13096338dd3</c:v>
+                  <c:v>2152f803a27a62702af5bb825ad53e80ca00f50f</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1239,7 +1231,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>e9ba12190a5b89a7a3ae86d7504de13096338dd3</c:v>
+                  <c:v>2152f803a27a62702af5bb825ad53e80ca00f50f</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1379,7 +1371,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>e9ba12190a5b89a7a3ae86d7504de13096338dd3</c:v>
+                  <c:v>2152f803a27a62702af5bb825ad53e80ca00f50f</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1407,6 +1399,4997 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-03F6-43FA-93C1-442CF1A69B7B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="t"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="767735536"/>
+        <c:axId val="766388112"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="767735536"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="766388112"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="766388112"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:numFmt formatCode="0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="767735536"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="de-DE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="de-DE"/>
+              <a:t>Map 2</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Overview!$H$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>n flights</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="de-DE"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Overview!$A$3:$A$10</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Overview!$A$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2152f803a27a62702af5bb825ad53e80ca00f50f</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Overview!$H$3:$H$32</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Overview!$H$3</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>11</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-D4F2-4253-BBEE-E74C0A6D6165}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Overview!$I$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Alg. time in ms</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="de-DE"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Overview!$A$3:$A$10</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Overview!$A$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2152f803a27a62702af5bb825ad53e80ca00f50f</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Overview!$I$3:$I$31</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Overview!$I$3</c:f>
+              <c:numCache>
+                <c:formatCode>0" ms"</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-D4F2-4253-BBEE-E74C0A6D6165}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Overview!$J$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Exec. time in ms</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="de-DE"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Overview!$A$3:$A$10</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Overview!$A$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2152f803a27a62702af5bb825ad53e80ca00f50f</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Overview!$J$3:$J$32</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Overview!$J$3</c:f>
+              <c:numCache>
+                <c:formatCode>0" ms"</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>536</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-D4F2-4253-BBEE-E74C0A6D6165}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="t"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="767735536"/>
+        <c:axId val="766388112"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="767735536"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="766388112"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="766388112"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:numFmt formatCode="0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="767735536"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="de-DE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="de-DE"/>
+              <a:t>Map 3</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Overview!$K$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>n flights</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="de-DE"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Overview!$A$3:$A$10</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Overview!$A$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2152f803a27a62702af5bb825ad53e80ca00f50f</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Overview!$K$3:$K$32</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Overview!$K$3</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>15</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-0FB8-4B10-942F-EEFB6EFB1963}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Overview!$L$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Alg. time in ms</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="de-DE"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Overview!$A$3:$A$10</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Overview!$A$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2152f803a27a62702af5bb825ad53e80ca00f50f</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Overview!$L$3:$L$31</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Overview!$L$3</c:f>
+              <c:numCache>
+                <c:formatCode>0" ms"</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-0FB8-4B10-942F-EEFB6EFB1963}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Overview!$M$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Exec. time in ms</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="de-DE"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Overview!$A$3:$A$10</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Overview!$A$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2152f803a27a62702af5bb825ad53e80ca00f50f</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Overview!$M$3:$M$32</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Overview!$M$3</c:f>
+              <c:numCache>
+                <c:formatCode>0" ms"</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1244.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-0FB8-4B10-942F-EEFB6EFB1963}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="t"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="767735536"/>
+        <c:axId val="766388112"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="767735536"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="766388112"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="766388112"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:numFmt formatCode="0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="767735536"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="de-DE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="de-DE"/>
+              <a:t>Map 4</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Overview!$N$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>n flights</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="de-DE"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Overview!$A$3:$A$10</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Overview!$A$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2152f803a27a62702af5bb825ad53e80ca00f50f</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Overview!$N$3:$N$32</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Overview!$N$3</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>13</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-8F29-4C78-8302-98296D0C40C8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Overview!$O$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Alg. time in ms</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="de-DE"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Overview!$A$3:$A$10</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Overview!$A$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2152f803a27a62702af5bb825ad53e80ca00f50f</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Overview!$O$3:$O$31</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Overview!$O$3</c:f>
+              <c:numCache>
+                <c:formatCode>0" ms"</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-8F29-4C78-8302-98296D0C40C8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Overview!$P$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Exec. time in ms</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="de-DE"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Overview!$A$3:$A$10</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Overview!$A$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2152f803a27a62702af5bb825ad53e80ca00f50f</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Overview!$P$3:$P$32</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Overview!$P$3</c:f>
+              <c:numCache>
+                <c:formatCode>0" ms"</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>385.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-8F29-4C78-8302-98296D0C40C8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="t"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="767735536"/>
+        <c:axId val="766388112"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="767735536"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="766388112"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="766388112"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:numFmt formatCode="0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="767735536"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="de-DE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="de-DE"/>
+              <a:t>Map 5</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Overview!$Q$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>n flights</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="de-DE"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Overview!$A$3:$A$10</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Overview!$A$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2152f803a27a62702af5bb825ad53e80ca00f50f</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Overview!$Q$3:$Q$32</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Overview!$Q$3</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>107</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-A66F-4607-9D74-654E4DFEBA1E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Overview!$R$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Alg. time in ms</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="de-DE"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Overview!$A$3:$A$10</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Overview!$A$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2152f803a27a62702af5bb825ad53e80ca00f50f</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Overview!$R$3:$R$31</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Overview!$R$3</c:f>
+              <c:numCache>
+                <c:formatCode>0" ms"</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>24</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-A66F-4607-9D74-654E4DFEBA1E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Overview!$S$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Exec. time in ms</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="de-DE"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Overview!$A$3:$A$10</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Overview!$A$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2152f803a27a62702af5bb825ad53e80ca00f50f</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Overview!$S$3:$S$32</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Overview!$S$3</c:f>
+              <c:numCache>
+                <c:formatCode>0" ms"</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>5541</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-A66F-4607-9D74-654E4DFEBA1E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="t"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="767735536"/>
+        <c:axId val="766388112"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="767735536"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="766388112"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="766388112"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:numFmt formatCode="0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="767735536"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="de-DE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="de-DE"/>
+              <a:t>Map 3</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Overview!$K$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>n flights</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="de-DE"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Overview!$A$3:$A$10</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Overview!$A$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2152f803a27a62702af5bb825ad53e80ca00f50f</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Overview!$K$3:$K$32</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Overview!$K$3</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>15</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-824E-44B7-80E3-C4E99EBA785C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Overview!$L$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Alg. time in ms</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="de-DE"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Overview!$A$3:$A$10</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Overview!$A$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2152f803a27a62702af5bb825ad53e80ca00f50f</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Overview!$L$3:$L$31</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Overview!$L$3</c:f>
+              <c:numCache>
+                <c:formatCode>0" ms"</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-824E-44B7-80E3-C4E99EBA785C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Overview!$M$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Exec. time in ms</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="de-DE"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Overview!$A$3:$A$10</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Overview!$A$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2152f803a27a62702af5bb825ad53e80ca00f50f</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Overview!$M$3:$M$32</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Overview!$M$3</c:f>
+              <c:numCache>
+                <c:formatCode>0" ms"</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1244.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-824E-44B7-80E3-C4E99EBA785C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="t"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="767735536"/>
+        <c:axId val="766388112"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="767735536"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="766388112"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="766388112"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:numFmt formatCode="0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="767735536"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="de-DE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="de-DE"/>
+              <a:t>Map 4</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Overview!$N$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>n flights</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="de-DE"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Overview!$A$3:$A$10</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Overview!$A$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2152f803a27a62702af5bb825ad53e80ca00f50f</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Overview!$N$3:$N$32</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Overview!$N$3</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>13</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-AFF8-4616-AA12-737454704309}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Overview!$O$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Alg. time in ms</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="de-DE"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Overview!$A$3:$A$10</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Overview!$A$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2152f803a27a62702af5bb825ad53e80ca00f50f</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Overview!$O$3:$O$31</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Overview!$O$3</c:f>
+              <c:numCache>
+                <c:formatCode>0" ms"</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-AFF8-4616-AA12-737454704309}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Overview!$P$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Exec. time in ms</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="de-DE"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Overview!$A$3:$A$10</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Overview!$A$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2152f803a27a62702af5bb825ad53e80ca00f50f</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Overview!$P$3:$P$32</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Overview!$P$3</c:f>
+              <c:numCache>
+                <c:formatCode>0" ms"</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>385.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-AFF8-4616-AA12-737454704309}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="t"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="767735536"/>
+        <c:axId val="766388112"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="767735536"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="766388112"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="766388112"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:numFmt formatCode="0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="767735536"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="de-DE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="de-DE"/>
+              <a:t>Map 5</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Overview!$Q$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>n flights</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="de-DE"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Overview!$A$3:$A$10</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Overview!$A$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2152f803a27a62702af5bb825ad53e80ca00f50f</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Overview!$Q$3:$Q$32</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Overview!$Q$3</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>107</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-1310-4747-A5D1-3A1356607B30}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Overview!$R$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Alg. time in ms</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="de-DE"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Overview!$A$3:$A$10</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Overview!$A$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2152f803a27a62702af5bb825ad53e80ca00f50f</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Overview!$R$3:$R$31</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Overview!$R$3</c:f>
+              <c:numCache>
+                <c:formatCode>0" ms"</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>24</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-1310-4747-A5D1-3A1356607B30}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Overview!$S$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Exec. time in ms</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="de-DE"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Overview!$A$3:$A$10</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Overview!$A$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2152f803a27a62702af5bb825ad53e80ca00f50f</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Overview!$S$3:$S$32</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Overview!$S$3</c:f>
+              <c:numCache>
+                <c:formatCode>0" ms"</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>5541</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-1310-4747-A5D1-3A1356607B30}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1708,6 +6691,286 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors9.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
   <cs:axisTitle>
@@ -2212,6 +7475,3527 @@
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style9.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -2785,6 +11569,282 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Diagramm 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{35AC0843-2D88-4C77-9AFD-B3E95CAD89A3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Diagramm 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{173F5413-6878-4827-9F12-080B915FB5D7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Diagramm 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{45F16336-3C51-46FA-AC1F-4B1047C2FDC7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Diagramm 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{14D5F51A-FC67-4298-958D-C7392E59A617}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Diagramm 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{80AA63C4-846C-4BAF-82C8-2DD899A348CB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Diagramm 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{36FB0029-3115-41F6-AC28-3DBF75321419}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Diagramm 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{97A0EC2E-DD53-4309-B828-4BE00C27E581}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -3092,8 +12152,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17EE636D-E62A-409B-8683-80E992881F33}">
   <dimension ref="A1:AQ38"/>
   <sheetViews>
-    <sheetView topLeftCell="AB1" workbookViewId="0">
-      <selection activeCell="AF24" sqref="AF24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4267,11 +13327,8 @@
       <c r="A38" s="5"/>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A3" r:id="rId1" display="https://github.com/atalantus/Quo-vadis-Quax/tree/e9ba12190a5b89a7a3ae86d7504de13096338dd3" xr:uid="{68B6145C-EE0B-4FA3-882B-FCE731737487}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -4279,8 +13336,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{358AC821-81AF-4436-97C1-FE0668787897}">
   <dimension ref="A1:AQ38"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="AP3" sqref="AP3"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4522,9 +13579,9 @@
       </c>
     </row>
     <row r="3" spans="1:43" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="10" t="str">
+      <c r="A3" s="9" t="str">
         <f>Values!A3</f>
-        <v>e9ba12190a5b89a7a3ae86d7504de13096338dd3</v>
+        <v>2152f803a27a62702af5bb825ad53e80ca00f50f</v>
       </c>
       <c r="B3" s="8">
         <f>MEDIAN(Values!B3:B6)</f>
@@ -5275,8 +14332,38 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2DC48825-0951-4935-BECC-69A257928C38}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q20" sqref="Q20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="W20" sqref="W20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99132D6D-35E2-4926-B6C3-04966ABB2777}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="W20" sqref="W20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61DF0721-D325-46FF-925A-6DF5164E87E7}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="W20" sqref="W20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/QuoVadisQuax/TestValues.xlsx
+++ b/QuoVadisQuax/TestValues.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Jonas\Documents\GitHub\Quo-vadis-Quax\QuoVadisQuax\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EB5CE84-5B64-429C-BA4E-7403AD73DF71}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A25F6E7B-31DD-46FD-96E6-366ADD7347B1}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11115" activeTab="1" xr2:uid="{8F5AB63A-ACA6-4B4B-9BF8-58FEC92E4E85}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11115" xr2:uid="{8F5AB63A-ACA6-4B4B-9BF8-58FEC92E4E85}"/>
   </bookViews>
   <sheets>
     <sheet name="Values" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,8 @@
     <sheet name="Diagrams 0-2" sheetId="5" r:id="rId3"/>
     <sheet name="Diagrams 3-5" sheetId="6" r:id="rId4"/>
     <sheet name="Diagrams 6-8" sheetId="7" r:id="rId5"/>
+    <sheet name="Diagrams 9-11" sheetId="8" r:id="rId6"/>
+    <sheet name="Diagrams 12-13" sheetId="9" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="20">
   <si>
     <t>Project Status</t>
   </si>
@@ -92,6 +94,9 @@
   </si>
   <si>
     <t>2152f803a27a62702af5bb825ad53e80ca00f50f</t>
+  </si>
+  <si>
+    <t>aaabbbccc</t>
   </si>
 </sst>
 </file>
@@ -374,11 +379,14 @@
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>Overview!$A$3</c:f>
+              <c:f>Overview!$A$3:$A$4</c:f>
               <c:strCache>
-                <c:ptCount val="1"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
                   <c:v>2152f803a27a62702af5bb825ad53e80ca00f50f</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>aaabbbccc</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -392,12 +400,15 @@
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>Overview!$B$3</c:f>
+              <c:f>Overview!$B$3:$B$4</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
-                <c:ptCount val="1"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
                   <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -514,11 +525,14 @@
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>Overview!$A$3</c:f>
+              <c:f>Overview!$A$3:$A$4</c:f>
               <c:strCache>
-                <c:ptCount val="1"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
                   <c:v>2152f803a27a62702af5bb825ad53e80ca00f50f</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>aaabbbccc</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -532,11 +546,14 @@
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>Overview!$C$3</c:f>
+              <c:f>Overview!$C$3:$C$4</c:f>
               <c:numCache>
                 <c:formatCode>0" ms"</c:formatCode>
-                <c:ptCount val="1"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -654,11 +671,14 @@
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>Overview!$A$3</c:f>
+              <c:f>Overview!$A$3:$A$4</c:f>
               <c:strCache>
-                <c:ptCount val="1"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
                   <c:v>2152f803a27a62702af5bb825ad53e80ca00f50f</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>aaabbbccc</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -672,12 +692,15 @@
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>Overview!$D$3</c:f>
+              <c:f>Overview!$D$3:$D$4</c:f>
               <c:numCache>
                 <c:formatCode>0" ms"</c:formatCode>
-                <c:ptCount val="1"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
                   <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -686,6 +709,3661 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-CF5A-4CA4-A742-3CC05ED41378}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="t"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="767735536"/>
+        <c:axId val="766388112"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="767735536"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="766388112"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="766388112"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:numFmt formatCode="0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="767735536"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="de-DE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="de-DE"/>
+              <a:t>Map 9</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Overview!$AC$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>n flights</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="de-DE"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Overview!$A$3:$A$10</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Overview!$A$3:$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>2152f803a27a62702af5bb825ad53e80ca00f50f</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>aaabbbccc</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Overview!$AC$3:$AC$32</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Overview!$AC$3:$AC$4</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>261</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>261</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-D26C-49CB-AA68-12E081EA6201}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Overview!$AD$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Alg. time in ms</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="de-DE"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Overview!$A$3:$A$10</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Overview!$A$3:$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>2152f803a27a62702af5bb825ad53e80ca00f50f</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>aaabbbccc</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Overview!$AD$3:$AD$31</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Overview!$AD$3:$AD$4</c:f>
+              <c:numCache>
+                <c:formatCode>0" ms"</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>6.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-D26C-49CB-AA68-12E081EA6201}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Overview!$AE$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Exec. time in ms</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="de-DE"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Overview!$A$3:$A$10</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Overview!$A$3:$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>2152f803a27a62702af5bb825ad53e80ca00f50f</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>aaabbbccc</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Overview!$AE$3:$AE$32</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Overview!$AE$3:$AE$4</c:f>
+              <c:numCache>
+                <c:formatCode>0" ms"</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>10142.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1985.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-D26C-49CB-AA68-12E081EA6201}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="t"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="767735536"/>
+        <c:axId val="766388112"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="767735536"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="766388112"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="766388112"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:numFmt formatCode="0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="767735536"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="de-DE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="de-DE"/>
+              <a:t>Map 10</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Overview!$AF$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>n flights</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="de-DE"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Overview!$A$3:$A$10</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Overview!$A$3:$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>2152f803a27a62702af5bb825ad53e80ca00f50f</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>aaabbbccc</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Overview!$AF$3:$AF$32</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Overview!$AF$3:$AF$4</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>58</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-72BC-4C07-84E1-83230F6F1BA7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Overview!$AG$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Alg. time in ms</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="de-DE"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Overview!$A$3:$A$10</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Overview!$A$3:$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>2152f803a27a62702af5bb825ad53e80ca00f50f</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>aaabbbccc</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Overview!$AG$3:$AG$31</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Overview!$AG$3:$AG$4</c:f>
+              <c:numCache>
+                <c:formatCode>0" ms"</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-72BC-4C07-84E1-83230F6F1BA7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Overview!$AH$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Exec. time in ms</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="de-DE"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Overview!$A$3:$A$10</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Overview!$A$3:$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>2152f803a27a62702af5bb825ad53e80ca00f50f</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>aaabbbccc</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Overview!$AH$3:$AH$32</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Overview!$AH$3:$AH$4</c:f>
+              <c:numCache>
+                <c:formatCode>0" ms"</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>1743.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>336.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-72BC-4C07-84E1-83230F6F1BA7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="t"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="767735536"/>
+        <c:axId val="766388112"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="767735536"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="766388112"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="766388112"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:numFmt formatCode="0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="767735536"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="de-DE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="de-DE"/>
+              <a:t>Map 11</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Overview!$AI$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>n flights</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="de-DE"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Overview!$A$3:$A$10</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Overview!$A$3:$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>2152f803a27a62702af5bb825ad53e80ca00f50f</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>aaabbbccc</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Overview!$AI$3:$AI$32</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Overview!$AI$3:$AI$4</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-79F1-4FE0-B6AF-59E42F8B7560}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Overview!$AJ$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Alg. time in ms</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="de-DE"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Overview!$A$3:$A$10</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Overview!$A$3:$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>2152f803a27a62702af5bb825ad53e80ca00f50f</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>aaabbbccc</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Overview!$AJ$3:$AJ$31</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Overview!$AJ$3:$AJ$4</c:f>
+              <c:numCache>
+                <c:formatCode>0" ms"</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-79F1-4FE0-B6AF-59E42F8B7560}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Overview!$AK$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Exec. time in ms</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="de-DE"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Overview!$A$3:$A$10</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Overview!$A$3:$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>2152f803a27a62702af5bb825ad53e80ca00f50f</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>aaabbbccc</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Overview!$AK$3:$AK$32</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Overview!$AK$3:$AK$4</c:f>
+              <c:numCache>
+                <c:formatCode>0" ms"</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-79F1-4FE0-B6AF-59E42F8B7560}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="t"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="767735536"/>
+        <c:axId val="766388112"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="767735536"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="766388112"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="766388112"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:numFmt formatCode="0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="767735536"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="de-DE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="de-DE"/>
+              <a:t>Map 12</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Overview!$AL$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>n flights</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="de-DE"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Overview!$A$3:$A$10</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Overview!$A$3:$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>2152f803a27a62702af5bb825ad53e80ca00f50f</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>aaabbbccc</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Overview!$AL$3:$AL$32</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Overview!$AL$3:$AL$4</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>554</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>445</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-1959-4C99-BAE8-13976422FB64}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Overview!$AM$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Alg. time in ms</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="de-DE"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Overview!$A$3:$A$10</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Overview!$A$3:$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>2152f803a27a62702af5bb825ad53e80ca00f50f</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>aaabbbccc</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Overview!$AM$3:$AM$31</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Overview!$AM$3:$AM$4</c:f>
+              <c:numCache>
+                <c:formatCode>0" ms"</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>53316</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>54555</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-1959-4C99-BAE8-13976422FB64}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Overview!$AN$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Exec. time in ms</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="de-DE"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Overview!$A$3:$A$10</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Overview!$A$3:$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>2152f803a27a62702af5bb825ad53e80ca00f50f</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>aaabbbccc</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Overview!$AN$3:$AN$32</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Overview!$AN$3:$AN$4</c:f>
+              <c:numCache>
+                <c:formatCode>0" ms"</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>133935</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>74315</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-1959-4C99-BAE8-13976422FB64}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="t"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="767735536"/>
+        <c:axId val="766388112"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="767735536"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="766388112"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="766388112"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:numFmt formatCode="0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="767735536"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="de-DE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="de-DE"/>
+              <a:t>Map 13</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Overview!$AO$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>n flights</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="de-DE"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Overview!$A$3:$A$10</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Overview!$A$3:$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>2152f803a27a62702af5bb825ad53e80ca00f50f</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>aaabbbccc</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Overview!$AO$3:$AO$32</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Overview!$AO$3:$AO$4</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-AFDE-4AED-9BC5-B677FE3140AD}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Overview!$AP$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Alg. time in ms</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="de-DE"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Overview!$A$3:$A$10</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Overview!$A$3:$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>2152f803a27a62702af5bb825ad53e80ca00f50f</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>aaabbbccc</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Overview!$AP$3:$AP$31</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Overview!$AP$3:$AP$4</c:f>
+              <c:numCache>
+                <c:formatCode>0" ms"</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>1331901</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-AFDE-4AED-9BC5-B677FE3140AD}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Overview!$AQ$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Exec. time in ms</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="de-DE"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Overview!$A$3:$A$10</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Overview!$A$3:$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>2152f803a27a62702af5bb825ad53e80ca00f50f</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>aaabbbccc</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Overview!$AQ$3:$AQ$32</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Overview!$AQ$3:$AQ$4</c:f>
+              <c:numCache>
+                <c:formatCode>0" ms"</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>1454536</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-AFDE-4AED-9BC5-B677FE3140AD}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1087,11 +4765,14 @@
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>Overview!$A$3</c:f>
+              <c:f>Overview!$A$3:$A$4</c:f>
               <c:strCache>
-                <c:ptCount val="1"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
                   <c:v>2152f803a27a62702af5bb825ad53e80ca00f50f</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>aaabbbccc</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1105,11 +4786,14 @@
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>Overview!$E$3</c:f>
+              <c:f>Overview!$E$3:$E$4</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
-                <c:ptCount val="1"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
@@ -1227,11 +4911,14 @@
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>Overview!$A$3</c:f>
+              <c:f>Overview!$A$3:$A$4</c:f>
               <c:strCache>
-                <c:ptCount val="1"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
                   <c:v>2152f803a27a62702af5bb825ad53e80ca00f50f</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>aaabbbccc</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1245,11 +4932,14 @@
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>Overview!$F$3</c:f>
+              <c:f>Overview!$F$3:$F$4</c:f>
               <c:numCache>
                 <c:formatCode>0" ms"</c:formatCode>
-                <c:ptCount val="1"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -1367,11 +5057,14 @@
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>Overview!$A$3</c:f>
+              <c:f>Overview!$A$3:$A$4</c:f>
               <c:strCache>
-                <c:ptCount val="1"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
                   <c:v>2152f803a27a62702af5bb825ad53e80ca00f50f</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>aaabbbccc</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1385,12 +5078,15 @@
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>Overview!$G$3</c:f>
+              <c:f>Overview!$G$3:$G$4</c:f>
               <c:numCache>
                 <c:formatCode>0" ms"</c:formatCode>
-                <c:ptCount val="1"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
                   <c:v>227</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>48.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1800,11 +5496,14 @@
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>Overview!$A$3</c:f>
+              <c:f>Overview!$A$3:$A$4</c:f>
               <c:strCache>
-                <c:ptCount val="1"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
                   <c:v>2152f803a27a62702af5bb825ad53e80ca00f50f</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>aaabbbccc</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1818,12 +5517,15 @@
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>Overview!$H$3</c:f>
+              <c:f>Overview!$H$3:$H$4</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
-                <c:ptCount val="1"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
                   <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1940,11 +5642,14 @@
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>Overview!$A$3</c:f>
+              <c:f>Overview!$A$3:$A$4</c:f>
               <c:strCache>
-                <c:ptCount val="1"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
                   <c:v>2152f803a27a62702af5bb825ad53e80ca00f50f</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>aaabbbccc</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1958,11 +5663,14 @@
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>Overview!$I$3</c:f>
+              <c:f>Overview!$I$3:$I$4</c:f>
               <c:numCache>
                 <c:formatCode>0" ms"</c:formatCode>
-                <c:ptCount val="1"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -2080,11 +5788,14 @@
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>Overview!$A$3</c:f>
+              <c:f>Overview!$A$3:$A$4</c:f>
               <c:strCache>
-                <c:ptCount val="1"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
                   <c:v>2152f803a27a62702af5bb825ad53e80ca00f50f</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>aaabbbccc</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2098,12 +5809,15 @@
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>Overview!$J$3</c:f>
+              <c:f>Overview!$J$3:$J$4</c:f>
               <c:numCache>
                 <c:formatCode>0" ms"</c:formatCode>
-                <c:ptCount val="1"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
                   <c:v>536</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>78</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2513,11 +6227,14 @@
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>Overview!$A$3</c:f>
+              <c:f>Overview!$A$3:$A$4</c:f>
               <c:strCache>
-                <c:ptCount val="1"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
                   <c:v>2152f803a27a62702af5bb825ad53e80ca00f50f</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>aaabbbccc</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2531,12 +6248,15 @@
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>Overview!$K$3</c:f>
+              <c:f>Overview!$K$3:$K$4</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
-                <c:ptCount val="1"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
                   <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>14</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2653,11 +6373,14 @@
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>Overview!$A$3</c:f>
+              <c:f>Overview!$A$3:$A$4</c:f>
               <c:strCache>
-                <c:ptCount val="1"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
                   <c:v>2152f803a27a62702af5bb825ad53e80ca00f50f</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>aaabbbccc</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2671,12 +6394,15 @@
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>Overview!$L$3</c:f>
+              <c:f>Overview!$L$3:$L$4</c:f>
               <c:numCache>
                 <c:formatCode>0" ms"</c:formatCode>
-                <c:ptCount val="1"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
                   <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2793,11 +6519,14 @@
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>Overview!$A$3</c:f>
+              <c:f>Overview!$A$3:$A$4</c:f>
               <c:strCache>
-                <c:ptCount val="1"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
                   <c:v>2152f803a27a62702af5bb825ad53e80ca00f50f</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>aaabbbccc</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2811,12 +6540,15 @@
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>Overview!$M$3</c:f>
+              <c:f>Overview!$M$3:$M$4</c:f>
               <c:numCache>
                 <c:formatCode>0" ms"</c:formatCode>
-                <c:ptCount val="1"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
                   <c:v>1244.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>217</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3226,11 +6958,14 @@
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>Overview!$A$3</c:f>
+              <c:f>Overview!$A$3:$A$4</c:f>
               <c:strCache>
-                <c:ptCount val="1"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
                   <c:v>2152f803a27a62702af5bb825ad53e80ca00f50f</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>aaabbbccc</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3244,11 +6979,14 @@
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>Overview!$N$3</c:f>
+              <c:f>Overview!$N$3:$N$4</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
-                <c:ptCount val="1"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>13</c:v>
                 </c:pt>
               </c:numCache>
@@ -3366,11 +7104,14 @@
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>Overview!$A$3</c:f>
+              <c:f>Overview!$A$3:$A$4</c:f>
               <c:strCache>
-                <c:ptCount val="1"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
                   <c:v>2152f803a27a62702af5bb825ad53e80ca00f50f</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>aaabbbccc</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3384,11 +7125,14 @@
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>Overview!$O$3</c:f>
+              <c:f>Overview!$O$3:$O$4</c:f>
               <c:numCache>
                 <c:formatCode>0" ms"</c:formatCode>
-                <c:ptCount val="1"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -3506,11 +7250,14 @@
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>Overview!$A$3</c:f>
+              <c:f>Overview!$A$3:$A$4</c:f>
               <c:strCache>
-                <c:ptCount val="1"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
                   <c:v>2152f803a27a62702af5bb825ad53e80ca00f50f</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>aaabbbccc</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3524,12 +7271,15 @@
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>Overview!$P$3</c:f>
+              <c:f>Overview!$P$3:$P$4</c:f>
               <c:numCache>
                 <c:formatCode>0" ms"</c:formatCode>
-                <c:ptCount val="1"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
                   <c:v>385.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>78</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3939,11 +7689,14 @@
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>Overview!$A$3</c:f>
+              <c:f>Overview!$A$3:$A$4</c:f>
               <c:strCache>
-                <c:ptCount val="1"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
                   <c:v>2152f803a27a62702af5bb825ad53e80ca00f50f</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>aaabbbccc</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3957,11 +7710,14 @@
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>Overview!$Q$3</c:f>
+              <c:f>Overview!$Q$3:$Q$4</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
-                <c:ptCount val="1"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
+                  <c:v>107</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>107</c:v>
                 </c:pt>
               </c:numCache>
@@ -4079,11 +7835,14 @@
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>Overview!$A$3</c:f>
+              <c:f>Overview!$A$3:$A$4</c:f>
               <c:strCache>
-                <c:ptCount val="1"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
                   <c:v>2152f803a27a62702af5bb825ad53e80ca00f50f</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>aaabbbccc</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4097,12 +7856,15 @@
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>Overview!$R$3</c:f>
+              <c:f>Overview!$R$3:$R$4</c:f>
               <c:numCache>
                 <c:formatCode>0" ms"</c:formatCode>
-                <c:ptCount val="1"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
                   <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4219,11 +7981,14 @@
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>Overview!$A$3</c:f>
+              <c:f>Overview!$A$3:$A$4</c:f>
               <c:strCache>
-                <c:ptCount val="1"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
                   <c:v>2152f803a27a62702af5bb825ad53e80ca00f50f</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>aaabbbccc</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4237,12 +8002,15 @@
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>Overview!$S$3</c:f>
+              <c:f>Overview!$S$3:$S$4</c:f>
               <c:numCache>
                 <c:formatCode>0" ms"</c:formatCode>
-                <c:ptCount val="1"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
                   <c:v>5541</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1085</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4507,7 +8275,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="de-DE"/>
-              <a:t>Map 3</a:t>
+              <a:t>Map 6</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -4552,7 +8320,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Overview!$K$2</c:f>
+              <c:f>Overview!$T$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4652,11 +8420,14 @@
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>Overview!$A$3</c:f>
+              <c:f>Overview!$A$3:$A$4</c:f>
               <c:strCache>
-                <c:ptCount val="1"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
                   <c:v>2152f803a27a62702af5bb825ad53e80ca00f50f</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>aaabbbccc</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4666,16 +8437,19 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>Overview!$K$3:$K$32</c15:sqref>
+                    <c15:sqref>Overview!$T$3:$T$32</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>Overview!$K$3</c:f>
+              <c:f>Overview!$T$3:$T$4</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
-                <c:ptCount val="1"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>15</c:v>
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4692,7 +8466,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Overview!$L$2</c:f>
+              <c:f>Overview!$U$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4792,11 +8566,14 @@
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>Overview!$A$3</c:f>
+              <c:f>Overview!$A$3:$A$4</c:f>
               <c:strCache>
-                <c:ptCount val="1"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
                   <c:v>2152f803a27a62702af5bb825ad53e80ca00f50f</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>aaabbbccc</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4806,16 +8583,19 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>Overview!$L$3:$L$31</c15:sqref>
+                    <c15:sqref>Overview!$U$3:$U$31</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>Overview!$L$3</c:f>
+              <c:f>Overview!$U$3:$U$4</c:f>
               <c:numCache>
                 <c:formatCode>0" ms"</c:formatCode>
-                <c:ptCount val="1"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>2</c:v>
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4832,7 +8612,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Overview!$M$2</c:f>
+              <c:f>Overview!$V$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4932,11 +8712,14 @@
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>Overview!$A$3</c:f>
+              <c:f>Overview!$A$3:$A$4</c:f>
               <c:strCache>
-                <c:ptCount val="1"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
                   <c:v>2152f803a27a62702af5bb825ad53e80ca00f50f</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>aaabbbccc</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4946,16 +8729,19 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>Overview!$M$3:$M$32</c15:sqref>
+                    <c15:sqref>Overview!$V$3:$V$32</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>Overview!$M$3</c:f>
+              <c:f>Overview!$V$3:$V$4</c:f>
               <c:numCache>
                 <c:formatCode>0" ms"</c:formatCode>
-                <c:ptCount val="1"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>1244.5</c:v>
+                  <c:v>1219.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>204</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5220,7 +9006,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="de-DE"/>
-              <a:t>Map 4</a:t>
+              <a:t>Map 7</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -5265,7 +9051,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Overview!$N$2</c:f>
+              <c:f>Overview!$W$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -5365,11 +9151,14 @@
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>Overview!$A$3</c:f>
+              <c:f>Overview!$A$3:$A$4</c:f>
               <c:strCache>
-                <c:ptCount val="1"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
                   <c:v>2152f803a27a62702af5bb825ad53e80ca00f50f</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>aaabbbccc</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -5379,16 +9168,19 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>Overview!$N$3:$N$32</c15:sqref>
+                    <c15:sqref>Overview!$W$3:$W$32</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>Overview!$N$3</c:f>
+              <c:f>Overview!$W$3:$W$4</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
-                <c:ptCount val="1"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>13</c:v>
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>49</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5405,7 +9197,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Overview!$O$2</c:f>
+              <c:f>Overview!$X$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -5505,11 +9297,14 @@
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>Overview!$A$3</c:f>
+              <c:f>Overview!$A$3:$A$4</c:f>
               <c:strCache>
-                <c:ptCount val="1"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
                   <c:v>2152f803a27a62702af5bb825ad53e80ca00f50f</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>aaabbbccc</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -5519,15 +9314,18 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>Overview!$O$3:$O$31</c15:sqref>
+                    <c15:sqref>Overview!$X$3:$X$31</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>Overview!$O$3</c:f>
+              <c:f>Overview!$X$3:$X$4</c:f>
               <c:numCache>
                 <c:formatCode>0" ms"</c:formatCode>
-                <c:ptCount val="1"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -5545,7 +9343,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Overview!$P$2</c:f>
+              <c:f>Overview!$Y$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -5645,11 +9443,14 @@
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>Overview!$A$3</c:f>
+              <c:f>Overview!$A$3:$A$4</c:f>
               <c:strCache>
-                <c:ptCount val="1"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
                   <c:v>2152f803a27a62702af5bb825ad53e80ca00f50f</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>aaabbbccc</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -5659,16 +9460,19 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>Overview!$P$3:$P$32</c15:sqref>
+                    <c15:sqref>Overview!$Y$3:$Y$32</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>Overview!$P$3</c:f>
+              <c:f>Overview!$Y$3:$Y$4</c:f>
               <c:numCache>
                 <c:formatCode>0" ms"</c:formatCode>
-                <c:ptCount val="1"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>385.5</c:v>
+                  <c:v>2394</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>408.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5933,7 +9737,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="de-DE"/>
-              <a:t>Map 5</a:t>
+              <a:t>Map 8</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -5978,7 +9782,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Overview!$Q$2</c:f>
+              <c:f>Overview!$Z$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -6078,11 +9882,14 @@
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>Overview!$A$3</c:f>
+              <c:f>Overview!$A$3:$A$4</c:f>
               <c:strCache>
-                <c:ptCount val="1"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
                   <c:v>2152f803a27a62702af5bb825ad53e80ca00f50f</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>aaabbbccc</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -6092,16 +9899,19 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>Overview!$Q$3:$Q$32</c15:sqref>
+                    <c15:sqref>Overview!$Z$3:$Z$32</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>Overview!$Q$3</c:f>
+              <c:f>Overview!$Z$3:$Z$4</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
-                <c:ptCount val="1"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>107</c:v>
+                  <c:v>568</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>481</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6118,7 +9928,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Overview!$R$2</c:f>
+              <c:f>Overview!$AA$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -6218,11 +10028,14 @@
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>Overview!$A$3</c:f>
+              <c:f>Overview!$A$3:$A$4</c:f>
               <c:strCache>
-                <c:ptCount val="1"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
                   <c:v>2152f803a27a62702af5bb825ad53e80ca00f50f</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>aaabbbccc</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -6232,16 +10045,19 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>Overview!$R$3:$R$31</c15:sqref>
+                    <c15:sqref>Overview!$AA$3:$AA$31</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>Overview!$R$3</c:f>
+              <c:f>Overview!$AA$3:$AA$4</c:f>
               <c:numCache>
                 <c:formatCode>0" ms"</c:formatCode>
-                <c:ptCount val="1"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>24</c:v>
+                  <c:v>1394</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>368</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6258,7 +10074,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Overview!$S$2</c:f>
+              <c:f>Overview!$AB$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -6358,11 +10174,14 @@
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>Overview!$A$3</c:f>
+              <c:f>Overview!$A$3:$A$4</c:f>
               <c:strCache>
-                <c:ptCount val="1"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
                   <c:v>2152f803a27a62702af5bb825ad53e80ca00f50f</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>aaabbbccc</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -6372,16 +10191,19 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>Overview!$S$3:$S$32</c15:sqref>
+                    <c15:sqref>Overview!$AB$3:$AB$32</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>Overview!$S$3</c:f>
+              <c:f>Overview!$AB$3:$AB$4</c:f>
               <c:numCache>
                 <c:formatCode>0" ms"</c:formatCode>
-                <c:ptCount val="1"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>5541</c:v>
+                  <c:v>31900.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5437.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6612,6 +10434,206 @@
 </file>
 
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors10.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors11.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors12.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors13.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors14.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -7474,6 +11496,2521 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style10.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style11.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style12.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style13.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style14.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
   <cs:axisTitle>
@@ -11853,6 +18390,206 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Diagramm 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{518E0CFB-7583-4536-A115-0AEA875C8F38}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Diagramm 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FFAF1075-B3EA-4A36-B67F-88510E2370CB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Diagramm 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{29B58D70-DAC3-49AE-AC26-59AFD3659C4F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Diagramm 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C6FF1247-B725-4496-BAFD-3A39398D91C6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Diagramm 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FA650DAB-8D94-40C0-A26D-41689A5F513D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
@@ -12152,8 +18889,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17EE636D-E62A-409B-8683-80E992881F33}">
   <dimension ref="A1:AQ38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" topLeftCell="AD1" workbookViewId="0">
+      <selection activeCell="AQ8" sqref="AQ8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12498,13 +19235,13 @@
         <v>1736</v>
       </c>
       <c r="AI3" s="8">
-        <v>999999999999</v>
+        <v>0</v>
       </c>
       <c r="AJ3" s="7">
-        <v>999999999999</v>
+        <v>0</v>
       </c>
       <c r="AK3" s="7">
-        <v>999999999999</v>
+        <v>0</v>
       </c>
       <c r="AL3" s="8">
         <v>554</v>
@@ -12626,15 +19363,9 @@
       <c r="AH4" s="7">
         <v>1752</v>
       </c>
-      <c r="AI4" s="8">
-        <v>999999999999</v>
-      </c>
-      <c r="AJ4" s="7">
-        <v>999999999999</v>
-      </c>
-      <c r="AK4" s="7">
-        <v>999999999999</v>
-      </c>
+      <c r="AI4" s="8"/>
+      <c r="AJ4" s="7"/>
+      <c r="AK4" s="7"/>
       <c r="AL4" s="8">
         <v>554</v>
       </c>
@@ -12749,15 +19480,9 @@
       <c r="AH5" s="7">
         <v>1736</v>
       </c>
-      <c r="AI5" s="8">
-        <v>999999999999</v>
-      </c>
-      <c r="AJ5" s="7">
-        <v>999999999999</v>
-      </c>
-      <c r="AK5" s="7">
-        <v>999999999999</v>
-      </c>
+      <c r="AI5" s="8"/>
+      <c r="AJ5" s="7"/>
+      <c r="AK5" s="7"/>
       <c r="AL5" s="8">
         <v>554</v>
       </c>
@@ -12872,15 +19597,9 @@
       <c r="AH6" s="7">
         <v>1751</v>
       </c>
-      <c r="AI6" s="8">
-        <v>999999999999</v>
-      </c>
-      <c r="AJ6" s="7">
-        <v>999999999999</v>
-      </c>
-      <c r="AK6" s="7">
-        <v>999999999999</v>
-      </c>
+      <c r="AI6" s="8"/>
+      <c r="AJ6" s="7"/>
+      <c r="AK6" s="7"/>
       <c r="AL6" s="8">
         <v>554</v>
       </c>
@@ -12895,62 +19614,490 @@
       <c r="AQ6" s="7"/>
     </row>
     <row r="7" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A7" s="4"/>
+      <c r="A7" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" s="8">
+        <v>3</v>
+      </c>
+      <c r="C7" s="7">
+        <v>0</v>
+      </c>
+      <c r="D7" s="7">
+        <v>7</v>
+      </c>
+      <c r="E7" s="8">
+        <v>1</v>
+      </c>
+      <c r="F7" s="7">
+        <v>0</v>
+      </c>
+      <c r="G7" s="7">
+        <v>39</v>
+      </c>
+      <c r="H7" s="8">
+        <v>7</v>
+      </c>
+      <c r="I7" s="7">
+        <v>0</v>
+      </c>
+      <c r="J7" s="7">
+        <v>78</v>
+      </c>
+      <c r="K7" s="8">
+        <v>14</v>
+      </c>
+      <c r="L7" s="7">
+        <v>0</v>
+      </c>
+      <c r="M7" s="7">
+        <v>224</v>
+      </c>
+      <c r="N7" s="8">
+        <v>13</v>
+      </c>
+      <c r="O7" s="7">
+        <v>0</v>
+      </c>
+      <c r="P7" s="7">
+        <v>75</v>
+      </c>
+      <c r="Q7" s="8">
+        <v>107</v>
+      </c>
+      <c r="R7" s="7">
+        <v>2</v>
+      </c>
+      <c r="S7" s="7">
+        <v>1071</v>
+      </c>
+      <c r="T7" s="8">
+        <v>20</v>
+      </c>
+      <c r="U7" s="7">
+        <v>0</v>
+      </c>
+      <c r="V7" s="7">
+        <v>204</v>
+      </c>
+      <c r="W7" s="8">
+        <v>49</v>
+      </c>
+      <c r="X7" s="7">
+        <v>0</v>
+      </c>
+      <c r="Y7" s="7">
+        <v>413</v>
+      </c>
+      <c r="Z7" s="8">
+        <v>481</v>
+      </c>
+      <c r="AA7" s="7">
+        <v>393</v>
+      </c>
+      <c r="AB7" s="7">
+        <v>5454</v>
+      </c>
+      <c r="AC7" s="8">
+        <v>261</v>
+      </c>
+      <c r="AD7" s="7">
+        <v>5</v>
+      </c>
+      <c r="AE7" s="7">
+        <v>1993</v>
+      </c>
+      <c r="AF7" s="8">
+        <v>58</v>
+      </c>
+      <c r="AG7" s="7">
+        <v>0</v>
+      </c>
+      <c r="AH7" s="7">
+        <v>336</v>
+      </c>
+      <c r="AI7" s="8">
+        <v>0</v>
+      </c>
+      <c r="AJ7" s="7">
+        <v>0</v>
+      </c>
+      <c r="AK7" s="7">
+        <v>0</v>
+      </c>
+      <c r="AL7" s="8">
+        <v>445</v>
+      </c>
+      <c r="AM7" s="7">
+        <v>54760</v>
+      </c>
+      <c r="AN7" s="7">
+        <v>75419</v>
+      </c>
+      <c r="AO7" s="7">
+        <v>0</v>
+      </c>
+      <c r="AP7" s="7">
+        <v>0</v>
+      </c>
+      <c r="AQ7" s="7">
+        <v>0</v>
+      </c>
     </row>
     <row r="8" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A8" s="4"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
-      <c r="J8" s="1"/>
-      <c r="K8" s="1"/>
-      <c r="L8" s="1"/>
-      <c r="M8" s="1"/>
-      <c r="N8" s="1"/>
-      <c r="O8" s="1"/>
+      <c r="B8" s="8">
+        <v>3</v>
+      </c>
+      <c r="C8" s="7">
+        <v>0</v>
+      </c>
+      <c r="D8" s="7">
+        <v>7</v>
+      </c>
+      <c r="E8" s="8">
+        <v>1</v>
+      </c>
+      <c r="F8" s="7">
+        <v>0</v>
+      </c>
+      <c r="G8" s="7">
+        <v>52</v>
+      </c>
+      <c r="H8" s="8">
+        <v>7</v>
+      </c>
+      <c r="I8" s="7">
+        <v>0</v>
+      </c>
+      <c r="J8" s="7">
+        <v>77</v>
+      </c>
+      <c r="K8" s="8">
+        <v>14</v>
+      </c>
+      <c r="L8" s="7">
+        <v>0</v>
+      </c>
+      <c r="M8" s="7">
+        <v>217</v>
+      </c>
+      <c r="N8" s="8">
+        <v>13</v>
+      </c>
+      <c r="O8" s="7">
+        <v>0</v>
+      </c>
+      <c r="P8" s="7">
+        <v>78</v>
+      </c>
+      <c r="Q8" s="8">
+        <v>107</v>
+      </c>
+      <c r="R8" s="7">
+        <v>7</v>
+      </c>
+      <c r="S8" s="7">
+        <v>1097</v>
+      </c>
+      <c r="T8" s="8">
+        <v>20</v>
+      </c>
+      <c r="U8" s="7">
+        <v>0</v>
+      </c>
+      <c r="V8" s="7">
+        <v>210</v>
+      </c>
+      <c r="W8" s="8">
+        <v>49</v>
+      </c>
+      <c r="X8" s="7">
+        <v>0</v>
+      </c>
+      <c r="Y8" s="7">
+        <v>408</v>
+      </c>
+      <c r="Z8" s="8">
+        <v>481</v>
+      </c>
+      <c r="AA8" s="7">
+        <v>378</v>
+      </c>
+      <c r="AB8" s="7">
+        <v>5487</v>
+      </c>
+      <c r="AC8" s="8">
+        <v>261</v>
+      </c>
+      <c r="AD8" s="7">
+        <v>0</v>
+      </c>
+      <c r="AE8" s="7">
+        <v>1980</v>
+      </c>
+      <c r="AF8" s="8">
+        <v>58</v>
+      </c>
+      <c r="AG8" s="7">
+        <v>0</v>
+      </c>
+      <c r="AH8" s="7">
+        <v>337</v>
+      </c>
+      <c r="AI8" s="8"/>
+      <c r="AJ8" s="7"/>
+      <c r="AK8" s="7"/>
+      <c r="AL8" s="8">
+        <v>445</v>
+      </c>
+      <c r="AM8" s="7">
+        <v>55571</v>
+      </c>
+      <c r="AN8" s="7">
+        <v>75541</v>
+      </c>
+      <c r="AO8" s="7"/>
+      <c r="AP8" s="7"/>
+      <c r="AQ8" s="7"/>
     </row>
     <row r="9" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A9" s="4"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
-      <c r="K9" s="1"/>
-      <c r="L9" s="1"/>
-      <c r="M9" s="1"/>
-      <c r="N9" s="1"/>
-      <c r="O9" s="1"/>
+      <c r="B9" s="8">
+        <v>3</v>
+      </c>
+      <c r="C9" s="7">
+        <v>0</v>
+      </c>
+      <c r="D9" s="7">
+        <v>20</v>
+      </c>
+      <c r="E9" s="8">
+        <v>1</v>
+      </c>
+      <c r="F9" s="7">
+        <v>0</v>
+      </c>
+      <c r="G9" s="7">
+        <v>48</v>
+      </c>
+      <c r="H9" s="8">
+        <v>7</v>
+      </c>
+      <c r="I9" s="7">
+        <v>0</v>
+      </c>
+      <c r="J9" s="7">
+        <v>78</v>
+      </c>
+      <c r="K9" s="8">
+        <v>14</v>
+      </c>
+      <c r="L9" s="7">
+        <v>0</v>
+      </c>
+      <c r="M9" s="7">
+        <v>217</v>
+      </c>
+      <c r="N9" s="8">
+        <v>13</v>
+      </c>
+      <c r="O9" s="7">
+        <v>0</v>
+      </c>
+      <c r="P9" s="7">
+        <v>78</v>
+      </c>
+      <c r="Q9" s="8">
+        <v>107</v>
+      </c>
+      <c r="R9" s="7">
+        <v>1</v>
+      </c>
+      <c r="S9" s="7">
+        <v>1073</v>
+      </c>
+      <c r="T9" s="8">
+        <v>20</v>
+      </c>
+      <c r="U9" s="7">
+        <v>0</v>
+      </c>
+      <c r="V9" s="7">
+        <v>204</v>
+      </c>
+      <c r="W9" s="8">
+        <v>49</v>
+      </c>
+      <c r="X9" s="7">
+        <v>0</v>
+      </c>
+      <c r="Y9" s="7">
+        <v>407</v>
+      </c>
+      <c r="Z9" s="8">
+        <v>481</v>
+      </c>
+      <c r="AA9" s="7">
+        <v>358</v>
+      </c>
+      <c r="AB9" s="7">
+        <v>5417</v>
+      </c>
+      <c r="AC9" s="8">
+        <v>261</v>
+      </c>
+      <c r="AD9" s="7">
+        <v>1</v>
+      </c>
+      <c r="AE9" s="7">
+        <v>1972</v>
+      </c>
+      <c r="AF9" s="8">
+        <v>58</v>
+      </c>
+      <c r="AG9" s="7">
+        <v>0</v>
+      </c>
+      <c r="AH9" s="7">
+        <v>337</v>
+      </c>
+      <c r="AI9" s="8"/>
+      <c r="AJ9" s="7"/>
+      <c r="AK9" s="7"/>
+      <c r="AL9" s="8">
+        <v>445</v>
+      </c>
+      <c r="AM9" s="7">
+        <v>54350</v>
+      </c>
+      <c r="AN9" s="7">
+        <v>73211</v>
+      </c>
+      <c r="AO9" s="7"/>
+      <c r="AP9" s="7"/>
+      <c r="AQ9" s="7"/>
     </row>
     <row r="10" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A10" s="4"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
-      <c r="J10" s="1"/>
-      <c r="K10" s="1"/>
-      <c r="L10" s="1"/>
-      <c r="M10" s="1"/>
-      <c r="N10" s="1"/>
-      <c r="O10" s="1"/>
+      <c r="B10" s="8">
+        <v>3</v>
+      </c>
+      <c r="C10" s="7">
+        <v>0</v>
+      </c>
+      <c r="D10" s="7">
+        <v>6</v>
+      </c>
+      <c r="E10" s="8">
+        <v>1</v>
+      </c>
+      <c r="F10" s="7">
+        <v>0</v>
+      </c>
+      <c r="G10" s="7">
+        <v>49</v>
+      </c>
+      <c r="H10" s="8">
+        <v>7</v>
+      </c>
+      <c r="I10" s="7">
+        <v>0</v>
+      </c>
+      <c r="J10" s="7">
+        <v>78</v>
+      </c>
+      <c r="K10" s="8">
+        <v>14</v>
+      </c>
+      <c r="L10" s="7">
+        <v>0</v>
+      </c>
+      <c r="M10" s="7">
+        <v>217</v>
+      </c>
+      <c r="N10" s="8">
+        <v>13</v>
+      </c>
+      <c r="O10" s="7">
+        <v>0</v>
+      </c>
+      <c r="P10" s="7">
+        <v>81</v>
+      </c>
+      <c r="Q10" s="8">
+        <v>107</v>
+      </c>
+      <c r="R10" s="7">
+        <v>4</v>
+      </c>
+      <c r="S10" s="7">
+        <v>1101</v>
+      </c>
+      <c r="T10" s="8">
+        <v>20</v>
+      </c>
+      <c r="U10" s="7">
+        <v>0</v>
+      </c>
+      <c r="V10" s="7">
+        <v>204</v>
+      </c>
+      <c r="W10" s="8">
+        <v>49</v>
+      </c>
+      <c r="X10" s="7">
+        <v>0</v>
+      </c>
+      <c r="Y10" s="7">
+        <v>409</v>
+      </c>
+      <c r="Z10" s="8">
+        <v>481</v>
+      </c>
+      <c r="AA10" s="7">
+        <v>331</v>
+      </c>
+      <c r="AB10" s="7">
+        <v>5421</v>
+      </c>
+      <c r="AC10" s="8">
+        <v>261</v>
+      </c>
+      <c r="AD10" s="7">
+        <v>3</v>
+      </c>
+      <c r="AE10" s="7">
+        <v>1991</v>
+      </c>
+      <c r="AF10" s="8">
+        <v>58</v>
+      </c>
+      <c r="AG10" s="7">
+        <v>0</v>
+      </c>
+      <c r="AH10" s="7">
+        <v>336</v>
+      </c>
+      <c r="AI10" s="8"/>
+      <c r="AJ10" s="7"/>
+      <c r="AK10" s="7"/>
+      <c r="AL10" s="8">
+        <v>445</v>
+      </c>
+      <c r="AM10" s="7">
+        <v>50159</v>
+      </c>
+      <c r="AN10" s="7">
+        <v>68932</v>
+      </c>
+      <c r="AO10" s="7"/>
+      <c r="AP10" s="7"/>
+      <c r="AQ10" s="7"/>
     </row>
     <row r="11" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A11" s="4"/>
-      <c r="B11" s="1"/>
+      <c r="B11" s="8"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
@@ -12967,7 +20114,7 @@
     </row>
     <row r="12" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A12" s="4"/>
-      <c r="B12" s="1"/>
+      <c r="B12" s="8"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
@@ -12984,7 +20131,7 @@
     </row>
     <row r="13" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A13" s="4"/>
-      <c r="B13" s="1"/>
+      <c r="B13" s="8"/>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
@@ -13001,7 +20148,7 @@
     </row>
     <row r="14" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A14" s="4"/>
-      <c r="B14" s="1"/>
+      <c r="B14" s="8"/>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
@@ -13018,7 +20165,7 @@
     </row>
     <row r="15" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A15" s="4"/>
-      <c r="B15" s="1"/>
+      <c r="B15" s="8"/>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
@@ -13035,7 +20182,7 @@
     </row>
     <row r="16" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A16" s="4"/>
-      <c r="B16" s="1"/>
+      <c r="B16" s="8"/>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
@@ -13052,7 +20199,7 @@
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="4"/>
-      <c r="B17" s="1"/>
+      <c r="B17" s="8"/>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
@@ -13069,7 +20216,7 @@
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" s="4"/>
-      <c r="B18" s="1"/>
+      <c r="B18" s="8"/>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
@@ -13086,7 +20233,7 @@
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" s="4"/>
-      <c r="B19" s="1"/>
+      <c r="B19" s="8"/>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
@@ -13103,7 +20250,7 @@
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" s="4"/>
-      <c r="B20" s="1"/>
+      <c r="B20" s="8"/>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
@@ -13120,7 +20267,7 @@
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" s="4"/>
-      <c r="B21" s="1"/>
+      <c r="B21" s="8"/>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
@@ -13137,7 +20284,7 @@
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" s="4"/>
-      <c r="B22" s="1"/>
+      <c r="B22" s="8"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
@@ -13336,8 +20483,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{358AC821-81AF-4436-97C1-FE0668787897}">
   <dimension ref="A1:AQ38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+    <sheetView topLeftCell="AB1" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13717,15 +20864,15 @@
       </c>
       <c r="AI3" s="8">
         <f>MEDIAN(Values!AI3:AI6)</f>
-        <v>999999999999</v>
+        <v>0</v>
       </c>
       <c r="AJ3" s="7">
         <f>MEDIAN(Values!AJ3:AJ6)</f>
-        <v>999999999999</v>
+        <v>0</v>
       </c>
       <c r="AK3" s="7">
         <f>MEDIAN(Values!AK3:AK6)</f>
-        <v>999999999999</v>
+        <v>0</v>
       </c>
       <c r="AL3" s="8">
         <f>MEDIAN(Values!AL3:AL6)</f>
@@ -13753,49 +20900,178 @@
       </c>
     </row>
     <row r="4" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A4" s="4"/>
-      <c r="B4" s="8"/>
-      <c r="C4" s="7"/>
-      <c r="D4" s="7"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="7"/>
-      <c r="H4" s="8"/>
-      <c r="I4" s="7"/>
-      <c r="J4" s="7"/>
-      <c r="K4" s="8"/>
-      <c r="L4" s="7"/>
-      <c r="M4" s="7"/>
-      <c r="N4" s="8"/>
-      <c r="O4" s="7"/>
-      <c r="P4" s="7"/>
-      <c r="Q4" s="8"/>
-      <c r="R4" s="7"/>
-      <c r="S4" s="7"/>
-      <c r="T4" s="8"/>
-      <c r="U4" s="7"/>
-      <c r="V4" s="7"/>
-      <c r="W4" s="8"/>
-      <c r="X4" s="7"/>
-      <c r="Y4" s="7"/>
-      <c r="Z4" s="8"/>
-      <c r="AA4" s="7"/>
-      <c r="AB4" s="7"/>
-      <c r="AC4" s="8"/>
-      <c r="AD4" s="7"/>
-      <c r="AE4" s="7"/>
-      <c r="AF4" s="8"/>
-      <c r="AG4" s="7"/>
-      <c r="AH4" s="7"/>
-      <c r="AI4" s="8"/>
-      <c r="AJ4" s="7"/>
-      <c r="AK4" s="7"/>
-      <c r="AL4" s="8"/>
-      <c r="AM4" s="7"/>
-      <c r="AN4" s="7"/>
-      <c r="AO4" s="8"/>
-      <c r="AP4" s="7"/>
-      <c r="AQ4" s="7"/>
+      <c r="A4" s="9" t="str">
+        <f>Values!A7</f>
+        <v>aaabbbccc</v>
+      </c>
+      <c r="B4" s="8">
+        <f>MEDIAN(Values!B7:B10)</f>
+        <v>3</v>
+      </c>
+      <c r="C4" s="7">
+        <f>MEDIAN(Values!C7:C10)</f>
+        <v>0</v>
+      </c>
+      <c r="D4" s="7">
+        <f>MEDIAN(Values!D7:D10)</f>
+        <v>7</v>
+      </c>
+      <c r="E4" s="8">
+        <f>MEDIAN(Values!E7:E10)</f>
+        <v>1</v>
+      </c>
+      <c r="F4" s="7">
+        <f>MEDIAN(Values!F7:F10)</f>
+        <v>0</v>
+      </c>
+      <c r="G4" s="7">
+        <f>MEDIAN(Values!G7:G10)</f>
+        <v>48.5</v>
+      </c>
+      <c r="H4" s="8">
+        <f>MEDIAN(Values!H7:H10)</f>
+        <v>7</v>
+      </c>
+      <c r="I4" s="7">
+        <f>MEDIAN(Values!I7:I10)</f>
+        <v>0</v>
+      </c>
+      <c r="J4" s="7">
+        <f>MEDIAN(Values!J7:J10)</f>
+        <v>78</v>
+      </c>
+      <c r="K4" s="8">
+        <f>MEDIAN(Values!K7:K10)</f>
+        <v>14</v>
+      </c>
+      <c r="L4" s="7">
+        <f>MEDIAN(Values!L7:L10)</f>
+        <v>0</v>
+      </c>
+      <c r="M4" s="7">
+        <f>MEDIAN(Values!M7:M10)</f>
+        <v>217</v>
+      </c>
+      <c r="N4" s="8">
+        <f>MEDIAN(Values!N7:N10)</f>
+        <v>13</v>
+      </c>
+      <c r="O4" s="7">
+        <f>MEDIAN(Values!O7:O10)</f>
+        <v>0</v>
+      </c>
+      <c r="P4" s="7">
+        <f>MEDIAN(Values!P7:P10)</f>
+        <v>78</v>
+      </c>
+      <c r="Q4" s="8">
+        <f>MEDIAN(Values!Q7:Q10)</f>
+        <v>107</v>
+      </c>
+      <c r="R4" s="7">
+        <f>MEDIAN(Values!R7:R10)</f>
+        <v>3</v>
+      </c>
+      <c r="S4" s="7">
+        <f>MEDIAN(Values!S7:S10)</f>
+        <v>1085</v>
+      </c>
+      <c r="T4" s="8">
+        <f>MEDIAN(Values!T7:T10)</f>
+        <v>20</v>
+      </c>
+      <c r="U4" s="7">
+        <f>MEDIAN(Values!U7:U10)</f>
+        <v>0</v>
+      </c>
+      <c r="V4" s="7">
+        <f>MEDIAN(Values!V7:V10)</f>
+        <v>204</v>
+      </c>
+      <c r="W4" s="8">
+        <f>MEDIAN(Values!W7:W10)</f>
+        <v>49</v>
+      </c>
+      <c r="X4" s="7">
+        <f>MEDIAN(Values!X7:X10)</f>
+        <v>0</v>
+      </c>
+      <c r="Y4" s="7">
+        <f>MEDIAN(Values!Y7:Y10)</f>
+        <v>408.5</v>
+      </c>
+      <c r="Z4" s="8">
+        <f>MEDIAN(Values!Z7:Z10)</f>
+        <v>481</v>
+      </c>
+      <c r="AA4" s="7">
+        <f>MEDIAN(Values!AA7:AA10)</f>
+        <v>368</v>
+      </c>
+      <c r="AB4" s="7">
+        <f>MEDIAN(Values!AB7:AB10)</f>
+        <v>5437.5</v>
+      </c>
+      <c r="AC4" s="8">
+        <f>MEDIAN(Values!AC7:AC10)</f>
+        <v>261</v>
+      </c>
+      <c r="AD4" s="7">
+        <f>MEDIAN(Values!AD7:AD10)</f>
+        <v>2</v>
+      </c>
+      <c r="AE4" s="7">
+        <f>MEDIAN(Values!AE7:AE10)</f>
+        <v>1985.5</v>
+      </c>
+      <c r="AF4" s="8">
+        <f>MEDIAN(Values!AF7:AF10)</f>
+        <v>58</v>
+      </c>
+      <c r="AG4" s="7">
+        <f>MEDIAN(Values!AG7:AG10)</f>
+        <v>0</v>
+      </c>
+      <c r="AH4" s="7">
+        <f>MEDIAN(Values!AH7:AH10)</f>
+        <v>336.5</v>
+      </c>
+      <c r="AI4" s="8">
+        <f>MEDIAN(Values!AI7:AI10)</f>
+        <v>0</v>
+      </c>
+      <c r="AJ4" s="7">
+        <f>MEDIAN(Values!AJ7:AJ10)</f>
+        <v>0</v>
+      </c>
+      <c r="AK4" s="7">
+        <f>MEDIAN(Values!AK7:AK10)</f>
+        <v>0</v>
+      </c>
+      <c r="AL4" s="8">
+        <f>MEDIAN(Values!AL7:AL10)</f>
+        <v>445</v>
+      </c>
+      <c r="AM4" s="7">
+        <f>MEDIAN(Values!AM7:AM10)</f>
+        <v>54555</v>
+      </c>
+      <c r="AN4" s="7">
+        <f>MEDIAN(Values!AN7:AN10)</f>
+        <v>74315</v>
+      </c>
+      <c r="AO4" s="8">
+        <f>MEDIAN(Values!AO7:AO10)</f>
+        <v>0</v>
+      </c>
+      <c r="AP4" s="7">
+        <f>MEDIAN(Values!AP7:AP10)</f>
+        <v>0</v>
+      </c>
+      <c r="AQ4" s="7">
+        <f>MEDIAN(Values!AQ7:AQ10)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="5" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A5" s="4"/>
@@ -14371,4 +21647,34 @@
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F31302A-C3AD-4B4A-8BA9-6BBDD043C47F}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="W28" sqref="W28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5369178-8155-4772-9674-A05DC695F2A7}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="W28" sqref="W28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/QuoVadisQuax/TestValues.xlsx
+++ b/QuoVadisQuax/TestValues.xlsx
@@ -8,18 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Jonas\Documents\GitHub\Quo-vadis-Quax\QuoVadisQuax\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A25F6E7B-31DD-46FD-96E6-366ADD7347B1}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4039901-735F-41B0-B940-0DAAF9997892}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11115" xr2:uid="{8F5AB63A-ACA6-4B4B-9BF8-58FEC92E4E85}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11115" activeTab="2" xr2:uid="{8F5AB63A-ACA6-4B4B-9BF8-58FEC92E4E85}"/>
   </bookViews>
   <sheets>
     <sheet name="Values" sheetId="1" r:id="rId1"/>
     <sheet name="Overview" sheetId="4" r:id="rId2"/>
-    <sheet name="Diagrams 0-2" sheetId="5" r:id="rId3"/>
-    <sheet name="Diagrams 3-5" sheetId="6" r:id="rId4"/>
-    <sheet name="Diagrams 6-8" sheetId="7" r:id="rId5"/>
-    <sheet name="Diagrams 9-11" sheetId="8" r:id="rId6"/>
-    <sheet name="Diagrams 12-13" sheetId="9" r:id="rId7"/>
+    <sheet name="Summary" sheetId="11" r:id="rId3"/>
+    <sheet name="Diagrams 0-2" sheetId="5" r:id="rId4"/>
+    <sheet name="Diagrams 3-5" sheetId="6" r:id="rId5"/>
+    <sheet name="Diagrams 6-8" sheetId="7" r:id="rId6"/>
+    <sheet name="Diagrams 9-11" sheetId="8" r:id="rId7"/>
+    <sheet name="Diagrams 12-13" sheetId="9" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="21">
   <si>
     <t>Project Status</t>
   </si>
@@ -96,7 +97,10 @@
     <t>2152f803a27a62702af5bb825ad53e80ca00f50f</t>
   </si>
   <si>
-    <t>aaabbbccc</t>
+    <t>Improvments</t>
+  </si>
+  <si>
+    <t>66bda0c6a0d2ad2b7f42de937a92b15cfd52cd35</t>
   </si>
 </sst>
 </file>
@@ -107,7 +111,7 @@
     <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
     <numFmt numFmtId="165" formatCode="0&quot; ms&quot;"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -132,6 +136,13 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -168,10 +179,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
@@ -182,8 +194,14 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Prozent" xfId="1" builtinId="5"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -234,8 +252,13 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="de-DE"/>
-              <a:t>Map 0</a:t>
+              <a:t>General</a:t>
             </a:r>
+            <a:r>
+              <a:rPr lang="de-DE" baseline="0"/>
+              <a:t> Algorithm Improvment</a:t>
+            </a:r>
+            <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -279,7 +302,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Overview!$B$2</c:f>
+              <c:f>Summary!$B$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -372,43 +395,29 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                  <c15:fullRef>
-                    <c15:sqref>Overview!$A$3:$A$10</c15:sqref>
-                  </c15:fullRef>
-                </c:ext>
-              </c:extLst>
-              <c:f>Overview!$A$3:$A$4</c:f>
+              <c:f>Summary!$A$3:$A$4</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
                   <c:v>2152f803a27a62702af5bb825ad53e80ca00f50f</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>aaabbbccc</c:v>
+                  <c:v>66bda0c6a0d2ad2b7f42de937a92b15cfd52cd35</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                  <c15:fullRef>
-                    <c15:sqref>Overview!$B$3:$B$32</c15:sqref>
-                  </c15:fullRef>
-                </c:ext>
-              </c:extLst>
-              <c:f>Overview!$B$3:$B$4</c:f>
+              <c:f>Summary!$B$3:$B$4</c:f>
               <c:numCache>
-                <c:formatCode>0</c:formatCode>
+                <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>6</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3</c:v>
+                  <c:v>1.1672230802533485</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -416,7 +425,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-CF5A-4CA4-A742-3CC05ED41378}"/>
+              <c16:uniqueId val="{00000000-2A23-47EC-90CB-80DEDA4292F6}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -425,7 +434,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Overview!$C$2</c:f>
+              <c:f>Summary!$C$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -518,43 +527,29 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                  <c15:fullRef>
-                    <c15:sqref>Overview!$A$3:$A$10</c15:sqref>
-                  </c15:fullRef>
-                </c:ext>
-              </c:extLst>
-              <c:f>Overview!$A$3:$A$4</c:f>
+              <c:f>Summary!$A$3:$A$4</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
                   <c:v>2152f803a27a62702af5bb825ad53e80ca00f50f</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>aaabbbccc</c:v>
+                  <c:v>66bda0c6a0d2ad2b7f42de937a92b15cfd52cd35</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                  <c15:fullRef>
-                    <c15:sqref>Overview!$C$3:$C$31</c15:sqref>
-                  </c15:fullRef>
-                </c:ext>
-              </c:extLst>
-              <c:f>Overview!$C$3:$C$4</c:f>
+              <c:f>Summary!$C$3:$C$4</c:f>
               <c:numCache>
-                <c:formatCode>0" ms"</c:formatCode>
+                <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>1.923370576645318</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -562,7 +557,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-CF5A-4CA4-A742-3CC05ED41378}"/>
+              <c16:uniqueId val="{00000001-2A23-47EC-90CB-80DEDA4292F6}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -571,7 +566,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Overview!$D$2</c:f>
+              <c:f>Summary!$D$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -664,43 +659,29 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                  <c15:fullRef>
-                    <c15:sqref>Overview!$A$3:$A$10</c15:sqref>
-                  </c15:fullRef>
-                </c:ext>
-              </c:extLst>
-              <c:f>Overview!$A$3:$A$4</c:f>
+              <c:f>Summary!$A$3:$A$4</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
                   <c:v>2152f803a27a62702af5bb825ad53e80ca00f50f</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>aaabbbccc</c:v>
+                  <c:v>66bda0c6a0d2ad2b7f42de937a92b15cfd52cd35</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                  <c15:fullRef>
-                    <c15:sqref>Overview!$D$3:$D$32</c15:sqref>
-                  </c15:fullRef>
-                </c:ext>
-              </c:extLst>
-              <c:f>Overview!$D$3:$D$4</c:f>
+              <c:f>Summary!$D$3:$D$4</c:f>
               <c:numCache>
-                <c:formatCode>0" ms"</c:formatCode>
+                <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>85</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7</c:v>
+                  <c:v>5.0889629605515756</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -708,7 +689,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-CF5A-4CA4-A742-3CC05ED41378}"/>
+              <c16:uniqueId val="{00000002-2A23-47EC-90CB-80DEDA4292F6}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -812,7 +793,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:minorGridlines>
-        <c:numFmt formatCode="0" sourceLinked="1"/>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -965,7 +946,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="de-DE"/>
-              <a:t>Map 9</a:t>
+              <a:t>Map 8</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -1010,7 +991,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Overview!$AC$2</c:f>
+              <c:f>Overview!$Z$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1117,7 +1098,7 @@
                   <c:v>2152f803a27a62702af5bb825ad53e80ca00f50f</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>aaabbbccc</c:v>
+                  <c:v>66bda0c6a0d2ad2b7f42de937a92b15cfd52cd35</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1127,19 +1108,19 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>Overview!$AC$3:$AC$32</c15:sqref>
+                    <c15:sqref>Overview!$Z$3:$Z$32</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>Overview!$AC$3:$AC$4</c:f>
+              <c:f>Overview!$Z$3:$Z$4</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>261</c:v>
+                  <c:v>568</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>261</c:v>
+                  <c:v>481</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1147,7 +1128,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-D26C-49CB-AA68-12E081EA6201}"/>
+              <c16:uniqueId val="{00000000-1310-4747-A5D1-3A1356607B30}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1156,7 +1137,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Overview!$AD$2</c:f>
+              <c:f>Overview!$AA$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1263,7 +1244,7 @@
                   <c:v>2152f803a27a62702af5bb825ad53e80ca00f50f</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>aaabbbccc</c:v>
+                  <c:v>66bda0c6a0d2ad2b7f42de937a92b15cfd52cd35</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1273,19 +1254,19 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>Overview!$AD$3:$AD$31</c15:sqref>
+                    <c15:sqref>Overview!$AA$3:$AA$31</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>Overview!$AD$3:$AD$4</c:f>
+              <c:f>Overview!$AA$3:$AA$4</c:f>
               <c:numCache>
                 <c:formatCode>0" ms"</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>6.5</c:v>
+                  <c:v>1394</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2</c:v>
+                  <c:v>368</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1293,7 +1274,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-D26C-49CB-AA68-12E081EA6201}"/>
+              <c16:uniqueId val="{00000001-1310-4747-A5D1-3A1356607B30}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1302,7 +1283,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Overview!$AE$2</c:f>
+              <c:f>Overview!$AB$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1409,7 +1390,7 @@
                   <c:v>2152f803a27a62702af5bb825ad53e80ca00f50f</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>aaabbbccc</c:v>
+                  <c:v>66bda0c6a0d2ad2b7f42de937a92b15cfd52cd35</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1419,19 +1400,19 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>Overview!$AE$3:$AE$32</c15:sqref>
+                    <c15:sqref>Overview!$AB$3:$AB$32</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>Overview!$AE$3:$AE$4</c:f>
+              <c:f>Overview!$AB$3:$AB$4</c:f>
               <c:numCache>
                 <c:formatCode>0" ms"</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>10142.5</c:v>
+                  <c:v>31900.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1985.5</c:v>
+                  <c:v>5437.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1439,7 +1420,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-D26C-49CB-AA68-12E081EA6201}"/>
+              <c16:uniqueId val="{00000002-1310-4747-A5D1-3A1356607B30}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1696,7 +1677,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="de-DE"/>
-              <a:t>Map 10</a:t>
+              <a:t>Map 9</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -1741,7 +1722,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Overview!$AF$2</c:f>
+              <c:f>Overview!$AC$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1848,7 +1829,7 @@
                   <c:v>2152f803a27a62702af5bb825ad53e80ca00f50f</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>aaabbbccc</c:v>
+                  <c:v>66bda0c6a0d2ad2b7f42de937a92b15cfd52cd35</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1858,19 +1839,19 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>Overview!$AF$3:$AF$32</c15:sqref>
+                    <c15:sqref>Overview!$AC$3:$AC$32</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>Overview!$AF$3:$AF$4</c:f>
+              <c:f>Overview!$AC$3:$AC$4</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>58</c:v>
+                  <c:v>261</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>58</c:v>
+                  <c:v>261</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1878,7 +1859,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-72BC-4C07-84E1-83230F6F1BA7}"/>
+              <c16:uniqueId val="{00000000-D26C-49CB-AA68-12E081EA6201}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1887,7 +1868,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Overview!$AG$2</c:f>
+              <c:f>Overview!$AD$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1994,7 +1975,7 @@
                   <c:v>2152f803a27a62702af5bb825ad53e80ca00f50f</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>aaabbbccc</c:v>
+                  <c:v>66bda0c6a0d2ad2b7f42de937a92b15cfd52cd35</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2004,19 +1985,19 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>Overview!$AG$3:$AG$31</c15:sqref>
+                    <c15:sqref>Overview!$AD$3:$AD$31</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>Overview!$AG$3:$AG$4</c:f>
+              <c:f>Overview!$AD$3:$AD$4</c:f>
               <c:numCache>
                 <c:formatCode>0" ms"</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>6.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2024,7 +2005,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-72BC-4C07-84E1-83230F6F1BA7}"/>
+              <c16:uniqueId val="{00000001-D26C-49CB-AA68-12E081EA6201}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2033,7 +2014,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Overview!$AH$2</c:f>
+              <c:f>Overview!$AE$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2140,7 +2121,7 @@
                   <c:v>2152f803a27a62702af5bb825ad53e80ca00f50f</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>aaabbbccc</c:v>
+                  <c:v>66bda0c6a0d2ad2b7f42de937a92b15cfd52cd35</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2150,19 +2131,19 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>Overview!$AH$3:$AH$32</c15:sqref>
+                    <c15:sqref>Overview!$AE$3:$AE$32</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>Overview!$AH$3:$AH$4</c:f>
+              <c:f>Overview!$AE$3:$AE$4</c:f>
               <c:numCache>
                 <c:formatCode>0" ms"</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>1743.5</c:v>
+                  <c:v>10142.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>336.5</c:v>
+                  <c:v>1985.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2170,7 +2151,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-72BC-4C07-84E1-83230F6F1BA7}"/>
+              <c16:uniqueId val="{00000002-D26C-49CB-AA68-12E081EA6201}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2427,7 +2408,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="de-DE"/>
-              <a:t>Map 11</a:t>
+              <a:t>Map 10</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -2472,7 +2453,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Overview!$AI$2</c:f>
+              <c:f>Overview!$AF$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2579,7 +2560,7 @@
                   <c:v>2152f803a27a62702af5bb825ad53e80ca00f50f</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>aaabbbccc</c:v>
+                  <c:v>66bda0c6a0d2ad2b7f42de937a92b15cfd52cd35</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2589,19 +2570,19 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>Overview!$AI$3:$AI$32</c15:sqref>
+                    <c15:sqref>Overview!$AF$3:$AF$32</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>Overview!$AI$3:$AI$4</c:f>
+              <c:f>Overview!$AF$3:$AF$4</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>58</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>58</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2609,7 +2590,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-79F1-4FE0-B6AF-59E42F8B7560}"/>
+              <c16:uniqueId val="{00000000-72BC-4C07-84E1-83230F6F1BA7}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2618,7 +2599,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Overview!$AJ$2</c:f>
+              <c:f>Overview!$AG$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2725,7 +2706,7 @@
                   <c:v>2152f803a27a62702af5bb825ad53e80ca00f50f</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>aaabbbccc</c:v>
+                  <c:v>66bda0c6a0d2ad2b7f42de937a92b15cfd52cd35</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2735,19 +2716,19 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>Overview!$AJ$3:$AJ$31</c15:sqref>
+                    <c15:sqref>Overview!$AG$3:$AG$31</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>Overview!$AJ$3:$AJ$4</c:f>
+              <c:f>Overview!$AG$3:$AG$4</c:f>
               <c:numCache>
                 <c:formatCode>0" ms"</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2755,7 +2736,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-79F1-4FE0-B6AF-59E42F8B7560}"/>
+              <c16:uniqueId val="{00000001-72BC-4C07-84E1-83230F6F1BA7}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2764,7 +2745,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Overview!$AK$2</c:f>
+              <c:f>Overview!$AH$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2871,7 +2852,7 @@
                   <c:v>2152f803a27a62702af5bb825ad53e80ca00f50f</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>aaabbbccc</c:v>
+                  <c:v>66bda0c6a0d2ad2b7f42de937a92b15cfd52cd35</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2881,19 +2862,19 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>Overview!$AK$3:$AK$32</c15:sqref>
+                    <c15:sqref>Overview!$AH$3:$AH$32</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>Overview!$AK$3:$AK$4</c:f>
+              <c:f>Overview!$AH$3:$AH$4</c:f>
               <c:numCache>
                 <c:formatCode>0" ms"</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>1743.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>336.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2901,7 +2882,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-79F1-4FE0-B6AF-59E42F8B7560}"/>
+              <c16:uniqueId val="{00000002-72BC-4C07-84E1-83230F6F1BA7}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3158,7 +3139,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="de-DE"/>
-              <a:t>Map 12</a:t>
+              <a:t>Map 11</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -3203,7 +3184,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Overview!$AL$2</c:f>
+              <c:f>Overview!$AI$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3310,7 +3291,7 @@
                   <c:v>2152f803a27a62702af5bb825ad53e80ca00f50f</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>aaabbbccc</c:v>
+                  <c:v>66bda0c6a0d2ad2b7f42de937a92b15cfd52cd35</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3320,19 +3301,19 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>Overview!$AL$3:$AL$32</c15:sqref>
+                    <c15:sqref>Overview!$AI$3:$AI$32</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>Overview!$AL$3:$AL$4</c:f>
+              <c:f>Overview!$AI$3:$AI$4</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>554</c:v>
+                  <c:v>999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>445</c:v>
+                  <c:v>999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3340,7 +3321,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-1959-4C99-BAE8-13976422FB64}"/>
+              <c16:uniqueId val="{00000000-79F1-4FE0-B6AF-59E42F8B7560}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3349,7 +3330,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Overview!$AM$2</c:f>
+              <c:f>Overview!$AJ$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3456,7 +3437,7 @@
                   <c:v>2152f803a27a62702af5bb825ad53e80ca00f50f</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>aaabbbccc</c:v>
+                  <c:v>66bda0c6a0d2ad2b7f42de937a92b15cfd52cd35</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3466,19 +3447,19 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>Overview!$AM$3:$AM$31</c15:sqref>
+                    <c15:sqref>Overview!$AJ$3:$AJ$31</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>Overview!$AM$3:$AM$4</c:f>
+              <c:f>Overview!$AJ$3:$AJ$4</c:f>
               <c:numCache>
                 <c:formatCode>0" ms"</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>53316</c:v>
+                  <c:v>999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>54555</c:v>
+                  <c:v>999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3486,7 +3467,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-1959-4C99-BAE8-13976422FB64}"/>
+              <c16:uniqueId val="{00000001-79F1-4FE0-B6AF-59E42F8B7560}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3495,7 +3476,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Overview!$AN$2</c:f>
+              <c:f>Overview!$AK$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3602,7 +3583,7 @@
                   <c:v>2152f803a27a62702af5bb825ad53e80ca00f50f</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>aaabbbccc</c:v>
+                  <c:v>66bda0c6a0d2ad2b7f42de937a92b15cfd52cd35</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3612,19 +3593,19 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>Overview!$AN$3:$AN$32</c15:sqref>
+                    <c15:sqref>Overview!$AK$3:$AK$32</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>Overview!$AN$3:$AN$4</c:f>
+              <c:f>Overview!$AK$3:$AK$4</c:f>
               <c:numCache>
                 <c:formatCode>0" ms"</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>133935</c:v>
+                  <c:v>999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>74315</c:v>
+                  <c:v>999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3632,7 +3613,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-1959-4C99-BAE8-13976422FB64}"/>
+              <c16:uniqueId val="{00000002-79F1-4FE0-B6AF-59E42F8B7560}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3889,6 +3870,737 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="de-DE"/>
+              <a:t>Map 12</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Overview!$AL$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>n flights</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="de-DE"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Overview!$A$3:$A$10</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Overview!$A$3:$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>2152f803a27a62702af5bb825ad53e80ca00f50f</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>66bda0c6a0d2ad2b7f42de937a92b15cfd52cd35</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Overview!$AL$3:$AL$32</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Overview!$AL$3:$AL$4</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>554</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>445</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-1959-4C99-BAE8-13976422FB64}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Overview!$AM$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Alg. time in ms</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="de-DE"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Overview!$A$3:$A$10</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Overview!$A$3:$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>2152f803a27a62702af5bb825ad53e80ca00f50f</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>66bda0c6a0d2ad2b7f42de937a92b15cfd52cd35</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Overview!$AM$3:$AM$31</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Overview!$AM$3:$AM$4</c:f>
+              <c:numCache>
+                <c:formatCode>0" ms"</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>53316</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>54555</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-1959-4C99-BAE8-13976422FB64}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Overview!$AN$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Exec. time in ms</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="de-DE"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Overview!$A$3:$A$10</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Overview!$A$3:$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>2152f803a27a62702af5bb825ad53e80ca00f50f</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>66bda0c6a0d2ad2b7f42de937a92b15cfd52cd35</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Overview!$AN$3:$AN$32</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Overview!$AN$3:$AN$4</c:f>
+              <c:numCache>
+                <c:formatCode>0" ms"</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>133935</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>74315</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-1959-4C99-BAE8-13976422FB64}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="t"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="767735536"/>
+        <c:axId val="766388112"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="767735536"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="766388112"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="766388112"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:numFmt formatCode="0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="767735536"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="de-DE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart15.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="de-DE"/>
               <a:t>Map 13</a:t>
             </a:r>
           </a:p>
@@ -4041,7 +4753,7 @@
                   <c:v>2152f803a27a62702af5bb825ad53e80ca00f50f</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>aaabbbccc</c:v>
+                  <c:v>66bda0c6a0d2ad2b7f42de937a92b15cfd52cd35</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4063,7 +4775,7 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4187,7 +4899,7 @@
                   <c:v>2152f803a27a62702af5bb825ad53e80ca00f50f</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>aaabbbccc</c:v>
+                  <c:v>66bda0c6a0d2ad2b7f42de937a92b15cfd52cd35</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4209,7 +4921,7 @@
                   <c:v>1331901</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>1460649</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4333,7 +5045,7 @@
                   <c:v>2152f803a27a62702af5bb825ad53e80ca00f50f</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>aaabbbccc</c:v>
+                  <c:v>66bda0c6a0d2ad2b7f42de937a92b15cfd52cd35</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4355,7 +5067,7 @@
                   <c:v>1454536</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>1500782</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4620,7 +5332,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="de-DE"/>
-              <a:t>Map 1</a:t>
+              <a:t>Map 0</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -4665,7 +5377,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Overview!$E$2</c:f>
+              <c:f>Overview!$B$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4772,7 +5484,7 @@
                   <c:v>2152f803a27a62702af5bb825ad53e80ca00f50f</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>aaabbbccc</c:v>
+                  <c:v>66bda0c6a0d2ad2b7f42de937a92b15cfd52cd35</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4782,19 +5494,19 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>Overview!$E$3:$E$32</c15:sqref>
+                    <c15:sqref>Overview!$B$3:$B$32</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>Overview!$E$3:$E$4</c:f>
+              <c:f>Overview!$B$3:$B$4</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4802,7 +5514,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-03F6-43FA-93C1-442CF1A69B7B}"/>
+              <c16:uniqueId val="{00000000-CF5A-4CA4-A742-3CC05ED41378}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4811,7 +5523,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Overview!$F$2</c:f>
+              <c:f>Overview!$C$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4918,7 +5630,7 @@
                   <c:v>2152f803a27a62702af5bb825ad53e80ca00f50f</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>aaabbbccc</c:v>
+                  <c:v>66bda0c6a0d2ad2b7f42de937a92b15cfd52cd35</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4928,19 +5640,19 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>Overview!$F$3:$F$31</c15:sqref>
+                    <c15:sqref>Overview!$C$3:$C$31</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>Overview!$F$3:$F$4</c:f>
+              <c:f>Overview!$C$3:$C$4</c:f>
               <c:numCache>
                 <c:formatCode>0" ms"</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4948,7 +5660,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-03F6-43FA-93C1-442CF1A69B7B}"/>
+              <c16:uniqueId val="{00000001-CF5A-4CA4-A742-3CC05ED41378}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4957,7 +5669,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Overview!$G$2</c:f>
+              <c:f>Overview!$D$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -5064,7 +5776,7 @@
                   <c:v>2152f803a27a62702af5bb825ad53e80ca00f50f</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>aaabbbccc</c:v>
+                  <c:v>66bda0c6a0d2ad2b7f42de937a92b15cfd52cd35</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -5074,19 +5786,19 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>Overview!$G$3:$G$32</c15:sqref>
+                    <c15:sqref>Overview!$D$3:$D$32</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>Overview!$G$3:$G$4</c:f>
+              <c:f>Overview!$D$3:$D$4</c:f>
               <c:numCache>
                 <c:formatCode>0" ms"</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>227</c:v>
+                  <c:v>85</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>48.5</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5094,7 +5806,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-03F6-43FA-93C1-442CF1A69B7B}"/>
+              <c16:uniqueId val="{00000002-CF5A-4CA4-A742-3CC05ED41378}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5351,7 +6063,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="de-DE"/>
-              <a:t>Map 2</a:t>
+              <a:t>Map 1</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -5396,7 +6108,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Overview!$H$2</c:f>
+              <c:f>Overview!$E$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -5503,7 +6215,7 @@
                   <c:v>2152f803a27a62702af5bb825ad53e80ca00f50f</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>aaabbbccc</c:v>
+                  <c:v>66bda0c6a0d2ad2b7f42de937a92b15cfd52cd35</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -5513,19 +6225,19 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>Overview!$H$3:$H$32</c15:sqref>
+                    <c15:sqref>Overview!$E$3:$E$32</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>Overview!$H$3:$H$4</c:f>
+              <c:f>Overview!$E$3:$E$4</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>11</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5533,7 +6245,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-D4F2-4253-BBEE-E74C0A6D6165}"/>
+              <c16:uniqueId val="{00000000-03F6-43FA-93C1-442CF1A69B7B}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5542,7 +6254,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Overview!$I$2</c:f>
+              <c:f>Overview!$F$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -5649,7 +6361,7 @@
                   <c:v>2152f803a27a62702af5bb825ad53e80ca00f50f</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>aaabbbccc</c:v>
+                  <c:v>66bda0c6a0d2ad2b7f42de937a92b15cfd52cd35</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -5659,19 +6371,19 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>Overview!$I$3:$I$31</c15:sqref>
+                    <c15:sqref>Overview!$F$3:$F$31</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>Overview!$I$3:$I$4</c:f>
+              <c:f>Overview!$F$3:$F$4</c:f>
               <c:numCache>
                 <c:formatCode>0" ms"</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5679,7 +6391,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-D4F2-4253-BBEE-E74C0A6D6165}"/>
+              <c16:uniqueId val="{00000001-03F6-43FA-93C1-442CF1A69B7B}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5688,7 +6400,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Overview!$J$2</c:f>
+              <c:f>Overview!$G$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -5795,7 +6507,7 @@
                   <c:v>2152f803a27a62702af5bb825ad53e80ca00f50f</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>aaabbbccc</c:v>
+                  <c:v>66bda0c6a0d2ad2b7f42de937a92b15cfd52cd35</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -5805,19 +6517,19 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>Overview!$J$3:$J$32</c15:sqref>
+                    <c15:sqref>Overview!$G$3:$G$32</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>Overview!$J$3:$J$4</c:f>
+              <c:f>Overview!$G$3:$G$4</c:f>
               <c:numCache>
                 <c:formatCode>0" ms"</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>536</c:v>
+                  <c:v>227</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>78</c:v>
+                  <c:v>48.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5825,7 +6537,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-D4F2-4253-BBEE-E74C0A6D6165}"/>
+              <c16:uniqueId val="{00000002-03F6-43FA-93C1-442CF1A69B7B}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -6082,7 +6794,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="de-DE"/>
-              <a:t>Map 3</a:t>
+              <a:t>Map 2</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -6127,7 +6839,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Overview!$K$2</c:f>
+              <c:f>Overview!$H$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -6234,7 +6946,7 @@
                   <c:v>2152f803a27a62702af5bb825ad53e80ca00f50f</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>aaabbbccc</c:v>
+                  <c:v>66bda0c6a0d2ad2b7f42de937a92b15cfd52cd35</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -6244,19 +6956,19 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>Overview!$K$3:$K$32</c15:sqref>
+                    <c15:sqref>Overview!$H$3:$H$32</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>Overview!$K$3:$K$4</c:f>
+              <c:f>Overview!$H$3:$H$4</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>15</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>14</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6264,7 +6976,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-0FB8-4B10-942F-EEFB6EFB1963}"/>
+              <c16:uniqueId val="{00000000-D4F2-4253-BBEE-E74C0A6D6165}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -6273,7 +6985,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Overview!$L$2</c:f>
+              <c:f>Overview!$I$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -6380,7 +7092,7 @@
                   <c:v>2152f803a27a62702af5bb825ad53e80ca00f50f</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>aaabbbccc</c:v>
+                  <c:v>66bda0c6a0d2ad2b7f42de937a92b15cfd52cd35</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -6390,19 +7102,19 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>Overview!$L$3:$L$31</c15:sqref>
+                    <c15:sqref>Overview!$I$3:$I$31</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>Overview!$L$3:$L$4</c:f>
+              <c:f>Overview!$I$3:$I$4</c:f>
               <c:numCache>
                 <c:formatCode>0" ms"</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>2</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6410,7 +7122,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-0FB8-4B10-942F-EEFB6EFB1963}"/>
+              <c16:uniqueId val="{00000001-D4F2-4253-BBEE-E74C0A6D6165}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -6419,7 +7131,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Overview!$M$2</c:f>
+              <c:f>Overview!$J$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -6526,7 +7238,7 @@
                   <c:v>2152f803a27a62702af5bb825ad53e80ca00f50f</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>aaabbbccc</c:v>
+                  <c:v>66bda0c6a0d2ad2b7f42de937a92b15cfd52cd35</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -6536,19 +7248,19 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>Overview!$M$3:$M$32</c15:sqref>
+                    <c15:sqref>Overview!$J$3:$J$32</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>Overview!$M$3:$M$4</c:f>
+              <c:f>Overview!$J$3:$J$4</c:f>
               <c:numCache>
                 <c:formatCode>0" ms"</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>1244.5</c:v>
+                  <c:v>536</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>217</c:v>
+                  <c:v>78</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6556,7 +7268,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-0FB8-4B10-942F-EEFB6EFB1963}"/>
+              <c16:uniqueId val="{00000002-D4F2-4253-BBEE-E74C0A6D6165}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -6813,7 +7525,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="de-DE"/>
-              <a:t>Map 4</a:t>
+              <a:t>Map 3</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -6858,7 +7570,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Overview!$N$2</c:f>
+              <c:f>Overview!$K$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -6965,7 +7677,7 @@
                   <c:v>2152f803a27a62702af5bb825ad53e80ca00f50f</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>aaabbbccc</c:v>
+                  <c:v>66bda0c6a0d2ad2b7f42de937a92b15cfd52cd35</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -6975,19 +7687,19 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>Overview!$N$3:$N$32</c15:sqref>
+                    <c15:sqref>Overview!$K$3:$K$32</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>Overview!$N$3:$N$4</c:f>
+              <c:f>Overview!$K$3:$K$4</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>13</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>13</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6995,7 +7707,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-8F29-4C78-8302-98296D0C40C8}"/>
+              <c16:uniqueId val="{00000000-0FB8-4B10-942F-EEFB6EFB1963}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -7004,7 +7716,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Overview!$O$2</c:f>
+              <c:f>Overview!$L$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -7111,7 +7823,7 @@
                   <c:v>2152f803a27a62702af5bb825ad53e80ca00f50f</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>aaabbbccc</c:v>
+                  <c:v>66bda0c6a0d2ad2b7f42de937a92b15cfd52cd35</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -7121,19 +7833,19 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>Overview!$O$3:$O$31</c15:sqref>
+                    <c15:sqref>Overview!$L$3:$L$31</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>Overview!$O$3:$O$4</c:f>
+              <c:f>Overview!$L$3:$L$4</c:f>
               <c:numCache>
                 <c:formatCode>0" ms"</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7141,7 +7853,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-8F29-4C78-8302-98296D0C40C8}"/>
+              <c16:uniqueId val="{00000001-0FB8-4B10-942F-EEFB6EFB1963}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -7150,7 +7862,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Overview!$P$2</c:f>
+              <c:f>Overview!$M$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -7257,7 +7969,7 @@
                   <c:v>2152f803a27a62702af5bb825ad53e80ca00f50f</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>aaabbbccc</c:v>
+                  <c:v>66bda0c6a0d2ad2b7f42de937a92b15cfd52cd35</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -7267,19 +7979,19 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>Overview!$P$3:$P$32</c15:sqref>
+                    <c15:sqref>Overview!$M$3:$M$32</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>Overview!$P$3:$P$4</c:f>
+              <c:f>Overview!$M$3:$M$4</c:f>
               <c:numCache>
                 <c:formatCode>0" ms"</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>385.5</c:v>
+                  <c:v>1244.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>78</c:v>
+                  <c:v>217</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7287,7 +7999,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-8F29-4C78-8302-98296D0C40C8}"/>
+              <c16:uniqueId val="{00000002-0FB8-4B10-942F-EEFB6EFB1963}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -7544,7 +8256,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="de-DE"/>
-              <a:t>Map 5</a:t>
+              <a:t>Map 4</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -7589,7 +8301,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Overview!$Q$2</c:f>
+              <c:f>Overview!$N$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -7696,7 +8408,7 @@
                   <c:v>2152f803a27a62702af5bb825ad53e80ca00f50f</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>aaabbbccc</c:v>
+                  <c:v>66bda0c6a0d2ad2b7f42de937a92b15cfd52cd35</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -7706,19 +8418,19 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>Overview!$Q$3:$Q$32</c15:sqref>
+                    <c15:sqref>Overview!$N$3:$N$32</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>Overview!$Q$3:$Q$4</c:f>
+              <c:f>Overview!$N$3:$N$4</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>107</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>107</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7726,7 +8438,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-A66F-4607-9D74-654E4DFEBA1E}"/>
+              <c16:uniqueId val="{00000000-8F29-4C78-8302-98296D0C40C8}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -7735,7 +8447,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Overview!$R$2</c:f>
+              <c:f>Overview!$O$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -7842,7 +8554,7 @@
                   <c:v>2152f803a27a62702af5bb825ad53e80ca00f50f</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>aaabbbccc</c:v>
+                  <c:v>66bda0c6a0d2ad2b7f42de937a92b15cfd52cd35</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -7852,19 +8564,19 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>Overview!$R$3:$R$31</c15:sqref>
+                    <c15:sqref>Overview!$O$3:$O$31</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>Overview!$R$3:$R$4</c:f>
+              <c:f>Overview!$O$3:$O$4</c:f>
               <c:numCache>
                 <c:formatCode>0" ms"</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>24</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7872,7 +8584,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-A66F-4607-9D74-654E4DFEBA1E}"/>
+              <c16:uniqueId val="{00000001-8F29-4C78-8302-98296D0C40C8}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -7881,7 +8593,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Overview!$S$2</c:f>
+              <c:f>Overview!$P$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -7988,7 +8700,7 @@
                   <c:v>2152f803a27a62702af5bb825ad53e80ca00f50f</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>aaabbbccc</c:v>
+                  <c:v>66bda0c6a0d2ad2b7f42de937a92b15cfd52cd35</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -7998,19 +8710,19 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>Overview!$S$3:$S$32</c15:sqref>
+                    <c15:sqref>Overview!$P$3:$P$32</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>Overview!$S$3:$S$4</c:f>
+              <c:f>Overview!$P$3:$P$4</c:f>
               <c:numCache>
                 <c:formatCode>0" ms"</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>5541</c:v>
+                  <c:v>385.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1085</c:v>
+                  <c:v>78</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8018,7 +8730,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-A66F-4607-9D74-654E4DFEBA1E}"/>
+              <c16:uniqueId val="{00000002-8F29-4C78-8302-98296D0C40C8}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -8275,7 +8987,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="de-DE"/>
-              <a:t>Map 6</a:t>
+              <a:t>Map 5</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -8320,7 +9032,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Overview!$T$2</c:f>
+              <c:f>Overview!$Q$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -8427,7 +9139,7 @@
                   <c:v>2152f803a27a62702af5bb825ad53e80ca00f50f</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>aaabbbccc</c:v>
+                  <c:v>66bda0c6a0d2ad2b7f42de937a92b15cfd52cd35</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -8437,19 +9149,19 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>Overview!$T$3:$T$32</c15:sqref>
+                    <c15:sqref>Overview!$Q$3:$Q$32</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>Overview!$T$3:$T$4</c:f>
+              <c:f>Overview!$Q$3:$Q$4</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>23</c:v>
+                  <c:v>107</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>20</c:v>
+                  <c:v>107</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8457,7 +9169,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-824E-44B7-80E3-C4E99EBA785C}"/>
+              <c16:uniqueId val="{00000000-A66F-4607-9D74-654E4DFEBA1E}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -8466,7 +9178,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Overview!$U$2</c:f>
+              <c:f>Overview!$R$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -8573,7 +9285,7 @@
                   <c:v>2152f803a27a62702af5bb825ad53e80ca00f50f</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>aaabbbccc</c:v>
+                  <c:v>66bda0c6a0d2ad2b7f42de937a92b15cfd52cd35</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -8583,19 +9295,19 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>Overview!$U$3:$U$31</c15:sqref>
+                    <c15:sqref>Overview!$R$3:$R$31</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>Overview!$U$3:$U$4</c:f>
+              <c:f>Overview!$R$3:$R$4</c:f>
               <c:numCache>
                 <c:formatCode>0" ms"</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8603,7 +9315,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-824E-44B7-80E3-C4E99EBA785C}"/>
+              <c16:uniqueId val="{00000001-A66F-4607-9D74-654E4DFEBA1E}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -8612,7 +9324,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Overview!$V$2</c:f>
+              <c:f>Overview!$S$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -8719,7 +9431,7 @@
                   <c:v>2152f803a27a62702af5bb825ad53e80ca00f50f</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>aaabbbccc</c:v>
+                  <c:v>66bda0c6a0d2ad2b7f42de937a92b15cfd52cd35</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -8729,19 +9441,19 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>Overview!$V$3:$V$32</c15:sqref>
+                    <c15:sqref>Overview!$S$3:$S$32</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>Overview!$V$3:$V$4</c:f>
+              <c:f>Overview!$S$3:$S$4</c:f>
               <c:numCache>
                 <c:formatCode>0" ms"</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>1219.5</c:v>
+                  <c:v>5541</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>204</c:v>
+                  <c:v>1085</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8749,7 +9461,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-824E-44B7-80E3-C4E99EBA785C}"/>
+              <c16:uniqueId val="{00000002-A66F-4607-9D74-654E4DFEBA1E}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -9006,7 +9718,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="de-DE"/>
-              <a:t>Map 7</a:t>
+              <a:t>Map 6</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -9051,7 +9763,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Overview!$W$2</c:f>
+              <c:f>Overview!$T$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -9158,7 +9870,7 @@
                   <c:v>2152f803a27a62702af5bb825ad53e80ca00f50f</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>aaabbbccc</c:v>
+                  <c:v>66bda0c6a0d2ad2b7f42de937a92b15cfd52cd35</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -9168,19 +9880,19 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>Overview!$W$3:$W$32</c15:sqref>
+                    <c15:sqref>Overview!$T$3:$T$32</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>Overview!$W$3:$W$4</c:f>
+              <c:f>Overview!$T$3:$T$4</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>55</c:v>
+                  <c:v>23</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>49</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9188,7 +9900,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-AFF8-4616-AA12-737454704309}"/>
+              <c16:uniqueId val="{00000000-824E-44B7-80E3-C4E99EBA785C}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -9197,7 +9909,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Overview!$X$2</c:f>
+              <c:f>Overview!$U$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -9304,7 +10016,7 @@
                   <c:v>2152f803a27a62702af5bb825ad53e80ca00f50f</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>aaabbbccc</c:v>
+                  <c:v>66bda0c6a0d2ad2b7f42de937a92b15cfd52cd35</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -9314,19 +10026,19 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>Overview!$X$3:$X$31</c15:sqref>
+                    <c15:sqref>Overview!$U$3:$U$31</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>Overview!$X$3:$X$4</c:f>
+              <c:f>Overview!$U$3:$U$4</c:f>
               <c:numCache>
                 <c:formatCode>0" ms"</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>0.5</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9334,7 +10046,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-AFF8-4616-AA12-737454704309}"/>
+              <c16:uniqueId val="{00000001-824E-44B7-80E3-C4E99EBA785C}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -9343,7 +10055,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Overview!$Y$2</c:f>
+              <c:f>Overview!$V$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -9450,7 +10162,7 @@
                   <c:v>2152f803a27a62702af5bb825ad53e80ca00f50f</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>aaabbbccc</c:v>
+                  <c:v>66bda0c6a0d2ad2b7f42de937a92b15cfd52cd35</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -9460,19 +10172,19 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>Overview!$Y$3:$Y$32</c15:sqref>
+                    <c15:sqref>Overview!$V$3:$V$32</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>Overview!$Y$3:$Y$4</c:f>
+              <c:f>Overview!$V$3:$V$4</c:f>
               <c:numCache>
                 <c:formatCode>0" ms"</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>2394</c:v>
+                  <c:v>1219.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>408.5</c:v>
+                  <c:v>204</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9480,7 +10192,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-AFF8-4616-AA12-737454704309}"/>
+              <c16:uniqueId val="{00000002-824E-44B7-80E3-C4E99EBA785C}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -9737,7 +10449,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="de-DE"/>
-              <a:t>Map 8</a:t>
+              <a:t>Map 7</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -9782,7 +10494,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Overview!$Z$2</c:f>
+              <c:f>Overview!$W$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -9889,7 +10601,7 @@
                   <c:v>2152f803a27a62702af5bb825ad53e80ca00f50f</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>aaabbbccc</c:v>
+                  <c:v>66bda0c6a0d2ad2b7f42de937a92b15cfd52cd35</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -9899,19 +10611,19 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>Overview!$Z$3:$Z$32</c15:sqref>
+                    <c15:sqref>Overview!$W$3:$W$32</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>Overview!$Z$3:$Z$4</c:f>
+              <c:f>Overview!$W$3:$W$4</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>568</c:v>
+                  <c:v>55</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>481</c:v>
+                  <c:v>49</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9919,7 +10631,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-1310-4747-A5D1-3A1356607B30}"/>
+              <c16:uniqueId val="{00000000-AFF8-4616-AA12-737454704309}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -9928,7 +10640,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Overview!$AA$2</c:f>
+              <c:f>Overview!$X$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -10035,7 +10747,7 @@
                   <c:v>2152f803a27a62702af5bb825ad53e80ca00f50f</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>aaabbbccc</c:v>
+                  <c:v>66bda0c6a0d2ad2b7f42de937a92b15cfd52cd35</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -10045,19 +10757,19 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>Overview!$AA$3:$AA$31</c15:sqref>
+                    <c15:sqref>Overview!$X$3:$X$31</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>Overview!$AA$3:$AA$4</c:f>
+              <c:f>Overview!$X$3:$X$4</c:f>
               <c:numCache>
                 <c:formatCode>0" ms"</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>1394</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>368</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10065,7 +10777,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-1310-4747-A5D1-3A1356607B30}"/>
+              <c16:uniqueId val="{00000001-AFF8-4616-AA12-737454704309}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -10074,7 +10786,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Overview!$AB$2</c:f>
+              <c:f>Overview!$Y$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -10181,7 +10893,7 @@
                   <c:v>2152f803a27a62702af5bb825ad53e80ca00f50f</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>aaabbbccc</c:v>
+                  <c:v>66bda0c6a0d2ad2b7f42de937a92b15cfd52cd35</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -10191,19 +10903,19 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>Overview!$AB$3:$AB$32</c15:sqref>
+                    <c15:sqref>Overview!$Y$3:$Y$32</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>Overview!$AB$3:$AB$4</c:f>
+              <c:f>Overview!$Y$3:$Y$4</c:f>
               <c:numCache>
                 <c:formatCode>0" ms"</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>31900.5</c:v>
+                  <c:v>2394</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5437.5</c:v>
+                  <c:v>408.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10211,7 +10923,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-1310-4747-A5D1-3A1356607B30}"/>
+              <c16:uniqueId val="{00000002-AFF8-4616-AA12-737454704309}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -10673,6 +11385,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors15.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -14011,7 +14763,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style15.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -14514,7 +15266,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -15017,7 +15769,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -15520,7 +16272,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -16023,7 +16775,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -16526,7 +17278,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -17029,7 +17781,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -17532,7 +18284,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -18035,7 +18787,553 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style9.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Diagramm 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{56A28681-F576-46CF-8945-62DE5A5CE45A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -18152,7 +19450,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -18271,7 +19569,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -18390,7 +19688,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -18509,7 +19807,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -18889,8 +20187,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17EE636D-E62A-409B-8683-80E992881F33}">
   <dimension ref="A1:AQ38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AD1" workbookViewId="0">
-      <selection activeCell="AQ8" sqref="AQ8"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19148,7 +20446,7 @@
         <v>1</v>
       </c>
       <c r="F3" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G3" s="7">
         <v>236</v>
@@ -19157,7 +20455,7 @@
         <v>11</v>
       </c>
       <c r="I3" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J3" s="7">
         <v>536</v>
@@ -19229,19 +20527,19 @@
         <v>58</v>
       </c>
       <c r="AG3" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH3" s="7">
         <v>1736</v>
       </c>
       <c r="AI3" s="8">
-        <v>0</v>
+        <v>999999999</v>
       </c>
       <c r="AJ3" s="7">
-        <v>0</v>
+        <v>999999999</v>
       </c>
       <c r="AK3" s="7">
-        <v>0</v>
+        <v>999999999</v>
       </c>
       <c r="AL3" s="8">
         <v>554</v>
@@ -19268,7 +20566,7 @@
         <v>6</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D4" s="7">
         <v>85</v>
@@ -19277,7 +20575,7 @@
         <v>1</v>
       </c>
       <c r="F4" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G4" s="7">
         <v>216</v>
@@ -19286,7 +20584,7 @@
         <v>11</v>
       </c>
       <c r="I4" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J4" s="7">
         <v>536</v>
@@ -19304,7 +20602,7 @@
         <v>13</v>
       </c>
       <c r="O4" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P4" s="7">
         <v>383</v>
@@ -19322,7 +20620,7 @@
         <v>23</v>
       </c>
       <c r="U4" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V4" s="7">
         <v>1221</v>
@@ -19331,7 +20629,7 @@
         <v>55</v>
       </c>
       <c r="X4" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y4" s="7">
         <v>2403</v>
@@ -19358,7 +20656,7 @@
         <v>58</v>
       </c>
       <c r="AG4" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH4" s="7">
         <v>1752</v>
@@ -19385,7 +20683,7 @@
         <v>6</v>
       </c>
       <c r="C5" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D5" s="7">
         <v>85</v>
@@ -19394,7 +20692,7 @@
         <v>1</v>
       </c>
       <c r="F5" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G5" s="7">
         <v>235</v>
@@ -19403,7 +20701,7 @@
         <v>11</v>
       </c>
       <c r="I5" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J5" s="7">
         <v>536</v>
@@ -19421,7 +20719,7 @@
         <v>13</v>
       </c>
       <c r="O5" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P5" s="7">
         <v>402</v>
@@ -19439,7 +20737,7 @@
         <v>23</v>
       </c>
       <c r="U5" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V5" s="7">
         <v>1237</v>
@@ -19448,7 +20746,7 @@
         <v>55</v>
       </c>
       <c r="X5" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y5" s="7">
         <v>2402</v>
@@ -19475,7 +20773,7 @@
         <v>58</v>
       </c>
       <c r="AG5" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH5" s="7">
         <v>1736</v>
@@ -19502,7 +20800,7 @@
         <v>6</v>
       </c>
       <c r="C6" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D6" s="7">
         <v>84</v>
@@ -19511,7 +20809,7 @@
         <v>1</v>
       </c>
       <c r="F6" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G6" s="7">
         <v>219</v>
@@ -19520,7 +20818,7 @@
         <v>11</v>
       </c>
       <c r="I6" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J6" s="7">
         <v>552</v>
@@ -19538,7 +20836,7 @@
         <v>13</v>
       </c>
       <c r="O6" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P6" s="7">
         <v>385</v>
@@ -19556,7 +20854,7 @@
         <v>23</v>
       </c>
       <c r="U6" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V6" s="7">
         <v>1218</v>
@@ -19592,7 +20890,7 @@
         <v>58</v>
       </c>
       <c r="AG6" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH6" s="7">
         <v>1751</v>
@@ -19615,13 +20913,13 @@
     </row>
     <row r="7" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B7" s="8">
         <v>3</v>
       </c>
       <c r="C7" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D7" s="7">
         <v>7</v>
@@ -19630,7 +20928,7 @@
         <v>1</v>
       </c>
       <c r="F7" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G7" s="7">
         <v>39</v>
@@ -19639,7 +20937,7 @@
         <v>7</v>
       </c>
       <c r="I7" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J7" s="7">
         <v>78</v>
@@ -19648,7 +20946,7 @@
         <v>14</v>
       </c>
       <c r="L7" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M7" s="7">
         <v>224</v>
@@ -19657,7 +20955,7 @@
         <v>13</v>
       </c>
       <c r="O7" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P7" s="7">
         <v>75</v>
@@ -19675,7 +20973,7 @@
         <v>20</v>
       </c>
       <c r="U7" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V7" s="7">
         <v>204</v>
@@ -19684,7 +20982,7 @@
         <v>49</v>
       </c>
       <c r="X7" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y7" s="7">
         <v>413</v>
@@ -19711,19 +21009,19 @@
         <v>58</v>
       </c>
       <c r="AG7" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH7" s="7">
         <v>336</v>
       </c>
       <c r="AI7" s="8">
-        <v>0</v>
+        <v>999999999</v>
       </c>
       <c r="AJ7" s="7">
-        <v>0</v>
+        <v>999999999</v>
       </c>
       <c r="AK7" s="7">
-        <v>0</v>
+        <v>999999999</v>
       </c>
       <c r="AL7" s="8">
         <v>445</v>
@@ -19735,13 +21033,13 @@
         <v>75419</v>
       </c>
       <c r="AO7" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP7" s="7">
-        <v>0</v>
+        <v>1460649</v>
       </c>
       <c r="AQ7" s="7">
-        <v>0</v>
+        <v>1500782</v>
       </c>
     </row>
     <row r="8" spans="1:43" x14ac:dyDescent="0.25">
@@ -19750,7 +21048,7 @@
         <v>3</v>
       </c>
       <c r="C8" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D8" s="7">
         <v>7</v>
@@ -19759,7 +21057,7 @@
         <v>1</v>
       </c>
       <c r="F8" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G8" s="7">
         <v>52</v>
@@ -19768,7 +21066,7 @@
         <v>7</v>
       </c>
       <c r="I8" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J8" s="7">
         <v>77</v>
@@ -19777,7 +21075,7 @@
         <v>14</v>
       </c>
       <c r="L8" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M8" s="7">
         <v>217</v>
@@ -19786,7 +21084,7 @@
         <v>13</v>
       </c>
       <c r="O8" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P8" s="7">
         <v>78</v>
@@ -19804,7 +21102,7 @@
         <v>20</v>
       </c>
       <c r="U8" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V8" s="7">
         <v>210</v>
@@ -19813,7 +21111,7 @@
         <v>49</v>
       </c>
       <c r="X8" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y8" s="7">
         <v>408</v>
@@ -19831,7 +21129,7 @@
         <v>261</v>
       </c>
       <c r="AD8" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE8" s="7">
         <v>1980</v>
@@ -19840,7 +21138,7 @@
         <v>58</v>
       </c>
       <c r="AG8" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH8" s="7">
         <v>337</v>
@@ -19867,7 +21165,7 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D9" s="7">
         <v>20</v>
@@ -19876,7 +21174,7 @@
         <v>1</v>
       </c>
       <c r="F9" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G9" s="7">
         <v>48</v>
@@ -19885,7 +21183,7 @@
         <v>7</v>
       </c>
       <c r="I9" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J9" s="7">
         <v>78</v>
@@ -19894,7 +21192,7 @@
         <v>14</v>
       </c>
       <c r="L9" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M9" s="7">
         <v>217</v>
@@ -19903,7 +21201,7 @@
         <v>13</v>
       </c>
       <c r="O9" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P9" s="7">
         <v>78</v>
@@ -19921,7 +21219,7 @@
         <v>20</v>
       </c>
       <c r="U9" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V9" s="7">
         <v>204</v>
@@ -19930,7 +21228,7 @@
         <v>49</v>
       </c>
       <c r="X9" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y9" s="7">
         <v>407</v>
@@ -19957,7 +21255,7 @@
         <v>58</v>
       </c>
       <c r="AG9" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH9" s="7">
         <v>337</v>
@@ -19984,7 +21282,7 @@
         <v>3</v>
       </c>
       <c r="C10" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D10" s="7">
         <v>6</v>
@@ -19993,7 +21291,7 @@
         <v>1</v>
       </c>
       <c r="F10" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G10" s="7">
         <v>49</v>
@@ -20002,7 +21300,7 @@
         <v>7</v>
       </c>
       <c r="I10" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J10" s="7">
         <v>78</v>
@@ -20011,7 +21309,7 @@
         <v>14</v>
       </c>
       <c r="L10" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M10" s="7">
         <v>217</v>
@@ -20020,7 +21318,7 @@
         <v>13</v>
       </c>
       <c r="O10" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P10" s="7">
         <v>81</v>
@@ -20038,7 +21336,7 @@
         <v>20</v>
       </c>
       <c r="U10" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V10" s="7">
         <v>204</v>
@@ -20047,7 +21345,7 @@
         <v>49</v>
       </c>
       <c r="X10" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y10" s="7">
         <v>409</v>
@@ -20074,7 +21372,7 @@
         <v>58</v>
       </c>
       <c r="AG10" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH10" s="7">
         <v>336</v>
@@ -20484,7 +21782,7 @@
   <dimension ref="A1:AQ38"/>
   <sheetViews>
     <sheetView topLeftCell="AB1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="AH24" sqref="AH24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20736,7 +22034,7 @@
       </c>
       <c r="C3" s="7">
         <f>MEDIAN(Values!C3:C6)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D3" s="7">
         <f>MEDIAN(Values!D3:D6)</f>
@@ -20748,7 +22046,7 @@
       </c>
       <c r="F3" s="7">
         <f>MEDIAN(Values!F3:F6)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G3" s="7">
         <f>MEDIAN(Values!G3:G6)</f>
@@ -20760,7 +22058,7 @@
       </c>
       <c r="I3" s="7">
         <f>MEDIAN(Values!I3:I6)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J3" s="7">
         <f>MEDIAN(Values!J3:J6)</f>
@@ -20784,7 +22082,7 @@
       </c>
       <c r="O3" s="7">
         <f>MEDIAN(Values!O3:O6)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P3" s="7">
         <f>MEDIAN(Values!P3:P6)</f>
@@ -20808,7 +22106,7 @@
       </c>
       <c r="U3" s="7">
         <f>MEDIAN(Values!U3:U6)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V3" s="7">
         <f>MEDIAN(Values!V3:V6)</f>
@@ -20820,7 +22118,7 @@
       </c>
       <c r="X3" s="7">
         <f>MEDIAN(Values!X3:X6)</f>
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="Y3" s="7">
         <f>MEDIAN(Values!Y3:Y6)</f>
@@ -20856,7 +22154,7 @@
       </c>
       <c r="AG3" s="7">
         <f>MEDIAN(Values!AG3:AG6)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH3" s="7">
         <f>MEDIAN(Values!AH3:AH6)</f>
@@ -20864,15 +22162,15 @@
       </c>
       <c r="AI3" s="8">
         <f>MEDIAN(Values!AI3:AI6)</f>
-        <v>0</v>
+        <v>999999999</v>
       </c>
       <c r="AJ3" s="7">
         <f>MEDIAN(Values!AJ3:AJ6)</f>
-        <v>0</v>
+        <v>999999999</v>
       </c>
       <c r="AK3" s="7">
         <f>MEDIAN(Values!AK3:AK6)</f>
-        <v>0</v>
+        <v>999999999</v>
       </c>
       <c r="AL3" s="8">
         <f>MEDIAN(Values!AL3:AL6)</f>
@@ -20902,7 +22200,7 @@
     <row r="4" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="str">
         <f>Values!A7</f>
-        <v>aaabbbccc</v>
+        <v>66bda0c6a0d2ad2b7f42de937a92b15cfd52cd35</v>
       </c>
       <c r="B4" s="8">
         <f>MEDIAN(Values!B7:B10)</f>
@@ -20910,7 +22208,7 @@
       </c>
       <c r="C4" s="7">
         <f>MEDIAN(Values!C7:C10)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D4" s="7">
         <f>MEDIAN(Values!D7:D10)</f>
@@ -20922,7 +22220,7 @@
       </c>
       <c r="F4" s="7">
         <f>MEDIAN(Values!F7:F10)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G4" s="7">
         <f>MEDIAN(Values!G7:G10)</f>
@@ -20934,7 +22232,7 @@
       </c>
       <c r="I4" s="7">
         <f>MEDIAN(Values!I7:I10)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J4" s="7">
         <f>MEDIAN(Values!J7:J10)</f>
@@ -20946,7 +22244,7 @@
       </c>
       <c r="L4" s="7">
         <f>MEDIAN(Values!L7:L10)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M4" s="7">
         <f>MEDIAN(Values!M7:M10)</f>
@@ -20958,7 +22256,7 @@
       </c>
       <c r="O4" s="7">
         <f>MEDIAN(Values!O7:O10)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P4" s="7">
         <f>MEDIAN(Values!P7:P10)</f>
@@ -20982,7 +22280,7 @@
       </c>
       <c r="U4" s="7">
         <f>MEDIAN(Values!U7:U10)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V4" s="7">
         <f>MEDIAN(Values!V7:V10)</f>
@@ -20994,7 +22292,7 @@
       </c>
       <c r="X4" s="7">
         <f>MEDIAN(Values!X7:X10)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y4" s="7">
         <f>MEDIAN(Values!Y7:Y10)</f>
@@ -21030,7 +22328,7 @@
       </c>
       <c r="AG4" s="7">
         <f>MEDIAN(Values!AG7:AG10)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH4" s="7">
         <f>MEDIAN(Values!AH7:AH10)</f>
@@ -21038,15 +22336,15 @@
       </c>
       <c r="AI4" s="8">
         <f>MEDIAN(Values!AI7:AI10)</f>
-        <v>0</v>
+        <v>999999999</v>
       </c>
       <c r="AJ4" s="7">
         <f>MEDIAN(Values!AJ7:AJ10)</f>
-        <v>0</v>
+        <v>999999999</v>
       </c>
       <c r="AK4" s="7">
         <f>MEDIAN(Values!AK7:AK10)</f>
-        <v>0</v>
+        <v>999999999</v>
       </c>
       <c r="AL4" s="8">
         <f>MEDIAN(Values!AL7:AL10)</f>
@@ -21062,15 +22360,15 @@
       </c>
       <c r="AO4" s="8">
         <f>MEDIAN(Values!AO7:AO10)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP4" s="7">
         <f>MEDIAN(Values!AP7:AP10)</f>
-        <v>0</v>
+        <v>1460649</v>
       </c>
       <c r="AQ4" s="7">
         <f>MEDIAN(Values!AQ7:AQ10)</f>
-        <v>0</v>
+        <v>1500782</v>
       </c>
     </row>
     <row r="5" spans="1:43" x14ac:dyDescent="0.25">
@@ -21605,6 +22903,713 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C07D2923-A854-4D86-98DD-707309F6D694}">
+  <dimension ref="A1:AQ38"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="28.5703125" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" customWidth="1"/>
+    <col min="3" max="4" width="15.7109375" customWidth="1"/>
+    <col min="6" max="6" width="14.28515625" customWidth="1"/>
+    <col min="7" max="7" width="17.140625" customWidth="1"/>
+    <col min="9" max="9" width="14.28515625" customWidth="1"/>
+    <col min="10" max="10" width="17.140625" customWidth="1"/>
+    <col min="12" max="12" width="14.28515625" customWidth="1"/>
+    <col min="13" max="13" width="17.140625" customWidth="1"/>
+    <col min="15" max="15" width="14.28515625" customWidth="1"/>
+    <col min="16" max="16" width="17.140625" customWidth="1"/>
+    <col min="18" max="18" width="14.28515625" customWidth="1"/>
+    <col min="19" max="19" width="17.140625" customWidth="1"/>
+    <col min="21" max="21" width="14.28515625" customWidth="1"/>
+    <col min="22" max="22" width="17.140625" customWidth="1"/>
+    <col min="24" max="24" width="14.28515625" customWidth="1"/>
+    <col min="25" max="25" width="17.140625" customWidth="1"/>
+    <col min="27" max="27" width="14.28515625" customWidth="1"/>
+    <col min="28" max="28" width="17.140625" customWidth="1"/>
+    <col min="30" max="30" width="14.28515625" customWidth="1"/>
+    <col min="31" max="31" width="17.140625" customWidth="1"/>
+    <col min="33" max="33" width="14.28515625" customWidth="1"/>
+    <col min="34" max="34" width="17.140625" customWidth="1"/>
+    <col min="35" max="35" width="11.42578125" customWidth="1"/>
+    <col min="36" max="36" width="14.28515625" customWidth="1"/>
+    <col min="37" max="37" width="17.140625" customWidth="1"/>
+    <col min="39" max="39" width="14.28515625" customWidth="1"/>
+    <col min="40" max="40" width="17.140625" customWidth="1"/>
+    <col min="42" max="42" width="14.28515625" customWidth="1"/>
+    <col min="43" max="43" width="15.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:43" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+    </row>
+    <row r="2" spans="1:43" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="6"/>
+      <c r="B2" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:43" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="9" t="str">
+        <f>Values!A3</f>
+        <v>2152f803a27a62702af5bb825ad53e80ca00f50f</v>
+      </c>
+      <c r="B3" s="12">
+        <v>1</v>
+      </c>
+      <c r="C3" s="12">
+        <v>1</v>
+      </c>
+      <c r="D3" s="12">
+        <v>1</v>
+      </c>
+      <c r="E3" s="8"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="8"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="7"/>
+      <c r="K3" s="8"/>
+      <c r="L3" s="7"/>
+      <c r="M3" s="7"/>
+      <c r="N3" s="8"/>
+      <c r="O3" s="7"/>
+      <c r="P3" s="7"/>
+      <c r="Q3" s="8"/>
+      <c r="R3" s="7"/>
+      <c r="S3" s="7"/>
+      <c r="T3" s="8"/>
+      <c r="U3" s="7"/>
+      <c r="V3" s="7"/>
+      <c r="W3" s="8"/>
+      <c r="X3" s="7"/>
+      <c r="Y3" s="7"/>
+      <c r="Z3" s="8"/>
+      <c r="AA3" s="7"/>
+      <c r="AB3" s="7"/>
+      <c r="AC3" s="8"/>
+      <c r="AD3" s="7"/>
+      <c r="AE3" s="7"/>
+      <c r="AF3" s="8"/>
+      <c r="AG3" s="7"/>
+      <c r="AH3" s="7"/>
+      <c r="AI3" s="8"/>
+      <c r="AJ3" s="7"/>
+      <c r="AK3" s="7"/>
+      <c r="AL3" s="8"/>
+      <c r="AM3" s="7"/>
+      <c r="AN3" s="7"/>
+      <c r="AO3" s="8"/>
+      <c r="AP3" s="7"/>
+      <c r="AQ3" s="7"/>
+    </row>
+    <row r="4" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A4" s="9" t="str">
+        <f>Values!A7</f>
+        <v>66bda0c6a0d2ad2b7f42de937a92b15cfd52cd35</v>
+      </c>
+      <c r="B4" s="12">
+        <f>AVERAGE(Overview!B3 / Overview!B4, Overview!E3 / Overview!E4, Overview!H3 / Overview!H4, Overview!K3 / Overview!K4, Overview!N3 / Overview!N4, Overview!Q3 / Overview!Q4, Overview!T3 / Overview!T4, Overview!W3 / Overview!W4, Overview!Z3 / Overview!Z4, Overview!AC3 / Overview!AC4, Overview!AF3 / Overview!AF4, Overview!AI3 / Overview!AI4, Overview!AL3 / Overview!AL4, Overview!AO3 / Overview!AO4)</f>
+        <v>1.1672230802533485</v>
+      </c>
+      <c r="C4" s="12">
+        <f>AVERAGE(Overview!C3 / Overview!C4, Overview!F3 / Overview!F4, Overview!I3 / Overview!I4, Overview!L3 / Overview!L4, Overview!O3 / Overview!O4, Overview!R3 / Overview!R4, Overview!U3 / Overview!U4, Overview!X3 / Overview!X4, Overview!AA3 / Overview!AA4, Overview!AD3 / Overview!AD4, Overview!AG3 / Overview!AG4, Overview!AJ3 / Overview!AJ4, Overview!AM3 / Overview!AM4, Overview!AP3 / Overview!AP4)</f>
+        <v>1.923370576645318</v>
+      </c>
+      <c r="D4" s="12">
+        <f>AVERAGE(Overview!D3 / Overview!D4, Overview!G3 / Overview!G4, Overview!J3 / Overview!J4, Overview!M3 / Overview!M4, Overview!P3 / Overview!P4, Overview!S3 / Overview!S4, Overview!V3 / Overview!V4, Overview!Y3 / Overview!Y4, Overview!AB3 / Overview!AB4, Overview!AE3 / Overview!AE4, Overview!AH3 / Overview!AH4, Overview!AK3 / Overview!AK4, Overview!AN3 / Overview!AN4, Overview!AQ3 / Overview!AQ4)</f>
+        <v>5.0889629605515756</v>
+      </c>
+      <c r="E4" s="8"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="8"/>
+      <c r="I4" s="7"/>
+      <c r="J4" s="7"/>
+      <c r="K4" s="8"/>
+      <c r="L4" s="7"/>
+      <c r="M4" s="7"/>
+      <c r="N4" s="8"/>
+      <c r="O4" s="7"/>
+      <c r="P4" s="7"/>
+      <c r="Q4" s="8"/>
+      <c r="R4" s="7"/>
+      <c r="S4" s="7"/>
+      <c r="T4" s="8"/>
+      <c r="U4" s="7"/>
+      <c r="V4" s="7"/>
+      <c r="W4" s="8"/>
+      <c r="X4" s="7"/>
+      <c r="Y4" s="7"/>
+      <c r="Z4" s="8"/>
+      <c r="AA4" s="7"/>
+      <c r="AB4" s="7"/>
+      <c r="AC4" s="8"/>
+      <c r="AD4" s="7"/>
+      <c r="AE4" s="7"/>
+      <c r="AF4" s="8"/>
+      <c r="AG4" s="7"/>
+      <c r="AH4" s="7"/>
+      <c r="AI4" s="8"/>
+      <c r="AJ4" s="7"/>
+      <c r="AK4" s="7"/>
+      <c r="AL4" s="8"/>
+      <c r="AM4" s="7"/>
+      <c r="AN4" s="7"/>
+      <c r="AO4" s="8"/>
+      <c r="AP4" s="7"/>
+      <c r="AQ4" s="7"/>
+    </row>
+    <row r="5" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A5" s="4"/>
+      <c r="B5" s="12"/>
+      <c r="C5" s="12"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="7"/>
+      <c r="K5" s="8"/>
+      <c r="L5" s="7"/>
+      <c r="M5" s="7"/>
+      <c r="N5" s="8"/>
+      <c r="O5" s="7"/>
+      <c r="P5" s="7"/>
+      <c r="Q5" s="8"/>
+      <c r="R5" s="7"/>
+      <c r="S5" s="7"/>
+      <c r="T5" s="8"/>
+      <c r="U5" s="7"/>
+      <c r="V5" s="7"/>
+      <c r="W5" s="8"/>
+      <c r="X5" s="7"/>
+      <c r="Y5" s="7"/>
+      <c r="Z5" s="8"/>
+      <c r="AA5" s="7"/>
+      <c r="AB5" s="7"/>
+      <c r="AC5" s="8"/>
+      <c r="AD5" s="7"/>
+      <c r="AE5" s="7"/>
+      <c r="AF5" s="8"/>
+      <c r="AG5" s="7"/>
+      <c r="AH5" s="7"/>
+      <c r="AI5" s="8"/>
+      <c r="AJ5" s="7"/>
+      <c r="AK5" s="7"/>
+      <c r="AL5" s="8"/>
+      <c r="AM5" s="7"/>
+      <c r="AN5" s="7"/>
+      <c r="AO5" s="8"/>
+      <c r="AP5" s="7"/>
+      <c r="AQ5" s="7"/>
+    </row>
+    <row r="6" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A6" s="4"/>
+      <c r="B6" s="12"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="7"/>
+      <c r="K6" s="8"/>
+      <c r="L6" s="7"/>
+      <c r="M6" s="7"/>
+      <c r="N6" s="8"/>
+      <c r="O6" s="7"/>
+      <c r="P6" s="7"/>
+      <c r="Q6" s="8"/>
+      <c r="R6" s="7"/>
+      <c r="S6" s="7"/>
+      <c r="T6" s="8"/>
+      <c r="U6" s="7"/>
+      <c r="V6" s="7"/>
+      <c r="W6" s="8"/>
+      <c r="X6" s="7"/>
+      <c r="Y6" s="7"/>
+      <c r="Z6" s="8"/>
+      <c r="AA6" s="7"/>
+      <c r="AB6" s="7"/>
+      <c r="AC6" s="8"/>
+      <c r="AD6" s="7"/>
+      <c r="AE6" s="7"/>
+      <c r="AF6" s="8"/>
+      <c r="AG6" s="7"/>
+      <c r="AH6" s="7"/>
+      <c r="AI6" s="8"/>
+      <c r="AJ6" s="7"/>
+      <c r="AK6" s="7"/>
+      <c r="AL6" s="8"/>
+      <c r="AM6" s="7"/>
+      <c r="AN6" s="7"/>
+      <c r="AO6" s="8"/>
+      <c r="AP6" s="7"/>
+      <c r="AQ6" s="7"/>
+    </row>
+    <row r="7" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A7" s="4"/>
+      <c r="B7" s="12"/>
+      <c r="C7" s="12"/>
+      <c r="D7" s="12"/>
+    </row>
+    <row r="8" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A8" s="4"/>
+      <c r="B8" s="12"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
+      <c r="L8" s="1"/>
+      <c r="M8" s="1"/>
+      <c r="N8" s="1"/>
+      <c r="O8" s="1"/>
+    </row>
+    <row r="9" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A9" s="4"/>
+      <c r="B9" s="12"/>
+      <c r="C9" s="12"/>
+      <c r="D9" s="12"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+      <c r="M9" s="1"/>
+      <c r="N9" s="1"/>
+      <c r="O9" s="1"/>
+    </row>
+    <row r="10" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A10" s="4"/>
+      <c r="B10" s="12"/>
+      <c r="C10" s="12"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
+      <c r="L10" s="1"/>
+      <c r="M10" s="1"/>
+      <c r="N10" s="1"/>
+      <c r="O10" s="1"/>
+    </row>
+    <row r="11" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A11" s="4"/>
+      <c r="B11" s="12"/>
+      <c r="C11" s="12"/>
+      <c r="D11" s="12"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1"/>
+      <c r="L11" s="1"/>
+      <c r="M11" s="1"/>
+      <c r="N11" s="1"/>
+      <c r="O11" s="1"/>
+    </row>
+    <row r="12" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A12" s="4"/>
+      <c r="B12" s="12"/>
+      <c r="C12" s="12"/>
+      <c r="D12" s="12"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
+      <c r="L12" s="1"/>
+      <c r="M12" s="1"/>
+      <c r="N12" s="1"/>
+      <c r="O12" s="1"/>
+    </row>
+    <row r="13" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A13" s="4"/>
+      <c r="B13" s="12"/>
+      <c r="C13" s="12"/>
+      <c r="D13" s="12"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
+      <c r="L13" s="1"/>
+      <c r="M13" s="1"/>
+      <c r="N13" s="1"/>
+      <c r="O13" s="1"/>
+    </row>
+    <row r="14" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A14" s="4"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
+      <c r="L14" s="1"/>
+      <c r="M14" s="1"/>
+      <c r="N14" s="1"/>
+      <c r="O14" s="1"/>
+    </row>
+    <row r="15" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A15" s="4"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1"/>
+      <c r="L15" s="1"/>
+      <c r="M15" s="1"/>
+      <c r="N15" s="1"/>
+      <c r="O15" s="1"/>
+    </row>
+    <row r="16" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A16" s="4"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
+      <c r="K16" s="1"/>
+      <c r="L16" s="1"/>
+      <c r="M16" s="1"/>
+      <c r="N16" s="1"/>
+      <c r="O16" s="1"/>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A17" s="4"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
+      <c r="K17" s="1"/>
+      <c r="L17" s="1"/>
+      <c r="M17" s="1"/>
+      <c r="N17" s="1"/>
+      <c r="O17" s="1"/>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A18" s="4"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+      <c r="J18" s="1"/>
+      <c r="K18" s="1"/>
+      <c r="L18" s="1"/>
+      <c r="M18" s="1"/>
+      <c r="N18" s="1"/>
+      <c r="O18" s="1"/>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A19" s="4"/>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
+      <c r="J19" s="1"/>
+      <c r="K19" s="1"/>
+      <c r="L19" s="1"/>
+      <c r="M19" s="1"/>
+      <c r="N19" s="1"/>
+      <c r="O19" s="1"/>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A20" s="4"/>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1"/>
+      <c r="J20" s="1"/>
+      <c r="K20" s="1"/>
+      <c r="L20" s="1"/>
+      <c r="M20" s="1"/>
+      <c r="N20" s="1"/>
+      <c r="O20" s="1"/>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A21" s="4"/>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="1"/>
+      <c r="J21" s="1"/>
+      <c r="K21" s="1"/>
+      <c r="L21" s="1"/>
+      <c r="M21" s="1"/>
+      <c r="N21" s="1"/>
+      <c r="O21" s="1"/>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A22" s="4"/>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
+      <c r="I22" s="1"/>
+      <c r="J22" s="1"/>
+      <c r="K22" s="1"/>
+      <c r="L22" s="1"/>
+      <c r="M22" s="1"/>
+      <c r="N22" s="1"/>
+      <c r="O22" s="1"/>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A23" s="4"/>
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
+      <c r="H23" s="1"/>
+      <c r="I23" s="1"/>
+      <c r="J23" s="1"/>
+      <c r="K23" s="1"/>
+      <c r="L23" s="1"/>
+      <c r="M23" s="1"/>
+      <c r="N23" s="1"/>
+      <c r="O23" s="1"/>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A24" s="4"/>
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1"/>
+      <c r="I24" s="1"/>
+      <c r="J24" s="1"/>
+      <c r="K24" s="1"/>
+      <c r="L24" s="1"/>
+      <c r="M24" s="1"/>
+      <c r="N24" s="1"/>
+      <c r="O24" s="1"/>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A25" s="4"/>
+      <c r="B25" s="1"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
+      <c r="G25" s="1"/>
+      <c r="H25" s="1"/>
+      <c r="I25" s="1"/>
+      <c r="J25" s="1"/>
+      <c r="K25" s="1"/>
+      <c r="L25" s="1"/>
+      <c r="M25" s="1"/>
+      <c r="N25" s="1"/>
+      <c r="O25" s="1"/>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A26" s="4"/>
+      <c r="B26" s="1"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
+      <c r="G26" s="1"/>
+      <c r="H26" s="1"/>
+      <c r="I26" s="1"/>
+      <c r="J26" s="1"/>
+      <c r="K26" s="1"/>
+      <c r="L26" s="1"/>
+      <c r="M26" s="1"/>
+      <c r="N26" s="1"/>
+      <c r="O26" s="1"/>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A27" s="4"/>
+      <c r="B27" s="1"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
+      <c r="G27" s="1"/>
+      <c r="H27" s="1"/>
+      <c r="I27" s="1"/>
+      <c r="J27" s="1"/>
+      <c r="K27" s="1"/>
+      <c r="L27" s="1"/>
+      <c r="M27" s="1"/>
+      <c r="N27" s="1"/>
+      <c r="O27" s="1"/>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A28" s="4"/>
+      <c r="B28" s="1"/>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1"/>
+      <c r="F28" s="1"/>
+      <c r="G28" s="1"/>
+      <c r="H28" s="1"/>
+      <c r="I28" s="1"/>
+      <c r="J28" s="1"/>
+      <c r="K28" s="1"/>
+      <c r="L28" s="1"/>
+      <c r="M28" s="1"/>
+      <c r="N28" s="1"/>
+      <c r="O28" s="1"/>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A29" s="4"/>
+      <c r="B29" s="1"/>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
+      <c r="E29" s="1"/>
+      <c r="F29" s="1"/>
+      <c r="G29" s="1"/>
+      <c r="H29" s="1"/>
+      <c r="I29" s="1"/>
+      <c r="J29" s="1"/>
+      <c r="K29" s="1"/>
+      <c r="L29" s="1"/>
+      <c r="M29" s="1"/>
+      <c r="N29" s="1"/>
+      <c r="O29" s="1"/>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A30" s="4"/>
+      <c r="B30" s="1"/>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1"/>
+      <c r="F30" s="1"/>
+      <c r="G30" s="1"/>
+      <c r="H30" s="1"/>
+      <c r="I30" s="1"/>
+      <c r="J30" s="1"/>
+      <c r="K30" s="1"/>
+      <c r="L30" s="1"/>
+      <c r="M30" s="1"/>
+      <c r="N30" s="1"/>
+      <c r="O30" s="1"/>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A31" s="5"/>
+      <c r="B31" s="1"/>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1"/>
+      <c r="E31" s="1"/>
+      <c r="F31" s="1"/>
+      <c r="G31" s="1"/>
+      <c r="H31" s="1"/>
+      <c r="I31" s="1"/>
+      <c r="J31" s="1"/>
+      <c r="K31" s="1"/>
+      <c r="L31" s="1"/>
+      <c r="M31" s="1"/>
+      <c r="N31" s="1"/>
+      <c r="O31" s="1"/>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A32" s="5"/>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" s="5"/>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" s="5"/>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" s="5"/>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36" s="5"/>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37" s="5"/>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38" s="5"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2DC48825-0951-4935-BECC-69A257928C38}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -21619,7 +23624,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99132D6D-35E2-4926-B6C3-04966ABB2777}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -21634,7 +23639,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61DF0721-D325-46FF-925A-6DF5164E87E7}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -21649,7 +23654,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F31302A-C3AD-4B4A-8BA9-6BBDD043C47F}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -21664,7 +23669,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5369178-8155-4772-9674-A05DC695F2A7}">
   <dimension ref="A1"/>
   <sheetViews>
